--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -808,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -923,9 +923,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1217,23 +1223,23 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.21875" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="29" customWidth="1"/>
     <col min="8" max="8" width="6" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="0.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="3.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="0.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1287,7 +1293,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1322,7 +1328,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1398,7 +1404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="11">
         <f t="shared" si="1"/>
@@ -1421,7 +1427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="11">
         <f t="shared" si="1"/>
@@ -1445,7 +1451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1519,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1544,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="11">
         <f t="shared" si="1"/>
@@ -1565,7 +1571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11">
         <f t="shared" si="1"/>
@@ -1589,7 +1595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="11">
         <f t="shared" si="1"/>
@@ -1607,7 +1613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="11">
         <f t="shared" si="1"/>
@@ -1625,7 +1631,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1675,7 +1681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1697,7 +1703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="11">
         <f t="shared" si="1"/>
@@ -1715,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="11">
         <f t="shared" si="1"/>
@@ -1783,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="11">
         <f t="shared" si="1"/>
@@ -1799,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="11">
         <f t="shared" si="1"/>
@@ -1815,7 +1821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="11">
         <f t="shared" si="1"/>
@@ -1837,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="11">
         <f t="shared" si="1"/>
@@ -1859,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="11">
         <f t="shared" si="1"/>
@@ -1881,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="11">
         <f t="shared" si="1"/>
@@ -1900,7 +1906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="11">
         <f t="shared" si="1"/>
@@ -1919,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="11">
         <f t="shared" si="1"/>
@@ -1939,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="11">
         <f t="shared" si="1"/>
@@ -1956,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="11">
         <f t="shared" si="1"/>
@@ -1970,7 +1976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="11">
         <f t="shared" si="1"/>
@@ -1984,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="11">
         <f t="shared" si="1"/>
@@ -1998,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="11">
         <f t="shared" si="1"/>
@@ -2012,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="11">
         <f t="shared" si="1"/>
@@ -2028,7 +2034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="11">
         <f t="shared" si="1"/>
@@ -2042,7 +2048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="11">
         <f t="shared" si="1"/>
@@ -2056,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="11">
         <f t="shared" si="1"/>
@@ -2070,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="11">
         <f t="shared" si="1"/>
@@ -2084,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="11">
         <f t="shared" si="1"/>
@@ -2097,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="11">
         <f t="shared" si="1"/>
@@ -2111,7 +2117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="11">
         <f t="shared" si="1"/>
@@ -2125,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="11">
         <f t="shared" si="1"/>
@@ -2139,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="11">
         <f t="shared" si="1"/>
@@ -2153,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="11">
         <f t="shared" si="1"/>
@@ -2167,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="11">
         <f t="shared" si="1"/>
@@ -2181,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="11">
         <f t="shared" si="1"/>
@@ -2195,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="11">
         <f t="shared" si="1"/>
@@ -2209,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="11">
         <f t="shared" si="1"/>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="11">
         <f t="shared" si="1"/>
@@ -2247,26 +2253,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.77734375" style="34" customWidth="1"/>
+    <col min="1" max="1" width="48.7109375" style="34" customWidth="1"/>
     <col min="2" max="2" width="10" style="36" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" customWidth="1"/>
-    <col min="4" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="1.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="37" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="37" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="1.42578125" customWidth="1"/>
+    <col min="8" max="8" width="24.140625" style="37" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" style="37" customWidth="1"/>
     <col min="10" max="10" width="12" style="37" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
@@ -2292,7 +2298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
         <v>98</v>
       </c>
@@ -2301,14 +2307,14 @@
       </c>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43171</v>
+        <v>43174</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B2:B141)</f>
@@ -2316,10 +2322,10 @@
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>99</v>
       </c>
@@ -2339,7 +2345,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>100</v>
       </c>
@@ -2359,7 +2365,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>101</v>
       </c>
@@ -2379,7 +2385,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
         <v>144</v>
       </c>
@@ -2399,7 +2405,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>143</v>
       </c>
@@ -2416,21 +2422,21 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="42">
         <v>0</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="45" t="s">
         <v>115</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>103</v>
       </c>
@@ -2441,7 +2447,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>104</v>
       </c>
@@ -2452,7 +2458,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>105</v>
       </c>
@@ -2463,7 +2469,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>106</v>
       </c>
@@ -2471,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>107</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>108</v>
       </c>
@@ -2487,7 +2493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>145</v>
       </c>
@@ -2495,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>109</v>
       </c>
@@ -2503,15 +2509,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="47">
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>60</v>
       </c>
@@ -2519,7 +2525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>118</v>
       </c>
@@ -2527,7 +2533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>15</v>
       </c>
@@ -2535,7 +2541,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>22</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>123</v>
       </c>
@@ -2551,7 +2557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>129</v>
       </c>
@@ -2559,7 +2565,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>135</v>
       </c>
@@ -2567,7 +2573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>136</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>75</v>
       </c>
@@ -2583,7 +2589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>74</v>
       </c>
@@ -2591,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>68</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="41" t="s">
         <v>138</v>
       </c>
@@ -2607,7 +2613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>86</v>
       </c>
@@ -2615,7 +2621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>90</v>
       </c>
@@ -2623,7 +2629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>91</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
         <v>94</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>85</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="34" t="s">
         <v>81</v>
       </c>
@@ -2655,7 +2661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>73</v>
       </c>
@@ -2663,7 +2669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="34" t="s">
         <v>83</v>
       </c>
@@ -2671,7 +2677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="34" t="s">
         <v>139</v>
       </c>
@@ -2679,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="34" t="s">
         <v>163</v>
       </c>
@@ -2697,18 +2703,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="32" customWidth="1"/>
-    <col min="3" max="4" width="63.109375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="45.140625" style="32" customWidth="1"/>
+    <col min="3" max="4" width="63.140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>76</v>
       </c>
@@ -2722,7 +2728,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>165</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>167</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>168</v>
       </c>
@@ -2758,7 +2764,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>169</v>
       </c>
@@ -2769,7 +2775,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>88</v>
       </c>
@@ -2777,7 +2783,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>141</v>
       </c>
@@ -2791,7 +2797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>142</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
         <v>95</v>
       </c>
@@ -2813,42 +2819,42 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="32" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" s="32" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="32" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="32" t="s">
         <v>160</v>
       </c>
@@ -2866,13 +2872,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="44" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>146</v>
       </c>
@@ -2880,7 +2886,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>148</v>
       </c>
@@ -2888,7 +2894,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>148</v>
       </c>
@@ -2896,7 +2902,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>151</v>
       </c>
@@ -2904,7 +2910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>151</v>
       </c>
@@ -2912,7 +2918,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>154</v>
       </c>
@@ -2920,7 +2926,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>154</v>
       </c>
@@ -2928,7 +2934,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>157</v>
       </c>
@@ -2936,7 +2942,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>158</v>
       </c>
@@ -2944,7 +2950,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>149</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>149</v>
       </c>
@@ -2960,7 +2966,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>158</v>
       </c>
@@ -2968,7 +2974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>149</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -2254,8 +2254,8 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H11" sqref="H11"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2267,9 +2267,9 @@
     <col min="6" max="6" width="13.28515625" customWidth="1"/>
     <col min="7" max="7" width="1.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="23.28515625" style="37" customWidth="1"/>
-    <col min="10" max="10" width="12" style="37" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="37" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" style="37" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" style="37" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" style="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2307,22 +2307,22 @@
       </c>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43174</v>
+        <v>43175</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B2:B141)</f>
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-18</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2465,7 +2465,7 @@
       <c r="B11" s="36">
         <v>1</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="45" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2514,7 +2514,7 @@
         <v>110</v>
       </c>
       <c r="B17" s="47">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
   <si>
     <t>№</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Today</t>
   </si>
   <si>
-    <t>CalendarDataBuilder</t>
-  </si>
-  <si>
     <t>Шаблон чека</t>
   </si>
   <si>
@@ -358,81 +355,9 @@
     <t>Refactoring: Придумать заполнение Combobox nullable ids</t>
   </si>
   <si>
-    <t>Transactions page</t>
-  </si>
-  <si>
-    <t>Records list</t>
-  </si>
-  <si>
-    <t>record details</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>show for period</t>
-  </si>
-  <si>
-    <t>show planned events</t>
-  </si>
-  <si>
-    <t>show money transfers in list</t>
-  </si>
-  <si>
-    <t>Context menu for planned</t>
-  </si>
-  <si>
-    <t>Calendar page</t>
-  </si>
-  <si>
-    <t>Calculate calendar day data</t>
-  </si>
-  <si>
-    <t>Calendar day control</t>
-  </si>
-  <si>
-    <t>Show data period</t>
-  </si>
-  <si>
     <t>Add family</t>
   </si>
   <si>
-    <t>Reports page</t>
-  </si>
-  <si>
-    <t>Pie chart</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Bar chart</t>
-  </si>
-  <si>
-    <t>Parameters</t>
-  </si>
-  <si>
-    <t>data builder</t>
-  </si>
-  <si>
-    <t>Dashboard</t>
-  </si>
-  <si>
-    <t>Events for confirmation</t>
-  </si>
-  <si>
-    <t>Events to be executed today</t>
-  </si>
-  <si>
-    <t>Add cheque</t>
-  </si>
-  <si>
-    <t>Today transactions</t>
-  </si>
-  <si>
-    <t>Balance summary</t>
-  </si>
-  <si>
     <t>Settings page: general data</t>
   </si>
   <si>
@@ -517,25 +442,112 @@
     <t>Вынести opacity в отдельный файл стилей</t>
   </si>
   <si>
-    <t>Events: "apply" menu item -&gt; show record details</t>
-  </si>
-  <si>
     <t>Replace OrderBy into the service</t>
   </si>
   <si>
-    <t>Add cheque -&gt; grid style</t>
-  </si>
-  <si>
     <t>Создать свои стили для всех компонентов (не использовать MetroStyle/MaterialDesign)</t>
   </si>
   <si>
-    <t>Add cheque -&gt; on close ask confirmation</t>
-  </si>
-  <si>
-    <t>Add cheque -&gt; exchange rate doesn't work</t>
-  </si>
-  <si>
-    <t>Add chequ -&gt; category isn't selected</t>
+    <t>Transactions page. Records list</t>
+  </si>
+  <si>
+    <t>Transactions page. Record details</t>
+  </si>
+  <si>
+    <t>Transactions page. Filter</t>
+  </si>
+  <si>
+    <t>Transactions page. Show for period</t>
+  </si>
+  <si>
+    <t>Transactions page. Show planned events</t>
+  </si>
+  <si>
+    <t>Transactions page. Show money transfers in list</t>
+  </si>
+  <si>
+    <t>Transactions page. Context menu for planned</t>
+  </si>
+  <si>
+    <t>Transactions page. Add cheque</t>
+  </si>
+  <si>
+    <t>Transactions page. Save filter to DB</t>
+  </si>
+  <si>
+    <t>CalendarDataBuilder. Limits</t>
+  </si>
+  <si>
+    <t>CalendarDataBuilder. Day data</t>
+  </si>
+  <si>
+    <t>Calendar page. Show for period</t>
+  </si>
+  <si>
+    <t>Calendar page. Calendar day control</t>
+  </si>
+  <si>
+    <t>Calendar page. Filter</t>
+  </si>
+  <si>
+    <t>Calendar page. Save filter to DB</t>
+  </si>
+  <si>
+    <t>Calendar page. Base view</t>
+  </si>
+  <si>
+    <t>Calendar page. Open list/details on double click</t>
+  </si>
+  <si>
+    <t>Reports page. Pie chart</t>
+  </si>
+  <si>
+    <t>Reports page. Table</t>
+  </si>
+  <si>
+    <t>Reports page. Bar chart</t>
+  </si>
+  <si>
+    <t>Reports page. Filter</t>
+  </si>
+  <si>
+    <t>Reports page. Data builder</t>
+  </si>
+  <si>
+    <t>Reports page. Base view</t>
+  </si>
+  <si>
+    <t>Reports page. Show for period</t>
+  </si>
+  <si>
+    <t>Dashboard. Base view</t>
+  </si>
+  <si>
+    <t>Dashboard. Today transactions</t>
+  </si>
+  <si>
+    <t>Dashboard. Balance summary</t>
+  </si>
+  <si>
+    <t>Dashboard. Events for confirmation DB</t>
+  </si>
+  <si>
+    <t>Dashboard. Events for confirmation View</t>
+  </si>
+  <si>
+    <t>Dashboard. Events to be executed today DB</t>
+  </si>
+  <si>
+    <t>Dashboard. Events to be executed today View</t>
+  </si>
+  <si>
+    <t>Dashboard. Alerts: exceeded limit, debt should be repayed…</t>
+  </si>
+  <si>
+    <t>For every new entity fill default required foreign key values</t>
+  </si>
+  <si>
+    <t>Events: "Create transaction" menu item -&gt; show record details</t>
   </si>
 </sst>
 </file>
@@ -646,7 +658,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -804,11 +816,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -886,25 +924,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -920,18 +946,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1223,23 +1251,23 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="29" customWidth="1"/>
     <col min="8" max="8" width="6" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="0.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="8"/>
+    <col min="9" max="9" width="3.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="0.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1262,7 +1290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +1321,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1328,7 +1356,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1357,7 +1385,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1379,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1404,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="11">
         <f t="shared" si="1"/>
@@ -1427,7 +1455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="11">
         <f t="shared" si="1"/>
@@ -1441,7 +1469,7 @@
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="30" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>48</v>
@@ -1451,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1475,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1500,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1525,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1550,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="11">
         <f t="shared" si="1"/>
@@ -1571,7 +1599,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="11">
         <f t="shared" si="1"/>
@@ -1595,7 +1623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="11">
         <f t="shared" si="1"/>
@@ -1613,7 +1641,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="11">
         <f t="shared" si="1"/>
@@ -1631,7 +1659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1659,7 +1687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1681,7 +1709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1703,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="11">
         <f t="shared" si="1"/>
@@ -1721,7 +1749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -1765,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="11">
         <f t="shared" si="1"/>
@@ -1789,7 +1817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="11">
         <f t="shared" si="1"/>
@@ -1805,14 +1833,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="11">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
@@ -1821,14 +1849,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="11">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
@@ -1843,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="11">
         <f t="shared" si="1"/>
@@ -1865,14 +1893,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="11">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
@@ -1887,14 +1915,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="11">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
@@ -1906,14 +1934,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="11">
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
@@ -1925,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="11">
         <f t="shared" si="1"/>
@@ -1945,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="11">
         <f t="shared" si="1"/>
@@ -1955,14 +1983,14 @@
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="G32" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="11">
         <f t="shared" si="1"/>
@@ -1976,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="11">
         <f t="shared" si="1"/>
@@ -1990,7 +2018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="11">
         <f t="shared" si="1"/>
@@ -2004,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="11">
         <f t="shared" si="1"/>
@@ -2018,14 +2046,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="11">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -2034,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="11">
         <f t="shared" si="1"/>
@@ -2048,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="11">
         <f t="shared" si="1"/>
@@ -2062,7 +2090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="11">
         <f t="shared" si="1"/>
@@ -2076,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="11">
         <f t="shared" si="1"/>
@@ -2090,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="11">
         <f t="shared" si="1"/>
@@ -2103,7 +2131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="11">
         <f t="shared" si="1"/>
@@ -2117,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="11">
         <f t="shared" si="1"/>
@@ -2131,7 +2159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="11">
         <f t="shared" si="1"/>
@@ -2145,7 +2173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="11">
         <f t="shared" si="1"/>
@@ -2159,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="11">
         <f t="shared" si="1"/>
@@ -2173,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="11">
         <f t="shared" si="1"/>
@@ -2187,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="11">
         <f t="shared" si="1"/>
@@ -2201,7 +2229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="11">
         <f t="shared" si="1"/>
@@ -2215,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="11">
         <f t="shared" si="1"/>
@@ -2229,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="11">
         <f t="shared" si="1"/>
@@ -2251,32 +2279,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.7109375" style="34" customWidth="1"/>
-    <col min="2" max="2" width="10" style="36" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" customWidth="1"/>
-    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="1.42578125" customWidth="1"/>
-    <col min="8" max="8" width="24.140625" style="37" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" style="37" customWidth="1"/>
-    <col min="10" max="10" width="15.7109375" style="37" customWidth="1"/>
-    <col min="11" max="11" width="26.5703125" style="37" customWidth="1"/>
+    <col min="1" max="1" width="48.6640625" style="33" customWidth="1"/>
+    <col min="2" max="2" width="10" style="34" customWidth="1"/>
+    <col min="3" max="3" width="2.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" customWidth="1"/>
+    <col min="7" max="7" width="1.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.109375" style="35" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" style="35" customWidth="1"/>
+    <col min="11" max="11" width="26.5546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="44" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -2288,412 +2317,566 @@
       <c r="F1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="37">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="42">
-        <v>0</v>
-      </c>
+      <c r="I1" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43175</v>
+        <v>43176</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" s="25">
-        <f>SUM(B2:B141)</f>
-        <v>123</v>
+        <f>SUM(B3:B169)</f>
+        <v>130</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="38">
+        <v>0</v>
+      </c>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="42">
-        <v>0</v>
-      </c>
-      <c r="H3" s="38" t="s">
+      <c r="B5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B20" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B25" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="B31" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="B32" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B34" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B37" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B38" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="B41" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="B47" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="B48" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="K3" s="38" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="42">
-        <v>0</v>
-      </c>
-      <c r="H4" s="45" t="s">
+      <c r="B52" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="I4" s="39" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="K4" s="39" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="B5" s="42">
-        <v>0</v>
-      </c>
-      <c r="H5" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="J5" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="42">
-        <v>0</v>
-      </c>
-      <c r="H6" s="39" t="s">
+      <c r="B53" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="I6" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="K6" s="39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="42">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45" t="s">
+      <c r="B57" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B63" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="J7" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="42">
-        <v>0</v>
-      </c>
-      <c r="H8" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="36">
-        <v>2</v>
-      </c>
-      <c r="H9" s="45" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="42">
-        <v>0</v>
-      </c>
-      <c r="H10" s="39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="36">
+      <c r="B66" s="34">
         <v>1</v>
       </c>
-      <c r="H11" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="36">
+    </row>
+    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="B14" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="B15" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>110</v>
-      </c>
-      <c r="B17" s="47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>118</v>
-      </c>
-      <c r="B19" s="36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="36">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="B22" s="36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="36">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B24" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B25" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="B29" s="42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="B32" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="B35" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B36" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="34" t="s">
-        <v>163</v>
-      </c>
-      <c r="B39" s="36">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2704,159 +2887,147 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="45.140625" style="32" customWidth="1"/>
-    <col min="3" max="4" width="63.140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="45.109375" style="32" customWidth="1"/>
+    <col min="3" max="4" width="63.109375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C2" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="C3" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C1" s="26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="32" t="s">
+      <c r="D4" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="32" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="D2" s="32" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="32" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>169</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="32" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="32" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
-        <v>95</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="32" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C15" s="32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C16" s="32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="32" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2872,114 +3043,114 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" style="44" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
-        <v>146</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="39" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="B5" s="40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+      <c r="B11" s="40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="44" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="44" t="s">
-        <v>166</v>
+        <v>124</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="176">
   <si>
     <t>№</t>
   </si>
@@ -548,6 +548,12 @@
   </si>
   <si>
     <t>Events: "Create transaction" menu item -&gt; show record details</t>
+  </si>
+  <si>
+    <t>Refactoring: create separate control for period selector</t>
+  </si>
+  <si>
+    <t>Refactoring: create separate control for data filter</t>
   </si>
 </sst>
 </file>
@@ -2279,11 +2285,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2329,22 +2335,22 @@
       <c r="B2" s="45"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43176</v>
+        <v>43177</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H2" s="25">
-        <f>SUM(B3:B169)</f>
-        <v>130</v>
+        <f>SUM(B3:B171)</f>
+        <v>131</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-24</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2497,11 +2503,11 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B21" s="34">
-        <v>1</v>
+      <c r="B21" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2546,175 +2552,175 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="B27" s="34">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="B28" s="34">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B29" s="34">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" s="34">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B31" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B34" s="34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>15</v>
+        <v>154</v>
       </c>
       <c r="B35" s="34">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="B36" s="34">
-        <v>21</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>162</v>
+        <v>15</v>
       </c>
       <c r="B37" s="34">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>157</v>
+        <v>22</v>
       </c>
       <c r="B38" s="34">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B39" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B40" s="34">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B41" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B42" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B43" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B44" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B45" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B46" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B47" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B48" s="34">
         <v>1</v>
@@ -2722,103 +2728,103 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B49" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B50" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B51" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>110</v>
+        <v>166</v>
       </c>
       <c r="B52" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>111</v>
+        <v>171</v>
       </c>
       <c r="B53" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="33" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="B54" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B55" s="34">
+      <c r="B57" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="37" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="37" t="s">
+      <c r="B58" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="B57" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B59" s="34">
-        <v>1</v>
+      <c r="B59" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B60" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B61" s="34">
         <v>1</v>
@@ -2826,15 +2832,15 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="33" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B62" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>80</v>
+        <v>172</v>
       </c>
       <c r="B63" s="34">
         <v>1</v>
@@ -2842,7 +2848,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B64" s="34">
         <v>1</v>
@@ -2850,7 +2856,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B65" s="34">
         <v>1</v>
@@ -2858,17 +2864,33 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="B66" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="B67" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B68" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="33" t="s">
         <v>173</v>
       </c>
-      <c r="B67" s="34">
+      <c r="B69" s="34">
         <v>1</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -2288,8 +2288,8 @@
   <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,14 +2335,14 @@
       <c r="B2" s="45"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43177</v>
+        <v>43178</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-26</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="179">
   <si>
     <t>№</t>
   </si>
@@ -554,6 +554,15 @@
   </si>
   <si>
     <t>Refactoring: create separate control for data filter</t>
+  </si>
+  <si>
+    <t>Perfomance</t>
+  </si>
+  <si>
+    <t>Replace all data loading in pages into the loaded event instead of constructor</t>
+  </si>
+  <si>
+    <t>Data filter control -&gt; category tree context menu (expand all, collapse all, select all, upselect all, select branch, unselect branch)</t>
   </si>
 </sst>
 </file>
@@ -2285,11 +2294,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2335,22 +2344,22 @@
       <c r="B2" s="45"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43178</v>
+        <v>43189</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-27</v>
+        <v>-37</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2495,11 +2504,11 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="34">
-        <v>3</v>
+      <c r="B20" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,6 +2901,14 @@
       </c>
       <c r="B69" s="34">
         <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B70" s="34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3059,10 +3076,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3175,6 +3192,14 @@
         <v>139</v>
       </c>
     </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -442,9 +442,6 @@
     <t>Вынести opacity в отдельный файл стилей</t>
   </si>
   <si>
-    <t>Replace OrderBy into the service</t>
-  </si>
-  <si>
     <t>Создать свои стили для всех компонентов (не использовать MetroStyle/MaterialDesign)</t>
   </si>
   <si>
@@ -563,6 +560,9 @@
   </si>
   <si>
     <t>Data filter control -&gt; category tree context menu (expand all, collapse all, select all, upselect all, select branch, unselect branch)</t>
+  </si>
+  <si>
+    <t>Replace OrderBy into the service in the entity selections</t>
   </si>
 </sst>
 </file>
@@ -861,7 +861,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -972,6 +972,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2297,8 +2298,8 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2355,11 +2356,11 @@
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-37</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2489,7 +2490,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" s="38">
         <v>0</v>
@@ -2497,7 +2498,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B19" s="38">
         <v>0</v>
@@ -2505,7 +2506,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B20" s="38">
         <v>0</v>
@@ -2513,7 +2514,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B21" s="38">
         <v>0</v>
@@ -2521,7 +2522,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22" s="38">
         <v>0</v>
@@ -2529,7 +2530,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="38">
         <v>0</v>
@@ -2537,7 +2538,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B24" s="38">
         <v>0</v>
@@ -2545,7 +2546,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B25" s="34">
         <v>1</v>
@@ -2553,7 +2554,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B26" s="38">
         <v>0</v>
@@ -2561,23 +2562,23 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B27" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="B28" s="34">
-        <v>1</v>
+      <c r="A28" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="B28" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B29" s="34">
         <v>7</v>
@@ -2585,7 +2586,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B30" s="34">
         <v>7</v>
@@ -2593,7 +2594,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B31" s="34">
         <v>3</v>
@@ -2601,7 +2602,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B32" s="34">
         <v>3</v>
@@ -2609,7 +2610,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B33" s="34">
         <v>2</v>
@@ -2617,7 +2618,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B34" s="34">
         <v>2</v>
@@ -2625,7 +2626,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B35" s="34">
         <v>1</v>
@@ -2633,7 +2634,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B36" s="34">
         <v>4</v>
@@ -2657,7 +2658,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" s="34">
         <v>2</v>
@@ -2665,7 +2666,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B40" s="34">
         <v>7</v>
@@ -2673,7 +2674,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B41" s="34">
         <v>1</v>
@@ -2681,7 +2682,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B42" s="34">
         <v>4</v>
@@ -2689,7 +2690,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B43" s="34">
         <v>3</v>
@@ -2697,7 +2698,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B44" s="34">
         <v>1</v>
@@ -2705,7 +2706,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B45" s="34">
         <v>2</v>
@@ -2713,7 +2714,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B46" s="34">
         <v>2</v>
@@ -2721,7 +2722,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B47" s="34">
         <v>3</v>
@@ -2729,7 +2730,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" s="34">
         <v>1</v>
@@ -2737,7 +2738,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B49" s="34">
         <v>2</v>
@@ -2745,7 +2746,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B50" s="34">
         <v>1</v>
@@ -2753,7 +2754,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B51" s="34">
         <v>1</v>
@@ -2761,7 +2762,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B52" s="34">
         <v>1</v>
@@ -2769,7 +2770,7 @@
     </row>
     <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B53" s="34">
         <v>3</v>
@@ -2849,7 +2850,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B63" s="34">
         <v>1</v>
@@ -2897,7 +2898,7 @@
     </row>
     <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B69" s="34">
         <v>1</v>
@@ -2905,7 +2906,7 @@
     </row>
     <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B70" s="34">
         <v>2</v>
@@ -3079,7 +3080,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3181,7 +3182,7 @@
         <v>133</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3189,15 +3190,15 @@
         <v>124</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="46" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" s="46" t="s">
         <v>176</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -2298,8 +2298,8 @@
   <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,11 +2356,11 @@
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-36</v>
+        <v>-35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2561,11 +2561,11 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="B27" s="34">
-        <v>1</v>
+      <c r="B27" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
   <si>
     <t>№</t>
   </si>
@@ -433,9 +433,6 @@
     <t>Use EntityListViewModel for all pages (if necessary)</t>
   </si>
   <si>
-    <t>Сделать красивое окошко Limit details</t>
-  </si>
-  <si>
     <t>Вынести все цвета в отдельный файл (Greed, Red)</t>
   </si>
   <si>
@@ -484,12 +481,6 @@
     <t>Calendar page. Calendar day control</t>
   </si>
   <si>
-    <t>Calendar page. Filter</t>
-  </si>
-  <si>
-    <t>Calendar page. Save filter to DB</t>
-  </si>
-  <si>
     <t>Calendar page. Base view</t>
   </si>
   <si>
@@ -563,6 +554,18 @@
   </si>
   <si>
     <t>Replace OrderBy into the service in the entity selections</t>
+  </si>
+  <si>
+    <t>Transactions Page: show/hide planned transactions</t>
+  </si>
+  <si>
+    <t>Update limits on record/money transfer is added</t>
+  </si>
+  <si>
+    <t>Calendar page. Settings</t>
+  </si>
+  <si>
+    <t>Calendar page. Save settings to DB</t>
   </si>
 </sst>
 </file>
@@ -2295,11 +2298,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2356,11 +2359,11 @@
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-35</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2490,7 +2493,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B18" s="38">
         <v>0</v>
@@ -2498,7 +2501,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B19" s="38">
         <v>0</v>
@@ -2506,7 +2509,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B20" s="38">
         <v>0</v>
@@ -2514,7 +2517,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="38">
         <v>0</v>
@@ -2522,7 +2525,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22" s="38">
         <v>0</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="37" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B23" s="38">
         <v>0</v>
@@ -2538,7 +2541,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B24" s="38">
         <v>0</v>
@@ -2546,7 +2549,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B25" s="34">
         <v>1</v>
@@ -2554,7 +2557,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B26" s="38">
         <v>0</v>
@@ -2562,7 +2565,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" s="38">
         <v>0</v>
@@ -2570,7 +2573,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B28" s="38">
         <v>0</v>
@@ -2578,7 +2581,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="33" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B29" s="34">
         <v>7</v>
@@ -2586,7 +2589,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="34">
         <v>7</v>
@@ -2594,47 +2597,47 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B31" s="34">
         <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B32" s="34">
-        <v>3</v>
+      <c r="A32" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B32" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="34">
         <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B34" s="34">
-        <v>2</v>
+      <c r="A34" s="37" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B35" s="34">
-        <v>1</v>
+      <c r="A35" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B35" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="33" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B36" s="34">
         <v>4</v>
@@ -2658,7 +2661,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39" s="34">
         <v>2</v>
@@ -2666,7 +2669,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B40" s="34">
         <v>7</v>
@@ -2674,7 +2677,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B41" s="34">
         <v>1</v>
@@ -2682,7 +2685,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B42" s="34">
         <v>4</v>
@@ -2690,7 +2693,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B43" s="34">
         <v>3</v>
@@ -2698,7 +2701,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B44" s="34">
         <v>1</v>
@@ -2706,7 +2709,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B45" s="34">
         <v>2</v>
@@ -2714,7 +2717,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B46" s="34">
         <v>2</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B47" s="34">
         <v>3</v>
@@ -2730,7 +2733,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B48" s="34">
         <v>1</v>
@@ -2738,7 +2741,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B49" s="34">
         <v>2</v>
@@ -2746,7 +2749,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B50" s="34">
         <v>1</v>
@@ -2754,7 +2757,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B51" s="34">
         <v>1</v>
@@ -2762,7 +2765,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B52" s="34">
         <v>1</v>
@@ -2770,7 +2773,7 @@
     </row>
     <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B53" s="34">
         <v>3</v>
@@ -2850,7 +2853,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B63" s="34">
         <v>1</v>
@@ -2898,7 +2901,7 @@
     </row>
     <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B69" s="34">
         <v>1</v>
@@ -2906,10 +2909,26 @@
     </row>
     <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B70" s="34">
         <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2924,10 +2943,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3063,11 +3082,6 @@
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C16" s="32" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="32" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3166,7 +3180,7 @@
         <v>124</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3174,7 +3188,7 @@
         <v>124</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3182,7 +3196,7 @@
         <v>133</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3190,15 +3204,15 @@
         <v>124</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EDA5DAD4-8FFC-4801-BEE3-4C551E842357}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -571,7 +572,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -969,13 +970,13 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1261,7 +1262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
@@ -2297,12 +2298,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2321,10 +2322,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>56</v>
       </c>
       <c r="D1" s="26" t="s">
@@ -2344,26 +2345,26 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43189</v>
+        <v>43191</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-31</v>
+        <v>-27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2584,7 +2585,7 @@
         <v>148</v>
       </c>
       <c r="B29" s="34">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -2600,7 +2601,7 @@
         <v>151</v>
       </c>
       <c r="B31" s="34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -2616,7 +2617,7 @@
         <v>150</v>
       </c>
       <c r="B33" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -2942,7 +2943,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3090,7 +3091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3208,10 +3209,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="44" t="s">
         <v>172</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>173</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EDA5DAD4-8FFC-4801-BEE3-4C551E842357}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38779874-CA60-41E2-A163-57A254F973E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2302,8 +2302,8 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,22 +2349,22 @@
       <c r="B2" s="46"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43191</v>
+        <v>43192</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-27</v>
+        <v>-26</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -2597,11 +2597,11 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="33" t="s">
+      <c r="A31" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B31" s="34">
-        <v>2</v>
+      <c r="B31" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{38779874-CA60-41E2-A163-57A254F973E4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3295C7A7-68DB-4B80-A784-335518EA248B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
   <si>
     <t>№</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>Calendar page. Save settings to DB</t>
+  </si>
+  <si>
+    <t>Event services</t>
+  </si>
+  <si>
+    <t>Make generic Currency exchange rage updating</t>
   </si>
 </sst>
 </file>
@@ -2302,8 +2308,8 @@
   <dimension ref="A1:K72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2349,14 +2355,14 @@
       <c r="B2" s="46"/>
       <c r="D2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43192</v>
+        <v>43197</v>
       </c>
       <c r="E2" s="27">
         <v>43282</v>
       </c>
       <c r="F2" s="25">
         <f ca="1">E2-D2</f>
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H2" s="25">
         <f>SUM(B3:B171)</f>
@@ -2364,7 +2370,7 @@
       </c>
       <c r="I2" s="25">
         <f ca="1">F2-H2</f>
-        <v>-26</v>
+        <v>-31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3092,10 +3098,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3216,6 +3222,14 @@
         <v>173</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3295C7A7-68DB-4B80-A784-335518EA248B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3B259222-55B1-4377-9FAC-5F96C65F477F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12,6 +12,7 @@
     <sheet name="Estimate" sheetId="2" r:id="rId2"/>
     <sheet name="Bugs" sheetId="4" r:id="rId3"/>
     <sheet name="Refactoring" sheetId="5" r:id="rId4"/>
+    <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plans!$A$1:$E$52</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
   <si>
     <t>№</t>
   </si>
@@ -245,9 +246,6 @@
     <t>All buttons ToggleButton -&gt; change icon when unckecked and change tooltip</t>
   </si>
   <si>
-    <t>Ограничения на строки (DetailsView)</t>
-  </si>
-  <si>
     <t>Обработчики delete exceptions</t>
   </si>
   <si>
@@ -269,9 +267,6 @@
     <t>User local settings -&gt; main menu shown</t>
   </si>
   <si>
-    <t>Categories page -&gt; expand all/collapse all</t>
-  </si>
-  <si>
     <t>Если приложение падает, отправлять мейл. Хранить ошибки в бд</t>
   </si>
   <si>
@@ -296,21 +291,12 @@
     <t>User settings - autofill description from selected category</t>
   </si>
   <si>
-    <t>Storages page -&gt; double click -&gt; edit</t>
-  </si>
-  <si>
-    <t>Storages page -&gt; drug/drop</t>
-  </si>
-  <si>
     <t>Debts page. Model. Binding.</t>
   </si>
   <si>
     <t>Replace all additional fields from models to view models</t>
   </si>
   <si>
-    <t>For every new entity fill default requires foreign key values</t>
-  </si>
-  <si>
     <t>Check details view on enums</t>
   </si>
   <si>
@@ -329,69 +315,18 @@
     <t>RepayDebtEventDetailsView</t>
   </si>
   <si>
-    <t>PlanningPage -&gt; Limits list + LimitDetailsView</t>
-  </si>
-  <si>
-    <t>Refactoring: base details view</t>
-  </si>
-  <si>
-    <t>Refactoring: models &amp; view models</t>
-  </si>
-  <si>
-    <t>Refactoring: services (onAdd, onEdit, onDelete methods)</t>
-  </si>
-  <si>
-    <t>Refactoring: Commission in entities(models) to separate entity</t>
-  </si>
-  <si>
-    <t>Refactoring: default command implementations</t>
-  </si>
-  <si>
-    <t>Refactoring: Check details view on enums</t>
-  </si>
-  <si>
-    <t>Refactoring: List view -&gt; enum value converter (instead of combobox)</t>
-  </si>
-  <si>
-    <t>Refactoring: Придумать заполнение Combobox nullable ids</t>
-  </si>
-  <si>
     <t>Add family</t>
   </si>
   <si>
-    <t>Settings page: general data</t>
-  </si>
-  <si>
-    <t>Settings page: theme and language</t>
-  </si>
-  <si>
     <t>Remained time</t>
   </si>
   <si>
     <t>Expander size: fix columns size</t>
   </si>
   <si>
-    <t>Events: "apply now" menu item</t>
-  </si>
-  <si>
     <t>Add targets</t>
   </si>
   <si>
-    <t>Debts list -&gt; foreground green/red</t>
-  </si>
-  <si>
-    <t>Money transfer events list -&gt; foreground red if commission exists</t>
-  </si>
-  <si>
-    <t>Refactoring: page options and reload requirements</t>
-  </si>
-  <si>
-    <t>Refactoring: custom controls (category selection dialog, comission control, currency exchange rate selector)</t>
-  </si>
-  <si>
-    <t>Refactoring: see all details views on margin, result value, perfect visual style</t>
-  </si>
-  <si>
     <t>Requires refactoring</t>
   </si>
   <si>
@@ -443,136 +378,229 @@
     <t>Создать свои стили для всех компонентов (не использовать MetroStyle/MaterialDesign)</t>
   </si>
   <si>
-    <t>Transactions page. Records list</t>
-  </si>
-  <si>
-    <t>Transactions page. Record details</t>
-  </si>
-  <si>
-    <t>Transactions page. Filter</t>
-  </si>
-  <si>
-    <t>Transactions page. Show for period</t>
-  </si>
-  <si>
-    <t>Transactions page. Show planned events</t>
-  </si>
-  <si>
-    <t>Transactions page. Show money transfers in list</t>
-  </si>
-  <si>
-    <t>Transactions page. Context menu for planned</t>
-  </si>
-  <si>
-    <t>Transactions page. Add cheque</t>
-  </si>
-  <si>
-    <t>Transactions page. Save filter to DB</t>
-  </si>
-  <si>
-    <t>CalendarDataBuilder. Limits</t>
-  </si>
-  <si>
-    <t>CalendarDataBuilder. Day data</t>
-  </si>
-  <si>
-    <t>Calendar page. Show for period</t>
-  </si>
-  <si>
-    <t>Calendar page. Calendar day control</t>
-  </si>
-  <si>
-    <t>Calendar page. Base view</t>
-  </si>
-  <si>
-    <t>Calendar page. Open list/details on double click</t>
-  </si>
-  <si>
-    <t>Reports page. Pie chart</t>
-  </si>
-  <si>
-    <t>Reports page. Table</t>
-  </si>
-  <si>
-    <t>Reports page. Bar chart</t>
-  </si>
-  <si>
-    <t>Reports page. Filter</t>
-  </si>
-  <si>
-    <t>Reports page. Data builder</t>
-  </si>
-  <si>
-    <t>Reports page. Base view</t>
-  </si>
-  <si>
-    <t>Reports page. Show for period</t>
-  </si>
-  <si>
-    <t>Dashboard. Base view</t>
-  </si>
-  <si>
-    <t>Dashboard. Today transactions</t>
-  </si>
-  <si>
-    <t>Dashboard. Balance summary</t>
-  </si>
-  <si>
-    <t>Dashboard. Events for confirmation DB</t>
-  </si>
-  <si>
-    <t>Dashboard. Events for confirmation View</t>
-  </si>
-  <si>
-    <t>Dashboard. Events to be executed today DB</t>
-  </si>
-  <si>
-    <t>Dashboard. Events to be executed today View</t>
-  </si>
-  <si>
-    <t>Dashboard. Alerts: exceeded limit, debt should be repayed…</t>
-  </si>
-  <si>
     <t>For every new entity fill default required foreign key values</t>
   </si>
   <si>
-    <t>Events: "Create transaction" menu item -&gt; show record details</t>
-  </si>
-  <si>
-    <t>Refactoring: create separate control for period selector</t>
-  </si>
-  <si>
-    <t>Refactoring: create separate control for data filter</t>
-  </si>
-  <si>
     <t>Perfomance</t>
   </si>
   <si>
     <t>Replace all data loading in pages into the loaded event instead of constructor</t>
   </si>
   <si>
-    <t>Data filter control -&gt; category tree context menu (expand all, collapse all, select all, upselect all, select branch, unselect branch)</t>
-  </si>
-  <si>
     <t>Replace OrderBy into the service in the entity selections</t>
   </si>
   <si>
-    <t>Transactions Page: show/hide planned transactions</t>
-  </si>
-  <si>
     <t>Update limits on record/money transfer is added</t>
   </si>
   <si>
-    <t>Calendar page. Settings</t>
-  </si>
-  <si>
-    <t>Calendar page. Save settings to DB</t>
-  </si>
-  <si>
-    <t>Event services</t>
-  </si>
-  <si>
-    <t>Make generic Currency exchange rage updating</t>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Feature(G)</t>
+  </si>
+  <si>
+    <t>Custom controls (category selection dialog, comission control, currency exchange rate selector)</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Details view</t>
+  </si>
+  <si>
+    <t>PlanningPage</t>
+  </si>
+  <si>
+    <t>Limits list + LimitDetailsView</t>
+  </si>
+  <si>
+    <t>Records list</t>
+  </si>
+  <si>
+    <t>Transactions page</t>
+  </si>
+  <si>
+    <t>Record details</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Save filter to DB</t>
+  </si>
+  <si>
+    <t>Show for period</t>
+  </si>
+  <si>
+    <t>Show planned events</t>
+  </si>
+  <si>
+    <t>Show money transfers in list</t>
+  </si>
+  <si>
+    <t>Context menu for planned</t>
+  </si>
+  <si>
+    <t>Add cheque</t>
+  </si>
+  <si>
+    <t>Create separate control for period selector</t>
+  </si>
+  <si>
+    <t>Create separate control for data filter</t>
+  </si>
+  <si>
+    <t>Day data</t>
+  </si>
+  <si>
+    <t>Limits</t>
+  </si>
+  <si>
+    <t>CalendarDataBuilder</t>
+  </si>
+  <si>
+    <t>Page options and reload requirements</t>
+  </si>
+  <si>
+    <t>Base details view</t>
+  </si>
+  <si>
+    <t>Models &amp; view models</t>
+  </si>
+  <si>
+    <t>Services (onAdd, onEdit, onDelete methods)</t>
+  </si>
+  <si>
+    <t>Default command implementations</t>
+  </si>
+  <si>
+    <t>See all details views on margin, result value, perfect visual style</t>
+  </si>
+  <si>
+    <t>Base view</t>
+  </si>
+  <si>
+    <t>Calendar page</t>
+  </si>
+  <si>
+    <t>Calendar day control</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Save settings to DB</t>
+  </si>
+  <si>
+    <t>Open list/details on double click</t>
+  </si>
+  <si>
+    <t>Reports page</t>
+  </si>
+  <si>
+    <t>Pie chart</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Bar chart</t>
+  </si>
+  <si>
+    <t>Data builder</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Events for confirmation DB</t>
+  </si>
+  <si>
+    <t>Events for confirmation View</t>
+  </si>
+  <si>
+    <t>Events to be executed today DB</t>
+  </si>
+  <si>
+    <t>Events to be executed today View</t>
+  </si>
+  <si>
+    <t>Today transactions</t>
+  </si>
+  <si>
+    <t>Balance summary</t>
+  </si>
+  <si>
+    <t>Alerts: exceeded limit, debt should be repayed…</t>
+  </si>
+  <si>
+    <t>General data</t>
+  </si>
+  <si>
+    <t>Settings page</t>
+  </si>
+  <si>
+    <t>Theme and language</t>
+  </si>
+  <si>
+    <t>double click -&gt; edit</t>
+  </si>
+  <si>
+    <t>Storages page</t>
+  </si>
+  <si>
+    <t>drug/drop</t>
+  </si>
+  <si>
+    <t>Summary for every group</t>
+  </si>
+  <si>
+    <t>"apply now" menu item</t>
+  </si>
+  <si>
+    <t>Events</t>
+  </si>
+  <si>
+    <t>"Create transaction" menu item -&gt; show record details</t>
+  </si>
+  <si>
+    <t>Data filter control</t>
+  </si>
+  <si>
+    <t>Category tree context menu (expand all, collapse all, select all, upselect all, select branch, unselect branch)</t>
+  </si>
+  <si>
+    <t>Transactions Page</t>
+  </si>
+  <si>
+    <t>Show/hide planned transactions</t>
+  </si>
+  <si>
+    <t>Debts list</t>
+  </si>
+  <si>
+    <t>Foreground green/red</t>
+  </si>
+  <si>
+    <t>Foreground red if commission exists</t>
+  </si>
+  <si>
+    <t>Money transfer events list</t>
+  </si>
+  <si>
+    <t>Expand all/collapse all</t>
+  </si>
+  <si>
+    <t>Categories page</t>
+  </si>
+  <si>
+    <t>Ограничения на строки</t>
   </si>
 </sst>
 </file>
@@ -871,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,6 +1010,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2009,7 +2050,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="G32" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
@@ -2305,695 +2346,963 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" style="33" customWidth="1"/>
-    <col min="2" max="2" width="10" style="34" customWidth="1"/>
-    <col min="3" max="3" width="2.21875" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="1.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.109375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="35" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="26.5546875" style="35" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="50" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="10" style="34" customWidth="1"/>
+    <col min="5" max="5" width="2.21875" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.77734375" customWidth="1"/>
+    <col min="9" max="9" width="1.44140625" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="35" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="35" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="46"/>
+      <c r="K1" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="48"/>
       <c r="B2" s="46"/>
-      <c r="D2" s="27">
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43197</v>
-      </c>
-      <c r="E2" s="27">
+        <v>43198</v>
+      </c>
+      <c r="G2" s="27">
         <v>43282</v>
       </c>
-      <c r="F2" s="25">
-        <f ca="1">E2-D2</f>
-        <v>85</v>
-      </c>
       <c r="H2" s="25">
-        <f>SUM(B3:B171)</f>
+        <f ca="1">G2-F2</f>
+        <v>84</v>
+      </c>
+      <c r="J2" s="25">
+        <f>SUM(D3:D171)</f>
+        <v>120</v>
+      </c>
+      <c r="K2" s="25">
+        <f ca="1">H2-J2</f>
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="38">
+        <v>0</v>
+      </c>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="49"/>
+      <c r="C7" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="49"/>
+      <c r="C8" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="D18" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="49"/>
+      <c r="B19" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="49"/>
+      <c r="B20" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="49"/>
+      <c r="B21" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="49"/>
+      <c r="B23" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="49"/>
+      <c r="B24" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="49"/>
+      <c r="B26" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="C27" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="49"/>
+      <c r="C28" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="49"/>
+      <c r="B31" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="49"/>
+      <c r="B32" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C37" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C38" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D39" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C40" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D40" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D41" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="D42" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B49" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B50" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="50" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D56" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="49"/>
+      <c r="C58" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D58" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="49"/>
+      <c r="C59" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B62" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="I2" s="25">
-        <f ca="1">F2-H2</f>
-        <v>-31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="38">
-        <v>0</v>
-      </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="B5" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="34">
+      <c r="D63" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C64" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B65" s="50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B66" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B67" s="50" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="D68" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D70" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="34">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B71" s="50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C72" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B16" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B17" s="34">
+      <c r="D72" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="37" t="s">
-        <v>141</v>
-      </c>
-      <c r="B22" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B23" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B24" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="34">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B73" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>185</v>
+      </c>
+      <c r="D73" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="B27" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="37" t="s">
-        <v>171</v>
-      </c>
-      <c r="B28" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B30" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="B31" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="B32" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="B33" s="34">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B74" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74" s="34">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="37" t="s">
-        <v>178</v>
-      </c>
-      <c r="B34" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B35" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="B36" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B37" s="34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="B39" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="B40" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="B41" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="B42" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="B43" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="B44" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="B46" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="B47" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="B48" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B52" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A53" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="B53" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B54" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B56" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B57" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B58" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="B59" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B61" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="B63" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="B64" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B66" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A69" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B69" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B71" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B72" s="34">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B67D7FCE-5958-4F9D-8EF5-7923E0C7736A}">
+          <x14:formula1>
+            <xm:f>Help!$A$2:$A$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34.5546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="45.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="32" customWidth="1"/>
     <col min="3" max="4" width="63.109375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="26" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D2" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="32" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C2" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3001,94 +3310,54 @@
         <v>71</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="32" t="s">
-        <v>86</v>
-      </c>
       <c r="D5" s="32" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>116</v>
-      </c>
       <c r="B7" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>117</v>
-      </c>
       <c r="B8" s="32" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="32" t="s">
-        <v>94</v>
-      </c>
       <c r="C9" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="32" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="32" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="32" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3367,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -3112,122 +3381,157 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>175</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="44" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B14" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
-        <v>180</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>181</v>
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E4AE6-A920-4399-9106-F6BA9167C0EC}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3B259222-55B1-4377-9FAC-5F96C65F477F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A1852856-7329-4A9A-913B-3EF9E2B5C72C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="196">
   <si>
     <t>№</t>
   </si>
@@ -601,6 +601,21 @@
   </si>
   <si>
     <t>Ограничения на строки</t>
+  </si>
+  <si>
+    <t>Cell height in settings</t>
+  </si>
+  <si>
+    <t>When change income/expence resultat amount isn't changed</t>
+  </si>
+  <si>
+    <t>Description change doesn't make form dirty</t>
+  </si>
+  <si>
+    <t>Scroll doen't work on tree view</t>
+  </si>
+  <si>
+    <t>Show dots when many transactions</t>
   </si>
 </sst>
 </file>
@@ -2346,11 +2361,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M74"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2417,11 +2432,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-36</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3135,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="50" t="s">
         <v>189</v>
       </c>
@@ -3146,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B66" s="50" t="s">
         <v>127</v>
       </c>
@@ -3157,7 +3172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B67" s="50" t="s">
         <v>174</v>
       </c>
@@ -3168,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B68" s="50" t="s">
         <v>178</v>
       </c>
@@ -3179,7 +3194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B69" s="50" t="s">
         <v>178</v>
       </c>
@@ -3190,7 +3205,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="2:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="50" t="s">
+        <v>123</v>
+      </c>
       <c r="B70" s="50" t="s">
         <v>180</v>
       </c>
@@ -3201,7 +3219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B71" s="50" t="s">
         <v>182</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C72" s="33" t="s">
         <v>120</v>
       </c>
@@ -3220,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B73" s="50" t="s">
         <v>184</v>
       </c>
@@ -3231,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B74" s="50" t="s">
         <v>187</v>
       </c>
@@ -3239,6 +3257,73 @@
         <v>186</v>
       </c>
       <c r="D74" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="D75" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A76" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>192</v>
+      </c>
+      <c r="D76" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="D77" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="50" t="s">
+        <v>180</v>
+      </c>
+      <c r="C78" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="D79" s="34">
         <v>1</v>
       </c>
     </row>
@@ -3253,7 +3338,7 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B67D7FCE-5958-4F9D-8EF5-7923E0C7736A}">
           <x14:formula1>
             <xm:f>Help!$A$2:$A$5</xm:f>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A1852856-7329-4A9A-913B-3EF9E2B5C72C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8EAC4047-E534-4F7A-A88D-5588A56F8D05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="198">
   <si>
     <t>№</t>
   </si>
@@ -616,6 +616,12 @@
   </si>
   <si>
     <t>Show dots when many transactions</t>
+  </si>
+  <si>
+    <t>Show day of month for inactive days</t>
+  </si>
+  <si>
+    <t>Make storage as required field</t>
   </si>
 </sst>
 </file>
@@ -2361,11 +2367,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M79"/>
+  <dimension ref="A1:M81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F79" sqref="F79"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,11 +2438,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-41</v>
+        <v>-44</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3325,6 +3331,34 @@
       </c>
       <c r="D79" s="34">
         <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B80" s="50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D81" s="34">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8EAC4047-E534-4F7A-A88D-5588A56F8D05}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F54DD74D-940D-428D-AA48-60194F4D8E93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="199">
   <si>
     <t>№</t>
   </si>
@@ -622,6 +622,9 @@
   </si>
   <si>
     <t>Make storage as required field</t>
+  </si>
+  <si>
+    <t>Apply filter</t>
   </si>
 </sst>
 </file>
@@ -1026,16 +1029,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1044,6 +1038,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2367,17 +2370,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M81"/>
+  <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="50" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="50" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="47" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" style="33" customWidth="1"/>
     <col min="4" max="4" width="10" style="34" customWidth="1"/>
     <col min="5" max="5" width="2.21875" customWidth="1"/>
@@ -2392,16 +2395,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="49" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="26" t="s">
@@ -2421,35 +2424,35 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43198</v>
+        <v>43212</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-44</v>
+        <v>-53</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="48" t="s">
         <v>127</v>
       </c>
       <c r="C3" s="43" t="s">
@@ -2465,10 +2468,10 @@
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="48" t="s">
         <v>127</v>
       </c>
       <c r="C4" s="37" t="s">
@@ -2479,10 +2482,10 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="48" t="s">
         <v>127</v>
       </c>
       <c r="C5" s="37" t="s">
@@ -2493,10 +2496,10 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="46" t="s">
         <v>128</v>
       </c>
       <c r="C6" s="37" t="s">
@@ -2507,10 +2510,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="49"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="37" t="s">
         <v>125</v>
       </c>
@@ -2519,10 +2522,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="49"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="37" t="s">
         <v>145</v>
       </c>
@@ -2531,10 +2534,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="49"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="37" t="s">
         <v>146</v>
       </c>
@@ -2543,7 +2546,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="33" t="s">
@@ -2554,10 +2557,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B11" s="49"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="37" t="s">
         <v>148</v>
       </c>
@@ -2566,7 +2569,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2577,10 +2580,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="49"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="37" t="s">
         <v>149</v>
       </c>
@@ -2589,10 +2592,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B14" s="49"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="37" t="s">
         <v>89</v>
       </c>
@@ -2601,10 +2604,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="49" t="s">
+      <c r="A15" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B15" s="49"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="37" t="s">
         <v>90</v>
       </c>
@@ -2613,10 +2616,10 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="49"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="37" t="s">
         <v>150</v>
       </c>
@@ -2625,7 +2628,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="47" t="s">
         <v>70</v>
       </c>
       <c r="C17" s="33" t="s">
@@ -2636,8 +2639,8 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="49"/>
-      <c r="B18" s="49" t="s">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C18" s="37" t="s">
@@ -2648,8 +2651,8 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="49"/>
-      <c r="B19" s="49" t="s">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="37" t="s">
@@ -2660,8 +2663,8 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="49"/>
-      <c r="B20" s="49" t="s">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C20" s="37" t="s">
@@ -2672,8 +2675,8 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="49"/>
-      <c r="B21" s="49" t="s">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C21" s="37" t="s">
@@ -2684,8 +2687,8 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="49"/>
-      <c r="B22" s="49" t="s">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C22" s="37" t="s">
@@ -2696,8 +2699,8 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49" t="s">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C23" s="37" t="s">
@@ -2708,8 +2711,8 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49" t="s">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C24" s="37" t="s">
@@ -2720,7 +2723,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="47" t="s">
         <v>131</v>
       </c>
       <c r="C25" s="33" t="s">
@@ -2731,8 +2734,8 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49" t="s">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46" t="s">
         <v>131</v>
       </c>
       <c r="C26" s="37" t="s">
@@ -2743,10 +2746,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
+      <c r="A27" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="49"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="37" t="s">
         <v>140</v>
       </c>
@@ -2755,10 +2758,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="49" t="s">
+      <c r="A28" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="49"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="37" t="s">
         <v>141</v>
       </c>
@@ -2767,18 +2770,19 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="50" t="s">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="D29" s="34">
-        <v>3</v>
+      <c r="D29" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="47" t="s">
         <v>144</v>
       </c>
       <c r="C30" s="33" t="s">
@@ -2789,8 +2793,8 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="49"/>
-      <c r="B31" s="49" t="s">
+      <c r="A31" s="46"/>
+      <c r="B31" s="46" t="s">
         <v>152</v>
       </c>
       <c r="C31" s="37" t="s">
@@ -2801,8 +2805,8 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="49"/>
-      <c r="B32" s="49" t="s">
+      <c r="A32" s="46"/>
+      <c r="B32" s="46" t="s">
         <v>152</v>
       </c>
       <c r="C32" s="37" t="s">
@@ -2813,7 +2817,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="47" t="s">
         <v>152</v>
       </c>
       <c r="C33" s="33" t="s">
@@ -2824,8 +2828,8 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49" t="s">
+      <c r="A34" s="46"/>
+      <c r="B34" s="46" t="s">
         <v>152</v>
       </c>
       <c r="C34" s="37" t="s">
@@ -2836,8 +2840,8 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="49"/>
-      <c r="B35" s="49" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="46" t="s">
         <v>152</v>
       </c>
       <c r="C35" s="37" t="s">
@@ -2848,7 +2852,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="47" t="s">
         <v>152</v>
       </c>
       <c r="C36" s="33" t="s">
@@ -2875,7 +2879,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C39" s="33" t="s">
@@ -2886,7 +2890,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -2897,7 +2901,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C41" s="33" t="s">
@@ -2908,7 +2912,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C42" s="33" t="s">
@@ -2919,7 +2923,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C43" s="33" t="s">
@@ -2930,7 +2934,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C44" s="33" t="s">
@@ -2941,7 +2945,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="47" t="s">
         <v>157</v>
       </c>
       <c r="C45" s="33" t="s">
@@ -2952,7 +2956,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C46" s="33" t="s">
@@ -2963,7 +2967,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C47" s="33" t="s">
@@ -2974,7 +2978,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C48" s="33" t="s">
@@ -2985,7 +2989,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C49" s="33" t="s">
@@ -2996,7 +3000,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C50" s="33" t="s">
@@ -3007,7 +3011,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C51" s="33" t="s">
@@ -3018,7 +3022,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C52" s="33" t="s">
@@ -3029,7 +3033,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="47" t="s">
         <v>162</v>
       </c>
       <c r="C53" s="33" t="s">
@@ -3040,7 +3044,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="47" t="s">
         <v>171</v>
       </c>
       <c r="C54" s="33" t="s">
@@ -3051,7 +3055,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="47" t="s">
         <v>171</v>
       </c>
       <c r="C55" s="33" t="s">
@@ -3062,7 +3066,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="50" t="s">
+      <c r="A56" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C56" s="33" t="s">
@@ -3073,7 +3077,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="50" t="s">
+      <c r="A57" s="47" t="s">
         <v>122</v>
       </c>
       <c r="C57" s="33" t="s">
@@ -3084,10 +3088,10 @@
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="49" t="s">
+      <c r="A58" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B58" s="49"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="37" t="s">
         <v>67</v>
       </c>
@@ -3096,10 +3100,10 @@
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
+      <c r="A59" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B59" s="49"/>
+      <c r="B59" s="46"/>
       <c r="C59" s="37" t="s">
         <v>97</v>
       </c>
@@ -3108,7 +3112,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="50" t="s">
+      <c r="A60" s="47" t="s">
         <v>123</v>
       </c>
       <c r="C60" s="33" t="s">
@@ -3119,7 +3123,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="47" t="s">
         <v>174</v>
       </c>
       <c r="C61" s="33" t="s">
@@ -3130,7 +3134,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B62" s="50" t="s">
+      <c r="B62" s="47" t="s">
         <v>174</v>
       </c>
       <c r="C62" s="33" t="s">
@@ -3157,7 +3161,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="50" t="s">
+      <c r="B65" s="47" t="s">
         <v>189</v>
       </c>
       <c r="C65" s="33" t="s">
@@ -3168,7 +3172,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B66" s="50" t="s">
+      <c r="B66" s="47" t="s">
         <v>127</v>
       </c>
       <c r="C66" s="33" t="s">
@@ -3179,7 +3183,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B67" s="50" t="s">
+      <c r="B67" s="47" t="s">
         <v>174</v>
       </c>
       <c r="C67" s="33" t="s">
@@ -3190,7 +3194,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="50" t="s">
+      <c r="B68" s="47" t="s">
         <v>178</v>
       </c>
       <c r="C68" s="33" t="s">
@@ -3201,7 +3205,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="47" t="s">
         <v>178</v>
       </c>
       <c r="C69" s="33" t="s">
@@ -3212,10 +3216,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="50" t="s">
+      <c r="A70" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="50" t="s">
+      <c r="B70" s="47" t="s">
         <v>180</v>
       </c>
       <c r="C70" s="33" t="s">
@@ -3226,7 +3230,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="50" t="s">
+      <c r="B71" s="47" t="s">
         <v>182</v>
       </c>
       <c r="C71" s="33" t="s">
@@ -3245,7 +3249,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="47" t="s">
         <v>184</v>
       </c>
       <c r="C73" s="33" t="s">
@@ -3256,18 +3260,19 @@
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B74" s="50" t="s">
+      <c r="A74" s="46"/>
+      <c r="B74" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="C74" s="33" t="s">
+      <c r="C74" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D74" s="34">
-        <v>1</v>
+      <c r="D74" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="50" t="s">
+      <c r="B75" s="47" t="s">
         <v>152</v>
       </c>
       <c r="C75" s="33" t="s">
@@ -3278,24 +3283,24 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="50" t="s">
+      <c r="A76" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C76" s="33" t="s">
+      <c r="C76" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="D76" s="34">
-        <v>1</v>
+      <c r="D76" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="50" t="s">
+      <c r="A77" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="50" t="s">
+      <c r="B77" s="47" t="s">
         <v>132</v>
       </c>
       <c r="C77" s="33" t="s">
@@ -3306,10 +3311,10 @@
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="50" t="s">
+      <c r="A78" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="47" t="s">
         <v>180</v>
       </c>
       <c r="C78" s="33" t="s">
@@ -3320,10 +3325,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B79" s="50" t="s">
+      <c r="B79" s="47" t="s">
         <v>153</v>
       </c>
       <c r="C79" s="33" t="s">
@@ -3334,10 +3339,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="50" t="s">
+      <c r="A80" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="50" t="s">
+      <c r="B80" s="47" t="s">
         <v>152</v>
       </c>
       <c r="C80" s="33" t="s">
@@ -3348,16 +3353,27 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="50" t="s">
+      <c r="A81" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C81" s="33" t="s">
+      <c r="C81" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="D81" s="34">
+      <c r="D81" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="34">
         <v>2</v>
       </c>
     </row>
@@ -3629,7 +3645,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{F54DD74D-940D-428D-AA48-60194F4D8E93}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3D73961C-B616-49F9-98FA-64C1073ADC77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,8 +2373,8 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C74" sqref="C74"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-53</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3145,11 +3145,13 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="33" t="s">
+      <c r="A63" s="46"/>
+      <c r="B63" s="46"/>
+      <c r="C63" s="37" t="s">
         <v>116</v>
       </c>
-      <c r="D63" s="34">
-        <v>3</v>
+      <c r="D63" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3297,17 +3299,17 @@
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="47" t="s">
+      <c r="A77" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B77" s="47" t="s">
+      <c r="B77" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="C77" s="33" t="s">
+      <c r="C77" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D77" s="34">
-        <v>1</v>
+      <c r="D77" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3D73961C-B616-49F9-98FA-64C1073ADC77}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A50DF067-22EE-4E72-8BD9-D427707925F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,8 +2373,8 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-49</v>
+        <v>-48</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3251,14 +3251,15 @@
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B73" s="47" t="s">
+      <c r="A73" s="46"/>
+      <c r="B73" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="D73" s="34">
-        <v>1</v>
+      <c r="D73" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{A50DF067-22EE-4E72-8BD9-D427707925F7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{45C11598-8C98-4EA2-B73B-5289E4A7ACCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2373,8 +2373,8 @@
   <dimension ref="A1:M82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,11 +2441,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-48</v>
+        <v>-47</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2723,14 +2723,15 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="47" t="s">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="37" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="34">
-        <v>1</v>
+      <c r="D25" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{45C11598-8C98-4EA2-B73B-5289E4A7ACCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1A92E7E6-914F-49F6-BF4C-887316E226A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="201">
   <si>
     <t>№</t>
   </si>
@@ -625,6 +625,12 @@
   </si>
   <si>
     <t>Apply filter</t>
+  </si>
+  <si>
+    <t>Separate transaction list by day (add line between different day transactions)</t>
+  </si>
+  <si>
+    <t>Event execution</t>
   </si>
 </sst>
 </file>
@@ -2370,11 +2376,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M82"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C28" sqref="C28"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2441,11 +2447,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D171)</f>
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-47</v>
+        <v>-49</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3379,6 +3385,25 @@
       </c>
       <c r="D82" s="34">
         <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D83" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C84" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="D84" s="34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1A92E7E6-914F-49F6-BF4C-887316E226A6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8794E74B-81F6-49C4-8941-1BB1BFFF0C12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,6 +15,7 @@
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plans!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
   <si>
     <t>№</t>
   </si>
@@ -618,9 +619,6 @@
     <t>Show dots when many transactions</t>
   </si>
   <si>
-    <t>Show day of month for inactive days</t>
-  </si>
-  <si>
     <t>Make storage as required field</t>
   </si>
   <si>
@@ -631,6 +629,33 @@
   </si>
   <si>
     <t>Event execution</t>
+  </si>
+  <si>
+    <t>Transactions service</t>
+  </si>
+  <si>
+    <t>Take existing currency exchange rate</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Cleanup</t>
+  </si>
+  <si>
+    <t>Negative value in case when $-100</t>
+  </si>
+  <si>
+    <t>Money transfers list -&gt; add filters</t>
+  </si>
+  <si>
+    <t>Drug&amp;drop storage group order. Store order in database</t>
+  </si>
+  <si>
+    <t>not all categories selected but shows (All). And filter is applied strange</t>
+  </si>
+  <si>
+    <t>Applying filter on categories takes a lot of time</t>
   </si>
 </sst>
 </file>
@@ -2376,11 +2401,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D85" sqref="D85"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2436,22 +2461,22 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43212</v>
+        <v>43215</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D171)</f>
-        <v>119</v>
+        <f>SUM(D3:D170)</f>
+        <v>125</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-49</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3349,48 +3374,42 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="47" t="s">
+      <c r="A80" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="B80" s="47" t="s">
+      <c r="B80" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D80" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="C80" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="D80" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="D81" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D81" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" s="47" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="C82" s="33" t="s">
         <v>198</v>
       </c>
       <c r="D82" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B83" s="47" t="s">
-        <v>131</v>
-      </c>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C83" s="33" t="s">
         <v>199</v>
       </c>
@@ -3399,10 +3418,97 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B84" s="47" t="s">
+        <v>200</v>
+      </c>
       <c r="C84" s="33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D84" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B85" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C85" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C86" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D86" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B87" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C87" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C88" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D88" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="D89" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C90" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" s="34">
         <v>1</v>
       </c>
     </row>
@@ -3418,9 +3524,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{B67D7FCE-5958-4F9D-8EF5-7923E0C7736A}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50D461F2-F0C9-4897-9832-6E2CC6031E82}">
           <x14:formula1>
-            <xm:f>Help!$A$2:$A$5</xm:f>
+            <xm:f>Help!$A$2:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1048576</xm:sqref>
         </x14:dataValidation>
@@ -3662,10 +3768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E4AE6-A920-4399-9106-F6BA9167C0EC}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3698,6 +3804,11 @@
         <v>70</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8794E74B-81F6-49C4-8941-1BB1BFFF0C12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2D9450D8-0DB9-4488-BA12-AB47996090CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2404,8 +2404,8 @@
   <dimension ref="A1:M90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2472,11 +2472,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-58</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2849,14 +2849,15 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="47" t="s">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="34">
-        <v>1</v>
+      <c r="D33" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3155,14 +3156,15 @@
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="47" t="s">
+      <c r="A61" s="46"/>
+      <c r="B61" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="C61" s="33" t="s">
+      <c r="C61" s="37" t="s">
         <v>173</v>
       </c>
-      <c r="D61" s="34">
-        <v>1</v>
+      <c r="D61" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{2D9450D8-0DB9-4488-BA12-AB47996090CA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{94EB31CA-4AB4-4D19-9BD9-423C2331DB2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
   <si>
     <t>№</t>
   </si>
@@ -656,6 +656,21 @@
   </si>
   <si>
     <t>Applying filter on categories takes a lot of time</t>
+  </si>
+  <si>
+    <t>Category view model</t>
+  </si>
+  <si>
+    <t>Remove IsExpandedMainView/IsSelectedMainView</t>
+  </si>
+  <si>
+    <t>Add child</t>
+  </si>
+  <si>
+    <t>Category selector + filter</t>
+  </si>
+  <si>
+    <t>Show inactive</t>
   </si>
 </sst>
 </file>
@@ -2401,11 +2416,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M90"/>
+  <dimension ref="A1:M93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2461,33 +2476,31 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-56</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="46" t="s">
-        <v>123</v>
-      </c>
+      <c r="A3" s="46"/>
       <c r="B3" s="48" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D3" s="38">
         <v>0</v>
@@ -2499,136 +2512,138 @@
       <c r="K3" s="41"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
-        <v>123</v>
-      </c>
+      <c r="A4" s="46"/>
       <c r="B4" s="48" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="D4" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
-        <v>123</v>
-      </c>
+      <c r="A5" s="46"/>
       <c r="B5" s="48" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c r="D5" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
-        <v>123</v>
-      </c>
+      <c r="A6" s="46"/>
       <c r="B6" s="46" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D6" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="46"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="46" t="s">
+        <v>152</v>
+      </c>
       <c r="C7" s="37" t="s">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D7" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="46"/>
+      <c r="A8" s="46"/>
+      <c r="B8" s="46" t="s">
+        <v>144</v>
+      </c>
       <c r="C8" s="37" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="46"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46" t="s">
+        <v>189</v>
+      </c>
       <c r="C9" s="37" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="D9" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="34">
-        <v>2</v>
+      <c r="A10" s="46"/>
+      <c r="B10" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>127</v>
+      </c>
       <c r="C11" s="37" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="D11" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="34">
-        <v>1</v>
+      <c r="A12" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>127</v>
+      </c>
       <c r="C13" s="37" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="D13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="46"/>
+      <c r="A14" s="46"/>
+      <c r="B14" s="46" t="s">
+        <v>187</v>
+      </c>
       <c r="C14" s="37" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="D14" s="38">
         <v>0</v>
@@ -2636,11 +2651,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B15" s="46"/>
+        <v>123</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>128</v>
+      </c>
       <c r="C15" s="37" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="D15" s="38">
         <v>0</v>
@@ -2648,34 +2665,41 @@
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="46"/>
+        <v>122</v>
+      </c>
+      <c r="B16" s="46" t="s">
+        <v>132</v>
+      </c>
       <c r="C16" s="37" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="D16" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="34">
-        <v>1</v>
+      <c r="A17" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
+      <c r="A18" s="46" t="s">
+        <v>122</v>
+      </c>
       <c r="B18" s="46" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>130</v>
+        <v>196</v>
       </c>
       <c r="D18" s="38">
         <v>0</v>
@@ -2684,10 +2708,10 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="46"/>
       <c r="B19" s="46" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="D19" s="38">
         <v>0</v>
@@ -2699,7 +2723,7 @@
         <v>131</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D20" s="38">
         <v>0</v>
@@ -2711,7 +2735,7 @@
         <v>131</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D21" s="38">
         <v>0</v>
@@ -2723,7 +2747,7 @@
         <v>131</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" s="38">
         <v>0</v>
@@ -2735,7 +2759,7 @@
         <v>131</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D23" s="38">
         <v>0</v>
@@ -2747,7 +2771,7 @@
         <v>131</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="38">
         <v>0</v>
@@ -2759,7 +2783,7 @@
         <v>131</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D25" s="38">
         <v>0</v>
@@ -2771,232 +2795,255 @@
         <v>131</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="46" t="s">
+      <c r="D28" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="37" t="s">
+      <c r="B29" s="46"/>
+      <c r="C29" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="D27" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46" t="s">
+      <c r="D37" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="37" t="s">
+      <c r="B38" s="46"/>
+      <c r="C38" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="D28" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="D32" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="46"/>
-      <c r="B33" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="37" t="s">
+      <c r="D38" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="46"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="D41" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" s="47" t="s">
         <v>153</v>
       </c>
-      <c r="D33" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="D34" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="46"/>
-      <c r="B35" s="46" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>155</v>
-      </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D36" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C37" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D37" s="34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C38" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" s="34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C40" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D40" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C41" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D41" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="47" t="s">
-        <v>157</v>
-      </c>
       <c r="C42" s="33" t="s">
-        <v>160</v>
+        <v>195</v>
       </c>
       <c r="D42" s="34">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B43" s="47" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>133</v>
+        <v>191</v>
       </c>
       <c r="D43" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="47" t="s">
+        <v>123</v>
+      </c>
       <c r="B44" s="47" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>135</v>
+        <v>211</v>
       </c>
       <c r="D44" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="47" t="s">
+        <v>123</v>
+      </c>
       <c r="B45" s="47" t="s">
-        <v>157</v>
+        <v>212</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="D45" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="B46" s="47" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="C46" s="33" t="s">
-        <v>151</v>
+        <v>210</v>
       </c>
       <c r="D46" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3004,10 +3051,10 @@
         <v>162</v>
       </c>
       <c r="C47" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D47" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3015,7 +3062,7 @@
         <v>162</v>
       </c>
       <c r="C48" s="33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D48" s="34">
         <v>1</v>
@@ -3026,10 +3073,10 @@
         <v>162</v>
       </c>
       <c r="C49" s="33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D49" s="34">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3037,29 +3084,35 @@
         <v>162</v>
       </c>
       <c r="C50" s="33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D50" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="47" t="s">
+        <v>122</v>
+      </c>
       <c r="B51" s="47" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="D51" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="47" t="s">
+        <v>122</v>
+      </c>
       <c r="B52" s="47" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="C52" s="33" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D52" s="34">
         <v>1</v>
@@ -3067,21 +3120,21 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="47" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="C53" s="33" t="s">
-        <v>169</v>
+        <v>190</v>
       </c>
       <c r="D53" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B54" s="47" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D54" s="34">
         <v>1</v>
@@ -3089,108 +3142,118 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B55" s="47" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="47" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="33" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="47" t="s">
         <v>171</v>
       </c>
-      <c r="C55" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D55" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D56" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D57" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="46"/>
-      <c r="C59" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="38">
-        <v>0</v>
+      <c r="C59" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="34">
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="47" t="s">
+      <c r="B60" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="46"/>
-      <c r="B61" s="46" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>173</v>
-      </c>
-      <c r="D61" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B62" s="47" t="s">
         <v>174</v>
       </c>
       <c r="C62" s="33" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D62" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="46"/>
-      <c r="B63" s="46"/>
-      <c r="C63" s="37" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="38">
-        <v>0</v>
+      <c r="A63" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="34">
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="47" t="s">
+        <v>182</v>
+      </c>
       <c r="C64" s="33" t="s">
-        <v>82</v>
+        <v>183</v>
       </c>
       <c r="D64" s="34">
         <v>1</v>
@@ -3198,54 +3261,60 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B65" s="47" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="C65" s="33" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D65" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="47" t="s">
+        <v>117</v>
+      </c>
       <c r="B66" s="47" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C66" s="33" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D66" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="47" t="s">
+        <v>122</v>
+      </c>
       <c r="B67" s="47" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="C67" s="33" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D67" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="47" t="s">
-        <v>178</v>
+      <c r="A68" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="C68" s="33" t="s">
-        <v>177</v>
+        <v>75</v>
       </c>
       <c r="D68" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="47" t="s">
-        <v>178</v>
+      <c r="A69" s="47" t="s">
+        <v>70</v>
       </c>
       <c r="C69" s="33" t="s">
-        <v>179</v>
+        <v>84</v>
       </c>
       <c r="D69" s="34">
         <v>1</v>
@@ -3253,148 +3322,128 @@
     </row>
     <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A70" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="B70" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="D70" s="34">
+      <c r="C71" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="47" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B76" s="47" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="34">
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B71" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C72" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D72" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="46"/>
-      <c r="B73" s="46" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="D73" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="46"/>
-      <c r="B74" s="46" t="s">
-        <v>187</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D74" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="D75" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="D76" s="38">
-        <v>0</v>
-      </c>
-    </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" s="38">
-        <v>0</v>
+      <c r="B77" s="47" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="47" t="s">
-        <v>122</v>
-      </c>
       <c r="B78" s="47" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="C78" s="33" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="D78" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="47" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B79" s="47" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C79" s="33" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D79" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B80" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="C80" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D80" s="38">
-        <v>0</v>
+      <c r="B80" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="34">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" s="47" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C81" s="33" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="D81" s="34">
         <v>2</v>
@@ -3402,119 +3451,135 @@
     </row>
     <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B82" s="47" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C82" s="33" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D82" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="47" t="s">
+        <v>70</v>
+      </c>
       <c r="C83" s="33" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="D83" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="B84" s="47" t="s">
-        <v>200</v>
-      </c>
       <c r="C84" s="33" t="s">
-        <v>201</v>
+        <v>73</v>
       </c>
       <c r="D84" s="34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="47" t="s">
-        <v>70</v>
-      </c>
       <c r="B85" s="47" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C85" s="33" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="D85" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="47" t="s">
-        <v>122</v>
+      <c r="B86" s="47" t="s">
+        <v>162</v>
       </c>
       <c r="C86" s="33" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="D86" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A87" s="47" t="s">
-        <v>123</v>
-      </c>
       <c r="B87" s="47" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C87" s="33" t="s">
-        <v>205</v>
+        <v>133</v>
       </c>
       <c r="D87" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="47" t="s">
-        <v>123</v>
-      </c>
       <c r="B88" s="47" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C88" s="33" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D88" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="47" t="s">
-        <v>122</v>
-      </c>
       <c r="B89" s="47" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C89" s="33" t="s">
-        <v>207</v>
+        <v>160</v>
       </c>
       <c r="D89" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="47" t="s">
-        <v>117</v>
-      </c>
       <c r="B90" s="47" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="C90" s="33" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="D90" s="34">
-        <v>1</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="34">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="34">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A4:D93">
+    <sortCondition ref="D3:D93"/>
+    <sortCondition ref="B3:B93"/>
+  </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{94EB31CA-4AB4-4D19-9BD9-423C2331DB2E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C0AFD3CF-5FD1-4F0A-A868-B7A05770C9CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="215">
   <si>
     <t>№</t>
   </si>
@@ -671,6 +671,9 @@
   </si>
   <si>
     <t>Show inactive</t>
+  </si>
+  <si>
+    <t>Save IsCategoryBranchSelection to database</t>
   </si>
 </sst>
 </file>
@@ -2416,11 +2419,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M93"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2487,11 +2490,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-59</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3414,17 +3417,17 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="47" t="s">
+      <c r="A79" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B79" s="47" t="s">
+      <c r="B79" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="C79" s="33" t="s">
+      <c r="C79" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="D79" s="34">
-        <v>2</v>
+      <c r="D79" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3573,6 +3576,17 @@
       </c>
       <c r="D93" s="34">
         <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="D94" s="34">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C0AFD3CF-5FD1-4F0A-A868-B7A05770C9CB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DE9BBD49-7AC7-480F-B25C-74282CD7F3BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="217">
   <si>
     <t>№</t>
   </si>
@@ -674,6 +674,12 @@
   </si>
   <si>
     <t>Save IsCategoryBranchSelection to database</t>
+  </si>
+  <si>
+    <t>Add record/money transfer to separate buttons</t>
+  </si>
+  <si>
+    <t>Create mini menu with buttons from context menu</t>
   </si>
 </sst>
 </file>
@@ -2419,11 +2425,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M94"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C93" sqref="C93"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2490,11 +2496,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-58</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3008,17 +3014,17 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="47" t="s">
+      <c r="B44" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="33" t="s">
+      <c r="C44" s="37" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="34">
-        <v>1</v>
+      <c r="D44" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3579,6 +3585,9 @@
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="47" t="s">
+        <v>122</v>
+      </c>
       <c r="B94" s="47" t="s">
         <v>180</v>
       </c>
@@ -3586,6 +3595,34 @@
         <v>214</v>
       </c>
       <c r="D94" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="D95" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" s="34">
         <v>1</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DE9BBD49-7AC7-480F-B25C-74282CD7F3BC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0C2B3CD9-DBD4-4205-A481-6B8F57E119BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="216">
   <si>
     <t>№</t>
   </si>
@@ -670,16 +670,13 @@
     <t>Category selector + filter</t>
   </si>
   <si>
-    <t>Show inactive</t>
-  </si>
-  <si>
     <t>Save IsCategoryBranchSelection to database</t>
   </si>
   <si>
     <t>Add record/money transfer to separate buttons</t>
   </si>
   <si>
-    <t>Create mini menu with buttons from context menu</t>
+    <t>Show inactive + tool bar for expand/collapse all</t>
   </si>
 </sst>
 </file>
@@ -2425,11 +2422,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2496,11 +2493,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-59</v>
+        <v>-58</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3035,7 +3032,7 @@
         <v>212</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
@@ -3592,7 +3589,7 @@
         <v>180</v>
       </c>
       <c r="C94" s="33" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D94" s="34">
         <v>1</v>
@@ -3606,23 +3603,9 @@
         <v>131</v>
       </c>
       <c r="C95" s="33" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D95" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B96" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C96" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="D96" s="34">
         <v>1</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{0C2B3CD9-DBD4-4205-A481-6B8F57E119BA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9B8B8EE7-486D-43BC-B898-5FC50DA56B1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2425,8 +2425,8 @@
   <dimension ref="A1:M95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,11 +2493,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-58</v>
+        <v>-56</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3136,25 +3136,27 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="47" t="s">
+      <c r="A54" s="46"/>
+      <c r="B54" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="34">
-        <v>1</v>
+      <c r="D54" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="47" t="s">
+      <c r="A55" s="46"/>
+      <c r="B55" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C55" s="33" t="s">
+      <c r="C55" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="D55" s="34">
-        <v>1</v>
+      <c r="D55" s="38">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{9B8B8EE7-486D-43BC-B898-5FC50DA56B1E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1D2FE2BE-1D15-4ADF-8E94-38CBAC07B618}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="217">
   <si>
     <t>№</t>
   </si>
@@ -677,6 +677,9 @@
   </si>
   <si>
     <t>Show inactive + tool bar for expand/collapse all</t>
+  </si>
+  <si>
+    <t>Run/pause/close</t>
   </si>
 </sst>
 </file>
@@ -1053,9 +1056,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1066,9 +1066,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1077,9 +1074,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1099,6 +1093,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2422,41 +2425,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M95"/>
+  <dimension ref="A1:M96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="47" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="47" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="10" style="34" customWidth="1"/>
+    <col min="1" max="1" width="10.44140625" style="44" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="51" customWidth="1"/>
+    <col min="4" max="4" width="10" style="33" customWidth="1"/>
     <col min="5" max="5" width="2.21875" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
     <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="1.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="35" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="35" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="35" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" style="35" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="13.109375" style="34" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="48" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="46" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="26" t="s">
@@ -2468,18 +2471,18 @@
       <c r="H1" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="35" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
         <v>43216</v>
@@ -2493,1121 +2496,1132 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-56</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="46"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="D3" s="38">
-        <v>0</v>
-      </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
+      <c r="D3" s="36">
+        <v>0</v>
+      </c>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="48" t="s">
+      <c r="A4" s="43"/>
+      <c r="B4" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="38">
+      <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="48" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46" t="s">
+      <c r="A6" s="43"/>
+      <c r="B6" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="46" t="s">
+      <c r="D6" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="43"/>
+      <c r="B7" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="50" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="38">
+      <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="46" t="s">
+      <c r="A8" s="43"/>
+      <c r="B8" s="43" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="46" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="38">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="38">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46" t="s">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="50" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="38">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="46" t="s">
+      <c r="A15" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="D15" s="38">
+      <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D16" s="38">
+      <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="D17" s="38">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="38">
+      <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46" t="s">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46" t="s">
+      <c r="A20" s="43"/>
+      <c r="B20" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="50" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="38">
+      <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46" t="s">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="38">
+      <c r="D21" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46" t="s">
+      <c r="A22" s="43"/>
+      <c r="B22" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C22" s="50" t="s">
         <v>133</v>
       </c>
-      <c r="D22" s="38">
+      <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46" t="s">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C23" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="38">
+      <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46" t="s">
+      <c r="A24" s="43"/>
+      <c r="B24" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C24" s="37" t="s">
+      <c r="C24" s="50" t="s">
         <v>135</v>
       </c>
-      <c r="D24" s="38">
+      <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46" t="s">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C25" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="D25" s="38">
+      <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46" t="s">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46" t="s">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="37" t="s">
+      <c r="C27" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="46"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C28" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="46" t="s">
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="43"/>
+      <c r="C29" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="D29" s="38">
+      <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="37" t="s">
+      <c r="B30" s="43"/>
+      <c r="C30" s="50" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="38">
+      <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="46" t="s">
+      <c r="A31" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="37" t="s">
+      <c r="B31" s="43"/>
+      <c r="C31" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="38">
+      <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="46" t="s">
+      <c r="A32" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="37" t="s">
+      <c r="B32" s="43"/>
+      <c r="C32" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="38">
+      <c r="D32" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="46" t="s">
+      <c r="A33" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="37" t="s">
+      <c r="B33" s="43"/>
+      <c r="C33" s="50" t="s">
         <v>149</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="46" t="s">
+      <c r="A34" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="46"/>
-      <c r="C34" s="37" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="50" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="38">
+      <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="46"/>
-      <c r="C35" s="37" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="50" t="s">
         <v>90</v>
       </c>
-      <c r="D35" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="46" t="s">
+      <c r="D35" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="37" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="50" t="s">
         <v>150</v>
       </c>
-      <c r="D36" s="38">
+      <c r="D36" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="46"/>
-      <c r="C37" s="37" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="D37" s="38">
+      <c r="D37" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="46" t="s">
+      <c r="A38" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="46"/>
-      <c r="C38" s="37" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="50" t="s">
         <v>141</v>
       </c>
-      <c r="D38" s="38">
+      <c r="D38" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="46" t="s">
+      <c r="A39" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="46"/>
-      <c r="C39" s="37" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="D39" s="38">
+      <c r="D39" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="37" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="46"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="37" t="s">
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="38">
+      <c r="D41" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="47" t="s">
+      <c r="B42" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="D42" s="34">
+      <c r="D42" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="47" t="s">
+      <c r="B43" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C43" s="33" t="s">
+      <c r="C43" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D43" s="34">
+      <c r="D43" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="46" t="s">
+      <c r="A44" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="B44" s="46" t="s">
+      <c r="B44" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="C44" s="37" t="s">
+      <c r="C44" s="50" t="s">
         <v>211</v>
       </c>
-      <c r="D44" s="38">
+      <c r="D44" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="47" t="s">
+      <c r="B45" s="44" t="s">
         <v>212</v>
       </c>
-      <c r="C45" s="33" t="s">
+      <c r="C45" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D45" s="34">
+      <c r="D45" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="47" t="s">
+      <c r="A46" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="47" t="s">
+      <c r="B46" s="44" t="s">
         <v>209</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="47" t="s">
+      <c r="B47" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C47" s="33" t="s">
+      <c r="C47" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B48" s="47" t="s">
+      <c r="B48" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C48" s="33" t="s">
+      <c r="C48" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="47" t="s">
+      <c r="B49" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C49" s="33" t="s">
+      <c r="C49" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="34">
+      <c r="D49" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B50" s="47" t="s">
+      <c r="B50" s="44" t="s">
         <v>162</v>
       </c>
-      <c r="C50" s="33" t="s">
+      <c r="C50" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="D50" s="34">
+      <c r="D50" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="47" t="s">
+      <c r="A51" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="47" t="s">
+      <c r="B51" s="44" t="s">
         <v>180</v>
       </c>
-      <c r="C51" s="33" t="s">
+      <c r="C51" s="51" t="s">
         <v>194</v>
       </c>
-      <c r="D51" s="34">
+      <c r="D51" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="47" t="s">
+      <c r="B52" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C52" s="33" t="s">
+      <c r="C52" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="D52" s="34">
+      <c r="D52" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B53" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="34">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D55" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B56" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46" t="s">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B57" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B58" s="44" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="D58" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B59" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B61" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C62" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D63" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B64" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B65" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>200</v>
+      </c>
+      <c r="C67" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" s="51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C70" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C71" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D71" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C73" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D73" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C74" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D74" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>204</v>
+      </c>
+      <c r="D75" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B76" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B77" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D77" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B78" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="D78" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B80" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C80" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="D80" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B81" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C81" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D81" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B82" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D82" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D83" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>73</v>
+      </c>
+      <c r="D84" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B85" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B86" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C86" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D86" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B87" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C87" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D87" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B88" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D88" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B89" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B90" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C90" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D90" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B91" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D91" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C92" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D92" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C93" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B96" s="44" t="s">
         <v>178</v>
       </c>
-      <c r="C54" s="37" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
-      <c r="B55" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="47" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="33" t="s">
-        <v>203</v>
-      </c>
-      <c r="D58" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B59" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="D59" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="D60" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B61" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="47" t="s">
-        <v>174</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>206</v>
-      </c>
-      <c r="D63" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B64" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="C64" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="D64" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B65" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="D65" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="47" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="D70" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C71" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D72" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C73" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="D73" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C74" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="D74" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C75" s="33" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B76" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="D80" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B82" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="C82" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="D82" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="47" t="s">
-        <v>70</v>
-      </c>
-      <c r="C83" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D83" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="C84" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D84" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C85" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="D85" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="C86" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="D86" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C87" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D87" s="34">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B88" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D88" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B89" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B90" s="47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C90" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="D90" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C92" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D92" s="34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C93" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="D93" s="34">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="47" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="D94" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="34">
+      <c r="C96" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D96" s="33">
         <v>1</v>
       </c>
     </row>
@@ -3749,14 +3763,14 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="40" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="37" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3764,7 +3778,7 @@
       <c r="A2" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="38" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3772,7 +3786,7 @@
       <c r="A3" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="38" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3780,7 +3794,7 @@
       <c r="A4" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>105</v>
       </c>
     </row>
@@ -3788,7 +3802,7 @@
       <c r="A5" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="38" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3796,7 +3810,7 @@
       <c r="A6" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="38" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3804,7 +3818,7 @@
       <c r="A7" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="38" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3812,7 +3826,7 @@
       <c r="A8" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="38" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3820,7 +3834,7 @@
       <c r="A9" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="38" t="s">
         <v>112</v>
       </c>
     </row>
@@ -3828,7 +3842,7 @@
       <c r="A10" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="38" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3836,7 +3850,7 @@
       <c r="A11" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="38" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3844,7 +3858,7 @@
       <c r="A12" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="38" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3852,15 +3866,15 @@
       <c r="A13" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="41" t="s">
         <v>118</v>
       </c>
     </row>
@@ -3883,7 +3897,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>121</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1D2FE2BE-1D15-4ADF-8E94-38CBAC07B618}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{12B5FE5E-1953-4FD1-AE9B-24813631AB6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="222">
   <si>
     <t>№</t>
   </si>
@@ -680,6 +680,21 @@
   </si>
   <si>
     <t>Run/pause/close</t>
+  </si>
+  <si>
+    <t>Show total amount</t>
+  </si>
+  <si>
+    <t>Data filter</t>
+  </si>
+  <si>
+    <t>Do not take into account case</t>
+  </si>
+  <si>
+    <t>Category selector</t>
+  </si>
+  <si>
+    <t>Add possibility to add new category</t>
   </si>
 </sst>
 </file>
@@ -2425,11 +2440,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M96"/>
+  <dimension ref="A1:M99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2485,22 +2500,22 @@
       <c r="D2" s="47"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43216</v>
+        <v>43217</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-55</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2593,12 +2608,14 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
+      <c r="A10" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="B10" s="43" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>185</v>
+        <v>211</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
@@ -2606,13 +2623,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2623,36 +2640,36 @@
         <v>123</v>
       </c>
       <c r="B12" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C12" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43" t="s">
-        <v>187</v>
-      </c>
       <c r="C14" s="50" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -2663,10 +2680,10 @@
         <v>123</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="D15" s="36">
         <v>0</v>
@@ -2674,41 +2691,37 @@
     </row>
     <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>192</v>
+        <v>94</v>
       </c>
       <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>122</v>
-      </c>
+      <c r="A17" s="43"/>
       <c r="B17" s="43" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>122</v>
-      </c>
+      <c r="A18" s="43"/>
       <c r="B18" s="43" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>196</v>
+        <v>179</v>
       </c>
       <c r="D18" s="36">
         <v>0</v>
@@ -2717,58 +2730,66 @@
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="43" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D19" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
+      <c r="A20" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="B20" s="43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
+      <c r="A21" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B21" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C21" s="50" t="s">
+        <v>192</v>
+      </c>
+      <c r="D21" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="43" t="s">
-        <v>131</v>
-      </c>
       <c r="C22" s="50" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
+      <c r="A23" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B23" s="43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>134</v>
+        <v>196</v>
       </c>
       <c r="D23" s="36">
         <v>0</v>
@@ -2777,10 +2798,10 @@
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="43" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
       <c r="D24" s="36">
         <v>0</v>
@@ -2792,7 +2813,7 @@
         <v>131</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D25" s="36">
         <v>0</v>
@@ -2804,7 +2825,7 @@
         <v>131</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
@@ -2816,7 +2837,7 @@
         <v>131</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D27" s="36">
         <v>0</v>
@@ -2828,67 +2849,67 @@
         <v>131</v>
       </c>
       <c r="C28" s="50" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D30" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D31" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="50" t="s">
         <v>139</v>
-      </c>
-      <c r="D28" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D29" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D32" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="50" t="s">
-        <v>149</v>
       </c>
       <c r="D33" s="36">
         <v>0</v>
@@ -2896,11 +2917,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" s="43"/>
+        <v>122</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>200</v>
+      </c>
       <c r="C34" s="50" t="s">
-        <v>89</v>
+        <v>201</v>
       </c>
       <c r="D34" s="36">
         <v>0</v>
@@ -2912,7 +2935,7 @@
       </c>
       <c r="B35" s="43"/>
       <c r="C35" s="50" t="s">
-        <v>90</v>
+        <v>125</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -2924,7 +2947,7 @@
       </c>
       <c r="B36" s="43"/>
       <c r="C36" s="50" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -2936,7 +2959,7 @@
       </c>
       <c r="B37" s="43"/>
       <c r="C37" s="50" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -2948,7 +2971,7 @@
       </c>
       <c r="B38" s="43"/>
       <c r="C38" s="50" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -2956,11 +2979,11 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B39" s="43"/>
       <c r="C39" s="50" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -2968,110 +2991,107 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B40" s="43"/>
       <c r="C40" s="50" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
+      <c r="A41" s="43" t="s">
+        <v>70</v>
+      </c>
       <c r="B41" s="43"/>
       <c r="C41" s="50" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D42" s="33">
-        <v>1</v>
+      <c r="A42" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="43"/>
+      <c r="C42" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C43" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D43" s="33">
-        <v>1</v>
+      <c r="A43" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="43"/>
+      <c r="C43" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>189</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B44" s="43"/>
       <c r="C44" s="50" t="s">
-        <v>211</v>
+        <v>141</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C45" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D45" s="33">
-        <v>1</v>
+      <c r="A45" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="43"/>
+      <c r="C45" s="50" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D46" s="33">
-        <v>1</v>
+      <c r="A46" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="43"/>
+      <c r="C46" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D47" s="33">
-        <v>1</v>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="B48" s="44" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C48" s="51" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="D48" s="33">
         <v>1</v>
@@ -3079,21 +3099,24 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B49" s="44" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C49" s="51" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D49" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B50" s="44" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="C50" s="51" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="D50" s="33">
         <v>1</v>
@@ -3101,98 +3124,96 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="44" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="B51" s="44" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="C51" s="51" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="D51" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="D52" s="36">
-        <v>0</v>
+      <c r="B52" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B53" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B54" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C54" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B55" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C56" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="D56" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="51" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B58" s="44" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="51" t="s">
+      <c r="C58" s="51" t="s">
         <v>190</v>
-      </c>
-      <c r="D53" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="D54" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="43"/>
-      <c r="B55" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>179</v>
-      </c>
-      <c r="D55" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B56" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="51" t="s">
-        <v>159</v>
-      </c>
-      <c r="D56" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B57" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58" s="44" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="51" t="s">
-        <v>203</v>
       </c>
       <c r="D58" s="33">
         <v>1</v>
@@ -3200,10 +3221,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B59" s="44" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D59" s="33">
         <v>1</v>
@@ -3211,10 +3232,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B60" s="44" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="D60" s="33">
         <v>1</v>
@@ -3222,10 +3243,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B61" s="44" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>176</v>
+        <v>135</v>
       </c>
       <c r="D61" s="33">
         <v>1</v>
@@ -3233,27 +3254,24 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44" t="s">
-        <v>123</v>
-      </c>
       <c r="B63" s="44" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="D63" s="33">
         <v>1</v>
@@ -3261,10 +3279,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B64" s="44" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D64" s="33">
         <v>1</v>
@@ -3272,10 +3290,10 @@
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B65" s="44" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="D65" s="33">
         <v>1</v>
@@ -3283,49 +3301,49 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="44" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B66" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C67" s="51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B68" s="44" t="s">
+        <v>182</v>
+      </c>
+      <c r="C68" s="51" t="s">
+        <v>183</v>
+      </c>
+      <c r="D68" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B69" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="C66" s="51" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>75</v>
-      </c>
-      <c r="D68" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="44" t="s">
-        <v>70</v>
-      </c>
       <c r="C69" s="51" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -3333,10 +3351,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="44" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>72</v>
+        <v>208</v>
       </c>
       <c r="D70" s="33">
         <v>1</v>
@@ -3346,8 +3367,11 @@
       <c r="A71" s="44" t="s">
         <v>123</v>
       </c>
+      <c r="B71" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="C71" s="51" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -3355,26 +3379,32 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="44" t="s">
+        <v>70</v>
+      </c>
       <c r="C73" s="51" t="s">
-        <v>120</v>
+        <v>84</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="44" t="s">
+        <v>122</v>
+      </c>
       <c r="C74" s="51" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="D74" s="33">
         <v>1</v>
@@ -3382,68 +3412,59 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C77" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="D77" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C78" s="51" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C75" s="51" t="s">
+      <c r="C79" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D75" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B76" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>197</v>
-      </c>
-      <c r="D76" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B77" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D77" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B78" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="D78" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C79" s="50" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="36">
-        <v>0</v>
+      <c r="D79" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B80" s="44" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="D80" s="33">
         <v>2</v>
@@ -3451,10 +3472,10 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B81" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="D81" s="33">
         <v>2</v>
@@ -3462,32 +3483,32 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B82" s="44" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D82" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
-        <v>70</v>
+      <c r="B83" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D83" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="44" t="s">
-        <v>122</v>
+      <c r="B84" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="D84" s="33">
         <v>2</v>
@@ -3495,140 +3516,167 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B85" s="44" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="D85" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B86" s="44" t="s">
-        <v>162</v>
+      <c r="A86" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D86" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B87" s="44" t="s">
-        <v>157</v>
+      <c r="A87" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="D87" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B88" s="44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="D88" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B89" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D89" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B90" s="44" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D90" s="33">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B91" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B92" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C92" s="51" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B93" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D93" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B94" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C94" s="51" t="s">
         <v>158</v>
       </c>
-      <c r="D91" s="33">
+      <c r="D94" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C92" s="51" t="s">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C95" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="D92" s="33">
+      <c r="D95" s="33">
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C93" s="51" t="s">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C96" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D96" s="33">
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>213</v>
-      </c>
-      <c r="D94" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C95" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="D95" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B96" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="D96" s="33">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B97" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B98" s="44" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="D98" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B99" s="44" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="D99" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D93">
-    <sortCondition ref="D3:D93"/>
-    <sortCondition ref="B3:B93"/>
+  <sortState ref="A4:D96">
+    <sortCondition ref="D3:D96"/>
+    <sortCondition ref="B3:B96"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{12B5FE5E-1953-4FD1-AE9B-24813631AB6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7938CC3D-5775-45B2-8FE9-06213335F1D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="224">
   <si>
     <t>№</t>
   </si>
@@ -695,6 +695,12 @@
   </si>
   <si>
     <t>Add possibility to add new category</t>
+  </si>
+  <si>
+    <t>Refactor commands</t>
+  </si>
+  <si>
+    <t>Save columns order and size</t>
   </si>
 </sst>
 </file>
@@ -2440,11 +2446,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M99"/>
+  <dimension ref="A1:M101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,11 +2517,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D170)</f>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-59</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3640,7 +3646,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B97" s="44" t="s">
         <v>139</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B98" s="44" t="s">
         <v>218</v>
       </c>
@@ -3662,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B99" s="44" t="s">
         <v>220</v>
       </c>
@@ -3670,6 +3676,31 @@
         <v>221</v>
       </c>
       <c r="D99" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="D100" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="C101" s="51" t="s">
+        <v>223</v>
+      </c>
+      <c r="D101" s="33">
         <v>1</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7938CC3D-5775-45B2-8FE9-06213335F1D0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8828EE65-E398-4328-8412-0D07EC7C0FCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$90</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$89</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plans!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="226">
   <si>
     <t>№</t>
   </si>
@@ -577,12 +577,6 @@
     <t>Category tree context menu (expand all, collapse all, select all, upselect all, select branch, unselect branch)</t>
   </si>
   <si>
-    <t>Transactions Page</t>
-  </si>
-  <si>
-    <t>Show/hide planned transactions</t>
-  </si>
-  <si>
     <t>Debts list</t>
   </si>
   <si>
@@ -604,9 +598,6 @@
     <t>Ограничения на строки</t>
   </si>
   <si>
-    <t>Cell height in settings</t>
-  </si>
-  <si>
     <t>When change income/expence resultat amount isn't changed</t>
   </si>
   <si>
@@ -701,6 +692,21 @@
   </si>
   <si>
     <t>Save columns order and size</t>
+  </si>
+  <si>
+    <t>Cell height in settings / max transactions count</t>
+  </si>
+  <si>
+    <t>Refactor filters</t>
+  </si>
+  <si>
+    <t>Code cleanup</t>
+  </si>
+  <si>
+    <t>DublicateCommand</t>
+  </si>
+  <si>
+    <t>Add defaults provider</t>
   </si>
 </sst>
 </file>
@@ -2446,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M101"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C102" sqref="C102"/>
+      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2506,31 +2512,33 @@
       <c r="D2" s="47"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43217</v>
+        <v>43218</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D170)</f>
-        <v>126</v>
+        <f>SUM(D3:D169)</f>
+        <v>124</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-61</v>
+        <v>-60</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="43"/>
+      <c r="A3" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B3" s="45" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="D3" s="36">
         <v>0</v>
@@ -2542,72 +2550,80 @@
       <c r="K3" s="39"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
+      <c r="A4" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B4" s="45" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
+      <c r="A5" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B5" s="45" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
+      <c r="A6" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B6" s="43" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
+      <c r="A7" s="43" t="s">
+        <v>122</v>
+      </c>
       <c r="B7" s="43" t="s">
-        <v>152</v>
+        <v>197</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>155</v>
+        <v>198</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="43" t="s">
-        <v>144</v>
-      </c>
+      <c r="A8" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="43"/>
       <c r="C8" s="50" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43" t="s">
-        <v>189</v>
-      </c>
+      <c r="A9" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="43"/>
       <c r="C9" s="50" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
@@ -2615,13 +2631,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>189</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B10" s="43"/>
       <c r="C10" s="50" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
@@ -2629,13 +2643,13 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B11" s="43" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2656,12 +2670,14 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
+      <c r="A13" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="B13" s="43" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>185</v>
+        <v>92</v>
       </c>
       <c r="D13" s="36">
         <v>0</v>
@@ -2675,7 +2691,7 @@
         <v>127</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -2689,7 +2705,7 @@
         <v>127</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D15" s="36">
         <v>0</v>
@@ -2700,46 +2716,48 @@
         <v>123</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D16" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="43" t="s">
+        <v>123</v>
+      </c>
       <c r="B17" s="43" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D17" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43" t="s">
-        <v>178</v>
-      </c>
+      <c r="A18" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="43"/>
       <c r="C18" s="50" t="s">
-        <v>179</v>
+        <v>125</v>
       </c>
       <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="43" t="s">
-        <v>187</v>
-      </c>
+      <c r="A19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="43"/>
       <c r="C19" s="50" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D19" s="36">
         <v>0</v>
@@ -2747,13 +2765,11 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>128</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B20" s="43"/>
       <c r="C20" s="50" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -2761,13 +2777,11 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>132</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B21" s="43"/>
       <c r="C21" s="50" t="s">
-        <v>192</v>
+        <v>148</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -2775,13 +2789,11 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>132</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B22" s="43"/>
       <c r="C22" s="50" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
@@ -2789,61 +2801,59 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>132</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="B23" s="43"/>
       <c r="C23" s="50" t="s">
-        <v>196</v>
+        <v>89</v>
       </c>
       <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="43" t="s">
-        <v>174</v>
-      </c>
+      <c r="A24" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="43"/>
       <c r="C24" s="50" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="43" t="s">
-        <v>131</v>
-      </c>
+      <c r="A25" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="43"/>
       <c r="C25" s="50" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43" t="s">
-        <v>131</v>
-      </c>
+      <c r="A26" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="43"/>
       <c r="C26" s="50" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43" t="s">
-        <v>131</v>
-      </c>
+      <c r="A27" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="43"/>
       <c r="C27" s="50" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="D27" s="36">
         <v>0</v>
@@ -2852,10 +2862,10 @@
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="43" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D28" s="36">
         <v>0</v>
@@ -2864,7 +2874,7 @@
     <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="43" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C29" s="50" t="s">
         <v>135</v>
@@ -2876,10 +2886,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D30" s="36">
         <v>0</v>
@@ -2888,10 +2898,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="D31" s="36">
         <v>0</v>
@@ -2900,10 +2910,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="43" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D32" s="36">
         <v>0</v>
@@ -2912,168 +2922,166 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="43" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="C35" s="50" t="s">
+        <v>186</v>
+      </c>
+      <c r="D35" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="D36" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="C37" s="50" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D38" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C39" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="D39" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="43" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="D33" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>200</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="50" t="s">
-        <v>145</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="D38" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="43"/>
-      <c r="C39" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="D39" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="43"/>
-      <c r="C40" s="50" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="43"/>
-      <c r="C41" s="50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D41" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="43"/>
       <c r="C42" s="50" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="43"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="C43" s="50" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="43"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="C44" s="50" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="43"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="C45" s="50" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46" s="43"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="C46" s="50" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3081,106 +3089,113 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
-      <c r="B47" s="43"/>
+      <c r="B47" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="C47" s="50" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>137</v>
+      </c>
+      <c r="D48" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="43"/>
+      <c r="C51" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B48" s="44" t="s">
+      <c r="B52" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="C48" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="D48" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B49" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C49" s="51" t="s">
+      <c r="C53" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D53" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" s="51" t="s">
         <v>191</v>
       </c>
-      <c r="D49" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>212</v>
-      </c>
-      <c r="C50" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="C51" s="51" t="s">
+      <c r="D54" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="51" t="s">
         <v>210</v>
-      </c>
-      <c r="D51" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B52" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B53" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="D53" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B54" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C54" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B55" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C55" s="51" t="s">
-        <v>168</v>
       </c>
       <c r="D55" s="33">
         <v>1</v>
@@ -3191,10 +3206,10 @@
         <v>122</v>
       </c>
       <c r="B56" s="44" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C56" s="51" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D56" s="33">
         <v>1</v>
@@ -3204,55 +3219,64 @@
       <c r="A57" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B57" s="44" t="s">
-        <v>180</v>
-      </c>
       <c r="C57" s="51" t="s">
-        <v>213</v>
+        <v>72</v>
       </c>
       <c r="D57" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B58" s="44" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="D58" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B59" s="44" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D59" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B60" s="44" t="s">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>159</v>
+        <v>212</v>
       </c>
       <c r="D60" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B61" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="D61" s="33">
         <v>1</v>
@@ -3260,46 +3284,55 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B63" s="44" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D63" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B64" s="44" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D64" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A65" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B65" s="44" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="D65" s="33">
         <v>1</v>
@@ -3310,10 +3343,10 @@
         <v>123</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D66" s="33">
         <v>1</v>
@@ -3324,32 +3357,38 @@
         <v>123</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>206</v>
+        <v>159</v>
       </c>
       <c r="D67" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B68" s="44" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="D68" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B69" s="44" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -3357,13 +3396,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="44" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D70" s="33">
         <v>1</v>
@@ -3374,10 +3413,10 @@
         <v>123</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -3385,10 +3424,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>75</v>
+        <v>203</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
@@ -3396,10 +3438,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>131</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>84</v>
+        <v>211</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
@@ -3407,10 +3452,10 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="51" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="D74" s="33">
         <v>1</v>
@@ -3421,7 +3466,7 @@
         <v>123</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
@@ -3432,111 +3477,126 @@
         <v>123</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="D76" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="C77" s="51" t="s">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="C78" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C79" s="51" t="s">
+        <v>207</v>
+      </c>
+      <c r="D79" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="44" t="s">
         <v>199</v>
       </c>
-      <c r="D78" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>204</v>
-      </c>
-      <c r="D79" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B80" s="44" t="s">
-        <v>152</v>
-      </c>
       <c r="C80" s="51" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D80" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B81" s="44" t="s">
-        <v>162</v>
+      <c r="A81" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>151</v>
+        <v>75</v>
       </c>
       <c r="D81" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B82" s="44" t="s">
-        <v>162</v>
+      <c r="A82" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C82" s="51" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D82" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B83" s="44" t="s">
-        <v>157</v>
+      <c r="A83" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>151</v>
+        <v>219</v>
       </c>
       <c r="D83" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B84" s="44" t="s">
-        <v>157</v>
+      <c r="A84" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="D84" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B85" s="44" t="s">
-        <v>171</v>
+      <c r="A85" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>172</v>
+        <v>223</v>
       </c>
       <c r="D85" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="44" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="D86" s="33">
         <v>2</v>
@@ -3544,170 +3604,252 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>162</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="D87" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B88" s="44" t="s">
         <v>162</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D88" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B89" s="44" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C89" s="51" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="D89" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="44" t="s">
+        <v>123</v>
+      </c>
       <c r="B90" s="44" t="s">
         <v>157</v>
       </c>
       <c r="C90" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C91" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="D92" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C93" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D93" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>162</v>
+      </c>
+      <c r="C95" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D96" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B91" s="44" t="s">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B97" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="51" t="s">
+      <c r="C97" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="D91" s="33">
+      <c r="D97" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B92" s="44" t="s">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B98" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="51" t="s">
+      <c r="C98" s="51" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="33">
+      <c r="D98" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B93" s="44" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="44" t="s">
         <v>144</v>
       </c>
-      <c r="C93" s="51" t="s">
+      <c r="C99" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D99" s="33">
         <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B94" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>158</v>
-      </c>
-      <c r="D94" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="D95" s="33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C96" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="D96" s="33">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B97" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>217</v>
-      </c>
-      <c r="D97" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B98" s="44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="D98" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B99" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="D99" s="33">
-        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>222</v>
+        <v>158</v>
       </c>
       <c r="D100" s="33">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B101" s="44" t="s">
-        <v>110</v>
-      </c>
       <c r="C101" s="51" t="s">
-        <v>223</v>
+        <v>15</v>
       </c>
       <c r="D101" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C103" s="51" t="s">
+        <v>224</v>
+      </c>
+      <c r="D103" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>199</v>
+      </c>
+      <c r="C104" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="D104" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D96">
-    <sortCondition ref="D3:D96"/>
-    <sortCondition ref="B3:B96"/>
+  <sortState ref="A4:D102">
+    <sortCondition ref="D3:D102"/>
+    <sortCondition ref="A3:A102"/>
+    <sortCondition ref="B3:B102"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8828EE65-E398-4328-8412-0D07EC7C0FCC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F0CB32B-B317-40DF-8F48-F57BADC5CB61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="227">
   <si>
     <t>№</t>
   </si>
@@ -707,6 +707,9 @@
   </si>
   <si>
     <t>Add defaults provider</t>
+  </si>
+  <si>
+    <t>Storages tree context menu</t>
   </si>
 </sst>
 </file>
@@ -2452,11 +2455,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C52" sqref="C52"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2523,11 +2526,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D169)</f>
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-60</v>
+        <v>-59</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2535,10 +2538,10 @@
         <v>122</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D3" s="36">
         <v>0</v>
@@ -2554,10 +2557,10 @@
         <v>122</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>132</v>
+        <v>180</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="D4" s="36">
         <v>0</v>
@@ -2571,7 +2574,7 @@
         <v>132</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D5" s="36">
         <v>0</v>
@@ -2585,7 +2588,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
@@ -2596,10 +2599,10 @@
         <v>122</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>197</v>
+        <v>132</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -2609,9 +2612,11 @@
       <c r="A8" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="43" t="s">
+        <v>197</v>
+      </c>
       <c r="C8" s="50" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -2623,7 +2628,7 @@
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="50" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
@@ -2635,7 +2640,7 @@
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="50" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
@@ -2643,13 +2648,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>187</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B11" s="43"/>
       <c r="C11" s="50" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2660,10 +2663,10 @@
         <v>123</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="D12" s="36">
         <v>0</v>
@@ -2674,10 +2677,10 @@
         <v>123</v>
       </c>
       <c r="B13" s="43" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>92</v>
+        <v>181</v>
       </c>
       <c r="D13" s="36">
         <v>0</v>
@@ -2691,7 +2694,7 @@
         <v>127</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -2705,7 +2708,7 @@
         <v>127</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15" s="36">
         <v>0</v>
@@ -2716,10 +2719,10 @@
         <v>123</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>129</v>
+        <v>94</v>
       </c>
       <c r="D16" s="36">
         <v>0</v>
@@ -2730,10 +2733,10 @@
         <v>123</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="D17" s="36">
         <v>0</v>
@@ -2741,11 +2744,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="43"/>
+        <v>123</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>174</v>
+      </c>
       <c r="C18" s="50" t="s">
-        <v>125</v>
+        <v>202</v>
       </c>
       <c r="D18" s="36">
         <v>0</v>
@@ -2757,7 +2762,7 @@
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="50" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D19" s="36">
         <v>0</v>
@@ -2769,7 +2774,7 @@
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -2781,7 +2786,7 @@
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="50" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -2793,7 +2798,7 @@
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
@@ -2805,7 +2810,7 @@
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="50" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D23" s="36">
         <v>0</v>
@@ -2817,7 +2822,7 @@
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D24" s="36">
         <v>0</v>
@@ -2829,7 +2834,7 @@
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="50" t="s">
-        <v>150</v>
+        <v>90</v>
       </c>
       <c r="D25" s="36">
         <v>0</v>
@@ -2841,7 +2846,7 @@
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="50" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
@@ -2853,19 +2858,19 @@
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="43"/>
+      <c r="C28" s="50" t="s">
         <v>141</v>
-      </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>151</v>
       </c>
       <c r="D28" s="36">
         <v>0</v>
@@ -2877,7 +2882,7 @@
         <v>152</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -2889,7 +2894,7 @@
         <v>152</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="D30" s="36">
         <v>0</v>
@@ -2901,7 +2906,7 @@
         <v>152</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="36">
         <v>0</v>
@@ -2913,7 +2918,7 @@
         <v>152</v>
       </c>
       <c r="C32" s="50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="36">
         <v>0</v>
@@ -2925,7 +2930,7 @@
         <v>152</v>
       </c>
       <c r="C33" s="50" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="D33" s="36">
         <v>0</v>
@@ -2934,10 +2939,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="43" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C34" s="50" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="D34" s="36">
         <v>0</v>
@@ -2946,10 +2951,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="43" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="C35" s="50" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -2958,10 +2963,10 @@
     <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="43" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
       <c r="C36" s="50" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -2970,10 +2975,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="C37" s="50" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -2982,10 +2987,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="43" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C38" s="50" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -2997,7 +3002,7 @@
         <v>178</v>
       </c>
       <c r="C39" s="50" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3006,10 +3011,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="43" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="C40" s="50" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
@@ -3018,10 +3023,10 @@
     <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="43" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C41" s="50" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3030,10 +3035,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="43" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3045,7 +3050,7 @@
         <v>131</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3057,7 +3062,7 @@
         <v>131</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3069,7 +3074,7 @@
         <v>131</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
@@ -3081,7 +3086,7 @@
         <v>131</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3093,7 +3098,7 @@
         <v>131</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3105,7 +3110,7 @@
         <v>131</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
@@ -3117,7 +3122,7 @@
         <v>131</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -3129,7 +3134,7 @@
         <v>131</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -3137,54 +3142,52 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
-      <c r="B51" s="43"/>
+      <c r="B51" s="43" t="s">
+        <v>131</v>
+      </c>
       <c r="C51" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43"/>
+      <c r="C52" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D51" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="43" t="s">
+      <c r="D52" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B52" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C52" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="D52" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="44" t="s">
+      <c r="B53" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>191</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B53" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C53" s="51" t="s">
-        <v>192</v>
-      </c>
-      <c r="D53" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B54" s="44" t="s">
+      <c r="B54" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C54" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="D54" s="33">
-        <v>1</v>
+      <c r="C54" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3192,10 +3195,10 @@
         <v>122</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C55" s="51" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D55" s="33">
         <v>1</v>
@@ -3205,11 +3208,8 @@
       <c r="A56" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="B56" s="44" t="s">
-        <v>127</v>
-      </c>
       <c r="C56" s="51" t="s">
-        <v>188</v>
+        <v>72</v>
       </c>
       <c r="D56" s="33">
         <v>1</v>
@@ -3217,10 +3217,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="44" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="B57" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="C57" s="51" t="s">
-        <v>72</v>
+        <v>224</v>
       </c>
       <c r="D57" s="33">
         <v>1</v>
@@ -3234,7 +3237,7 @@
         <v>152</v>
       </c>
       <c r="C58" s="51" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
       <c r="D58" s="33">
         <v>1</v>
@@ -3245,10 +3248,10 @@
         <v>123</v>
       </c>
       <c r="B59" s="44" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="C59" s="51" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D59" s="33">
         <v>1</v>
@@ -3259,10 +3262,10 @@
         <v>123</v>
       </c>
       <c r="B60" s="44" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D60" s="33">
         <v>1</v>
@@ -3273,10 +3276,10 @@
         <v>123</v>
       </c>
       <c r="B61" s="44" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="D61" s="33">
         <v>1</v>
@@ -3290,7 +3293,7 @@
         <v>162</v>
       </c>
       <c r="C62" s="51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
@@ -3304,7 +3307,7 @@
         <v>162</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D63" s="33">
         <v>1</v>
@@ -3318,7 +3321,7 @@
         <v>162</v>
       </c>
       <c r="C64" s="51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D64" s="33">
         <v>1</v>
@@ -3329,10 +3332,10 @@
         <v>123</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="C65" s="51" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="D65" s="33">
         <v>1</v>
@@ -3343,10 +3346,10 @@
         <v>123</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="C66" s="51" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D66" s="33">
         <v>1</v>
@@ -3357,10 +3360,10 @@
         <v>123</v>
       </c>
       <c r="B67" s="44" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>159</v>
+        <v>213</v>
       </c>
       <c r="D67" s="33">
         <v>1</v>
@@ -3374,7 +3377,7 @@
         <v>157</v>
       </c>
       <c r="C68" s="51" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="D68" s="33">
         <v>1</v>
@@ -3385,10 +3388,10 @@
         <v>123</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C69" s="51" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -3399,10 +3402,10 @@
         <v>123</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C70" s="51" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D70" s="33">
         <v>1</v>
@@ -3416,7 +3419,7 @@
         <v>174</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -3430,7 +3433,7 @@
         <v>174</v>
       </c>
       <c r="C72" s="51" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
@@ -3441,10 +3444,10 @@
         <v>123</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>131</v>
+        <v>174</v>
       </c>
       <c r="C73" s="51" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
@@ -3454,8 +3457,11 @@
       <c r="A74" s="44" t="s">
         <v>123</v>
       </c>
+      <c r="B74" s="44" t="s">
+        <v>131</v>
+      </c>
       <c r="C74" s="51" t="s">
-        <v>83</v>
+        <v>211</v>
       </c>
       <c r="D74" s="33">
         <v>1</v>
@@ -3466,7 +3472,7 @@
         <v>123</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
@@ -3477,7 +3483,7 @@
         <v>123</v>
       </c>
       <c r="C76" s="51" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="D76" s="33">
         <v>1</v>
@@ -3488,7 +3494,7 @@
         <v>123</v>
       </c>
       <c r="C77" s="51" t="s">
-        <v>196</v>
+        <v>120</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
@@ -3496,13 +3502,10 @@
     </row>
     <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C78" s="51" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D78" s="33">
         <v>1</v>
@@ -3510,13 +3513,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>206</v>
+        <v>131</v>
       </c>
       <c r="C79" s="51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D79" s="33">
         <v>1</v>
@@ -3527,10 +3530,10 @@
         <v>70</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
@@ -3540,8 +3543,11 @@
       <c r="A81" s="44" t="s">
         <v>70</v>
       </c>
+      <c r="B81" s="44" t="s">
+        <v>199</v>
+      </c>
       <c r="C81" s="51" t="s">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="D81" s="33">
         <v>1</v>
@@ -3551,8 +3557,11 @@
       <c r="A82" s="44" t="s">
         <v>70</v>
       </c>
+      <c r="B82" s="44" t="s">
+        <v>199</v>
+      </c>
       <c r="C82" s="51" t="s">
-        <v>84</v>
+        <v>225</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -3563,7 +3572,7 @@
         <v>70</v>
       </c>
       <c r="C83" s="51" t="s">
-        <v>219</v>
+        <v>75</v>
       </c>
       <c r="D83" s="33">
         <v>1</v>
@@ -3574,7 +3583,7 @@
         <v>70</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>222</v>
+        <v>84</v>
       </c>
       <c r="D84" s="33">
         <v>1</v>
@@ -3585,7 +3594,7 @@
         <v>70</v>
       </c>
       <c r="C85" s="51" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D85" s="33">
         <v>1</v>
@@ -3593,38 +3602,32 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="44" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="C86" s="51" t="s">
-        <v>73</v>
+        <v>222</v>
       </c>
       <c r="D86" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="C87" s="51" t="s">
-        <v>151</v>
+        <v>223</v>
       </c>
       <c r="D87" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B88" s="44" t="s">
-        <v>162</v>
+        <v>122</v>
       </c>
       <c r="C88" s="51" t="s">
-        <v>165</v>
+        <v>73</v>
       </c>
       <c r="D88" s="33">
         <v>2</v>
@@ -3635,7 +3638,7 @@
         <v>123</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C89" s="51" t="s">
         <v>151</v>
@@ -3649,10 +3652,10 @@
         <v>123</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C90" s="51" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D90" s="33">
         <v>2</v>
@@ -3663,10 +3666,10 @@
         <v>123</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C91" s="51" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D91" s="33">
         <v>2</v>
@@ -3677,10 +3680,10 @@
         <v>123</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="C92" s="51" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="D92" s="33">
         <v>2</v>
@@ -3688,10 +3691,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="44" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>171</v>
       </c>
       <c r="C93" s="51" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="D93" s="33">
         <v>2</v>
@@ -3702,27 +3708,24 @@
         <v>123</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C94" s="51" t="s">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D94" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B95" s="44" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="C95" s="51" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D95" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3730,10 +3733,10 @@
         <v>123</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C96" s="51" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="D96" s="33">
         <v>3</v>
@@ -3744,13 +3747,13 @@
         <v>123</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C97" s="51" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D97" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,10 +3764,10 @@
         <v>157</v>
       </c>
       <c r="C98" s="51" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="D98" s="33">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3772,13 +3775,13 @@
         <v>123</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="C99" s="51" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="D99" s="33">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -3789,67 +3792,81 @@
         <v>157</v>
       </c>
       <c r="C100" s="51" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D100" s="33">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
         <v>123</v>
       </c>
+      <c r="B101" s="44" t="s">
+        <v>144</v>
+      </c>
       <c r="C101" s="51" t="s">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="D101" s="33">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
         <v>123</v>
       </c>
+      <c r="B102" s="44" t="s">
+        <v>157</v>
+      </c>
       <c r="C102" s="51" t="s">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="D102" s="33">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
         <v>123</v>
       </c>
-      <c r="B103" s="44" t="s">
-        <v>139</v>
-      </c>
       <c r="C103" s="51" t="s">
-        <v>224</v>
+        <v>15</v>
       </c>
       <c r="D103" s="33">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="B104" s="44" t="s">
-        <v>199</v>
+        <v>123</v>
       </c>
       <c r="C104" s="51" t="s">
-        <v>225</v>
+        <v>22</v>
       </c>
       <c r="D104" s="33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B105" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="D105" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D102">
-    <sortCondition ref="D3:D102"/>
-    <sortCondition ref="A3:A102"/>
-    <sortCondition ref="B3:B102"/>
+  <sortState ref="A4:D104">
+    <sortCondition ref="D3:D104"/>
+    <sortCondition ref="A3:A104"/>
+    <sortCondition ref="B3:B104"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5F0CB32B-B317-40DF-8F48-F57BADC5CB61}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8349EFB9-2CF0-4A76-8D69-FB229B178B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
   <si>
     <t>№</t>
   </si>
@@ -710,6 +710,9 @@
   </si>
   <si>
     <t>Storages tree context menu</t>
+  </si>
+  <si>
+    <t>MessageBox style</t>
   </si>
 </sst>
 </file>
@@ -2455,11 +2458,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,11 +2529,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D169)</f>
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-59</v>
+        <v>-57</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3191,28 +3194,29 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="44" t="s">
+      <c r="A55" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C55" s="51" t="s">
+      <c r="C55" s="50" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="33">
-        <v>1</v>
+      <c r="D55" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="44" t="s">
+      <c r="A56" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="C56" s="51" t="s">
+      <c r="B56" s="43"/>
+      <c r="C56" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="D56" s="33">
-        <v>1</v>
+      <c r="D56" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3860,6 +3864,14 @@
       </c>
       <c r="D105" s="33">
         <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C106" s="51" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8349EFB9-2CF0-4A76-8D69-FB229B178B5D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD53301B-9DEA-4C8C-ACD5-F8209660D325}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2462,7 +2462,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2529,11 +2529,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D169)</f>
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-57</v>
+        <v>-52</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3220,73 +3220,73 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B57" s="44" t="s">
+      <c r="A57" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C57" s="51" t="s">
+      <c r="C57" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="D57" s="33">
-        <v>1</v>
+      <c r="D57" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B58" s="44" t="s">
+      <c r="A58" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B58" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="51" t="s">
+      <c r="C58" s="50" t="s">
         <v>192</v>
       </c>
-      <c r="D58" s="33">
-        <v>1</v>
+      <c r="D58" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="44" t="s">
+      <c r="A59" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="C59" s="51" t="s">
+      <c r="C59" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="D59" s="33">
-        <v>1</v>
+      <c r="D59" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B60" s="44" t="s">
+      <c r="A60" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="43" t="s">
         <v>217</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="D60" s="33">
-        <v>1</v>
+      <c r="D60" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="44" t="s">
+      <c r="A61" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="50" t="s">
         <v>212</v>
       </c>
-      <c r="D61" s="33">
-        <v>1</v>
+      <c r="D61" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FD53301B-9DEA-4C8C-ACD5-F8209660D325}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4EE759BD-0F15-49C2-9875-0BB36B7CC5FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2461,8 +2461,8 @@
   <dimension ref="A1:M106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C62" sqref="C62"/>
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2529,11 +2529,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D169)</f>
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-52</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3360,17 +3360,17 @@
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="44" t="s">
+      <c r="A67" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C67" s="51" t="s">
+      <c r="C67" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="D67" s="33">
-        <v>1</v>
+      <c r="D67" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{4EE759BD-0F15-49C2-9875-0BB36B7CC5FD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{95794D60-3A0D-4752-95CC-CEE9CD2F17D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="230">
   <si>
     <t>№</t>
   </si>
@@ -713,6 +713,12 @@
   </si>
   <si>
     <t>MessageBox style</t>
+  </si>
+  <si>
+    <t>Style refactoring</t>
+  </si>
+  <si>
+    <t>Apply filter takes a lot of time</t>
   </si>
 </sst>
 </file>
@@ -2458,11 +2464,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3872,6 +3878,25 @@
       </c>
       <c r="C106" s="51" t="s">
         <v>227</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C107" s="51" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C108" s="51" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{95794D60-3A0D-4752-95CC-CEE9CD2F17D2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EA3A7CBE-42BA-42F0-AE20-0C24FCCF1A11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="241">
   <si>
     <t>№</t>
   </si>
@@ -250,9 +250,6 @@
     <t>Обработчики delete exceptions</t>
   </si>
   <si>
-    <t>validation erros (Details view)</t>
-  </si>
-  <si>
     <t>Bugs</t>
   </si>
   <si>
@@ -706,9 +703,6 @@
     <t>DublicateCommand</t>
   </si>
   <si>
-    <t>Add defaults provider</t>
-  </si>
-  <si>
     <t>Storages tree context menu</t>
   </si>
   <si>
@@ -718,7 +712,46 @@
     <t>Style refactoring</t>
   </si>
   <si>
-    <t>Apply filter takes a lot of time</t>
+    <t>Make base class for track changes (like in DataFilter, PeriodFilter)</t>
+  </si>
+  <si>
+    <t>Add tasks</t>
+  </si>
+  <si>
+    <t>Calendar alerts -&gt; "Money transfer required" when one account have negative value and other has big value</t>
+  </si>
+  <si>
+    <t>Planning page. When there are a lot of simple events repay debts are hidden</t>
+  </si>
+  <si>
+    <t>Transactions service. Weekly schedule. Take into account periodicity</t>
+  </si>
+  <si>
+    <t>Insert calculator everywhere for enter amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove ServiceManager. Use </t>
+  </si>
+  <si>
+    <t>Main calendar. Use ListView instead of Grid</t>
+  </si>
+  <si>
+    <t>Action type is not refreshed after change</t>
+  </si>
+  <si>
+    <t>Add defaults provider for new entities</t>
+  </si>
+  <si>
+    <t>validation errors (Details view)</t>
+  </si>
+  <si>
+    <t>Limits  Context menu: remove closed</t>
+  </si>
+  <si>
+    <t>Limits. Update state on app is opened / limit is changed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advice generator </t>
   </si>
 </sst>
 </file>
@@ -1124,6 +1157,15 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1132,15 +1174,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2168,7 +2201,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="G32" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
@@ -2464,18 +2497,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M108"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B109" sqref="B109"/>
+      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.44140625" style="44" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="51" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="48" customWidth="1"/>
     <col min="4" max="4" width="10" style="33" customWidth="1"/>
     <col min="5" max="5" width="2.21875" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
@@ -2489,16 +2522,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="49" t="s">
         <v>56</v>
       </c>
       <c r="F1" s="26" t="s">
@@ -2514,43 +2547,43 @@
         <v>3</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="48"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43218</v>
+        <v>43220</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D169)</f>
-        <v>115</v>
+        <f>SUM(D3:D168)</f>
+        <v>92</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-51</v>
+        <v>-30</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>214</v>
+        <v>138</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>213</v>
       </c>
       <c r="D3" s="36">
         <v>0</v>
@@ -2561,29 +2594,29 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>204</v>
+        <v>179</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>203</v>
       </c>
       <c r="D4" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="50" t="s">
-        <v>189</v>
+        <v>131</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>188</v>
       </c>
       <c r="D5" s="36">
         <v>0</v>
@@ -2591,13 +2624,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>190</v>
+        <v>131</v>
+      </c>
+      <c r="C6" s="47" t="s">
+        <v>189</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
@@ -2605,13 +2638,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="50" t="s">
-        <v>193</v>
+        <v>131</v>
+      </c>
+      <c r="C7" s="47" t="s">
+        <v>192</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -2619,13 +2652,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>197</v>
-      </c>
-      <c r="C8" s="50" t="s">
-        <v>198</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -2633,10 +2666,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="43"/>
-      <c r="C9" s="50" t="s">
+      <c r="C9" s="47" t="s">
         <v>67</v>
       </c>
       <c r="D9" s="36">
@@ -2645,11 +2678,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="43"/>
-      <c r="C10" s="50" t="s">
-        <v>97</v>
+      <c r="C10" s="47" t="s">
+        <v>96</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
@@ -2657,11 +2690,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="43"/>
-      <c r="C11" s="50" t="s">
-        <v>201</v>
+      <c r="C11" s="47" t="s">
+        <v>200</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2669,27 +2702,27 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C12" s="50" t="s">
-        <v>208</v>
+        <v>186</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>207</v>
       </c>
       <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>180</v>
-      </c>
-      <c r="C13" s="50" t="s">
-        <v>181</v>
       </c>
       <c r="D13" s="36">
         <v>0</v>
@@ -2697,13 +2730,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" s="50" t="s">
-        <v>92</v>
+        <v>126</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>91</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -2711,27 +2744,27 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>93</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C16" s="50" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="36">
         <v>0</v>
@@ -2739,13 +2772,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>128</v>
-      </c>
-      <c r="C17" s="50" t="s">
-        <v>129</v>
       </c>
       <c r="D17" s="36">
         <v>0</v>
@@ -2753,25 +2786,25 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C18" s="50" t="s">
-        <v>202</v>
+        <v>173</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>201</v>
       </c>
       <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="43"/>
-      <c r="C19" s="50" t="s">
-        <v>125</v>
+      <c r="C19" s="47" t="s">
+        <v>124</v>
       </c>
       <c r="D19" s="36">
         <v>0</v>
@@ -2782,8 +2815,8 @@
         <v>70</v>
       </c>
       <c r="B20" s="43"/>
-      <c r="C20" s="50" t="s">
-        <v>145</v>
+      <c r="C20" s="47" t="s">
+        <v>144</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -2794,8 +2827,8 @@
         <v>70</v>
       </c>
       <c r="B21" s="43"/>
-      <c r="C21" s="50" t="s">
-        <v>146</v>
+      <c r="C21" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -2806,8 +2839,8 @@
         <v>70</v>
       </c>
       <c r="B22" s="43"/>
-      <c r="C22" s="50" t="s">
-        <v>148</v>
+      <c r="C22" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
@@ -2818,8 +2851,8 @@
         <v>70</v>
       </c>
       <c r="B23" s="43"/>
-      <c r="C23" s="50" t="s">
-        <v>149</v>
+      <c r="C23" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="D23" s="36">
         <v>0</v>
@@ -2830,8 +2863,8 @@
         <v>70</v>
       </c>
       <c r="B24" s="43"/>
-      <c r="C24" s="50" t="s">
-        <v>89</v>
+      <c r="C24" s="47" t="s">
+        <v>88</v>
       </c>
       <c r="D24" s="36">
         <v>0</v>
@@ -2842,20 +2875,20 @@
         <v>70</v>
       </c>
       <c r="B25" s="43"/>
-      <c r="C25" s="50" t="s">
-        <v>90</v>
+      <c r="C25" s="47" t="s">
+        <v>89</v>
       </c>
       <c r="D25" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="43"/>
-      <c r="C26" s="50" t="s">
-        <v>150</v>
+      <c r="C26" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
@@ -2866,8 +2899,8 @@
         <v>70</v>
       </c>
       <c r="B27" s="43"/>
-      <c r="C27" s="50" t="s">
-        <v>140</v>
+      <c r="C27" s="47" t="s">
+        <v>139</v>
       </c>
       <c r="D27" s="36">
         <v>0</v>
@@ -2878,20 +2911,20 @@
         <v>70</v>
       </c>
       <c r="B28" s="43"/>
-      <c r="C28" s="50" t="s">
-        <v>141</v>
+      <c r="C28" s="47" t="s">
+        <v>140</v>
       </c>
       <c r="D28" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="50" t="s">
         <v>151</v>
+      </c>
+      <c r="C29" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -2900,10 +2933,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>135</v>
+        <v>151</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="D30" s="36">
         <v>0</v>
@@ -2912,10 +2945,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>152</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>153</v>
       </c>
       <c r="D31" s="36">
         <v>0</v>
@@ -2924,10 +2957,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C32" s="50" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="D32" s="36">
         <v>0</v>
@@ -2936,10 +2969,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>155</v>
+        <v>151</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="D33" s="36">
         <v>0</v>
@@ -2948,10 +2981,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>194</v>
+        <v>151</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>193</v>
       </c>
       <c r="D34" s="36">
         <v>0</v>
@@ -2960,22 +2993,22 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="43" t="s">
-        <v>144</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="C35" s="47" t="s">
+        <v>141</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="43" t="s">
-        <v>187</v>
-      </c>
-      <c r="C36" s="50" t="s">
         <v>186</v>
+      </c>
+      <c r="C36" s="47" t="s">
+        <v>185</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -2984,10 +3017,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="47" t="s">
         <v>215</v>
-      </c>
-      <c r="C37" s="50" t="s">
-        <v>216</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -2996,10 +3029,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="47" t="s">
         <v>182</v>
-      </c>
-      <c r="C38" s="50" t="s">
-        <v>183</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -3008,10 +3041,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C39" s="50" t="s">
         <v>177</v>
+      </c>
+      <c r="C39" s="47" t="s">
+        <v>176</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3020,22 +3053,22 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="50" t="s">
-        <v>179</v>
-      </c>
       <c r="D40" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C41" s="50" t="s">
         <v>184</v>
+      </c>
+      <c r="C41" s="47" t="s">
+        <v>183</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3044,10 +3077,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="50" t="s">
         <v>173</v>
+      </c>
+      <c r="C42" s="47" t="s">
+        <v>172</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3056,10 +3089,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="50" t="s">
         <v>130</v>
+      </c>
+      <c r="C43" s="47" t="s">
+        <v>129</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3068,10 +3101,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>131</v>
-      </c>
-      <c r="C44" s="50" t="s">
-        <v>132</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3080,10 +3113,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="C45" s="47" t="s">
+        <v>132</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
@@ -3092,10 +3125,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C46" s="50" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>133</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3104,10 +3137,10 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>135</v>
+        <v>130</v>
+      </c>
+      <c r="C47" s="47" t="s">
+        <v>134</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3116,10 +3149,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C48" s="50" t="s">
-        <v>136</v>
+        <v>130</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
@@ -3128,10 +3161,10 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="50" t="s">
-        <v>137</v>
+        <v>130</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>136</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -3140,10 +3173,10 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="50" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="C50" s="47" t="s">
+        <v>137</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -3152,20 +3185,20 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="C51" s="50" t="s">
-        <v>139</v>
+        <v>130</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>138</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
-      <c r="C52" s="50" t="s">
-        <v>116</v>
+      <c r="C52" s="47" t="s">
+        <v>115</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
@@ -3173,13 +3206,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C53" s="50" t="s">
-        <v>191</v>
+        <v>179</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>190</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -3187,13 +3220,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="50" t="s">
-        <v>210</v>
+        <v>179</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>209</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
@@ -3201,13 +3234,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C55" s="50" t="s">
-        <v>188</v>
+        <v>126</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>187</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
@@ -3215,10 +3248,10 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="43"/>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="47" t="s">
         <v>72</v>
       </c>
       <c r="D56" s="36">
@@ -3227,13 +3260,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" s="50" t="s">
-        <v>224</v>
+        <v>138</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>223</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -3241,13 +3274,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="50" t="s">
-        <v>192</v>
+        <v>151</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>191</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>
@@ -3255,13 +3288,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="50" t="s">
-        <v>221</v>
+        <v>151</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>220</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -3269,13 +3302,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B60" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="47" t="s">
         <v>217</v>
-      </c>
-      <c r="C60" s="50" t="s">
-        <v>218</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
@@ -3283,13 +3316,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="C61" s="50" t="s">
-        <v>212</v>
+        <v>208</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>211</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
@@ -3297,13 +3330,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C62" s="51" t="s">
-        <v>164</v>
+        <v>161</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>163</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
@@ -3311,13 +3344,13 @@
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C63" s="51" t="s">
-        <v>166</v>
+        <v>161</v>
+      </c>
+      <c r="C63" s="48" t="s">
+        <v>165</v>
       </c>
       <c r="D63" s="33">
         <v>1</v>
@@ -3325,27 +3358,27 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="51" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="C64" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="D64" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C65" s="51" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="C65" s="48" t="s">
+        <v>167</v>
       </c>
       <c r="D65" s="33">
         <v>1</v>
@@ -3353,13 +3386,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>110</v>
-      </c>
-      <c r="C66" s="51" t="s">
-        <v>220</v>
+        <v>109</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>219</v>
       </c>
       <c r="D66" s="33">
         <v>1</v>
@@ -3367,13 +3400,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C67" s="50" t="s">
-        <v>213</v>
+        <v>177</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>212</v>
       </c>
       <c r="D67" s="36">
         <v>0</v>
@@ -3381,13 +3414,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C68" s="51" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="C68" s="48" t="s">
+        <v>158</v>
       </c>
       <c r="D68" s="33">
         <v>1</v>
@@ -3395,13 +3428,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C69" s="51" t="s">
-        <v>135</v>
+        <v>156</v>
+      </c>
+      <c r="C69" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -3409,13 +3442,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>171</v>
-      </c>
-      <c r="C70" s="51" t="s">
         <v>170</v>
+      </c>
+      <c r="C70" s="48" t="s">
+        <v>169</v>
       </c>
       <c r="D70" s="33">
         <v>1</v>
@@ -3423,13 +3456,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B71" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="48" t="s">
         <v>174</v>
-      </c>
-      <c r="C71" s="51" t="s">
-        <v>175</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -3437,13 +3470,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C72" s="51" t="s">
-        <v>176</v>
+        <v>173</v>
+      </c>
+      <c r="C72" s="48" t="s">
+        <v>175</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
@@ -3451,13 +3484,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>203</v>
+        <v>173</v>
+      </c>
+      <c r="C73" s="48" t="s">
+        <v>202</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
@@ -3465,13 +3498,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B74" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="51" t="s">
-        <v>211</v>
+        <v>130</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>210</v>
       </c>
       <c r="D74" s="33">
         <v>1</v>
@@ -3479,10 +3512,10 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C75" s="51" t="s">
-        <v>83</v>
+        <v>122</v>
+      </c>
+      <c r="C75" s="48" t="s">
+        <v>82</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
@@ -3490,10 +3523,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C76" s="51" t="s">
-        <v>82</v>
+        <v>122</v>
+      </c>
+      <c r="C76" s="48" t="s">
+        <v>81</v>
       </c>
       <c r="D76" s="33">
         <v>1</v>
@@ -3501,38 +3534,38 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>120</v>
+        <v>122</v>
+      </c>
+      <c r="C77" s="48" t="s">
+        <v>119</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>196</v>
+        <v>122</v>
+      </c>
+      <c r="C78" s="48" t="s">
+        <v>195</v>
       </c>
       <c r="D78" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>205</v>
-      </c>
-      <c r="D79" s="33">
-        <v>1</v>
+      <c r="A79" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" s="47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D79" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3540,10 +3573,10 @@
         <v>70</v>
       </c>
       <c r="B80" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C80" s="48" t="s">
         <v>206</v>
-      </c>
-      <c r="C80" s="51" t="s">
-        <v>207</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
@@ -3554,10 +3587,10 @@
         <v>70</v>
       </c>
       <c r="B81" s="44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="48" t="s">
         <v>199</v>
-      </c>
-      <c r="C81" s="51" t="s">
-        <v>200</v>
       </c>
       <c r="D81" s="33">
         <v>1</v>
@@ -3568,10 +3601,10 @@
         <v>70</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>225</v>
+        <v>198</v>
+      </c>
+      <c r="C82" s="48" t="s">
+        <v>236</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -3581,8 +3614,8 @@
       <c r="A83" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C83" s="51" t="s">
-        <v>75</v>
+      <c r="C83" s="48" t="s">
+        <v>74</v>
       </c>
       <c r="D83" s="33">
         <v>1</v>
@@ -3592,8 +3625,8 @@
       <c r="A84" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="51" t="s">
-        <v>84</v>
+      <c r="C84" s="48" t="s">
+        <v>83</v>
       </c>
       <c r="D84" s="33">
         <v>1</v>
@@ -3603,8 +3636,8 @@
       <c r="A85" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C85" s="51" t="s">
-        <v>219</v>
+      <c r="C85" s="48" t="s">
+        <v>218</v>
       </c>
       <c r="D85" s="33">
         <v>1</v>
@@ -3614,8 +3647,8 @@
       <c r="A86" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="51" t="s">
-        <v>222</v>
+      <c r="C86" s="48" t="s">
+        <v>221</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
@@ -3625,8 +3658,8 @@
       <c r="A87" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="51" t="s">
-        <v>223</v>
+      <c r="C87" s="48" t="s">
+        <v>222</v>
       </c>
       <c r="D87" s="33">
         <v>1</v>
@@ -3634,10 +3667,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C88" s="51" t="s">
-        <v>73</v>
+        <v>121</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>237</v>
       </c>
       <c r="D88" s="33">
         <v>2</v>
@@ -3645,13 +3678,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C89" s="51" t="s">
-        <v>151</v>
+        <v>161</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="D89" s="33">
         <v>2</v>
@@ -3659,13 +3692,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C90" s="51" t="s">
-        <v>165</v>
+        <v>161</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>164</v>
       </c>
       <c r="D90" s="33">
         <v>2</v>
@@ -3673,13 +3706,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="51" t="s">
-        <v>151</v>
+        <v>156</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="D91" s="33">
         <v>2</v>
@@ -3687,13 +3720,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>160</v>
       </c>
       <c r="D92" s="33">
         <v>2</v>
@@ -3701,27 +3734,27 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B93" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="C93" s="48" t="s">
         <v>171</v>
-      </c>
-      <c r="C93" s="51" t="s">
-        <v>172</v>
       </c>
       <c r="D93" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="C94" s="51" t="s">
-        <v>195</v>
+        <v>130</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>194</v>
       </c>
       <c r="D94" s="33">
         <v>2</v>
@@ -3731,8 +3764,8 @@
       <c r="A95" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C95" s="51" t="s">
-        <v>147</v>
+      <c r="C95" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="D95" s="33">
         <v>2</v>
@@ -3740,13 +3773,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B96" s="44" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="48" t="s">
         <v>162</v>
-      </c>
-      <c r="C96" s="51" t="s">
-        <v>163</v>
       </c>
       <c r="D96" s="33">
         <v>3</v>
@@ -3754,13 +3787,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>162</v>
-      </c>
-      <c r="C97" s="51" t="s">
-        <v>169</v>
+        <v>161</v>
+      </c>
+      <c r="C97" s="48" t="s">
+        <v>168</v>
       </c>
       <c r="D97" s="33">
         <v>3</v>
@@ -3768,13 +3801,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C98" s="51" t="s">
-        <v>133</v>
+        <v>156</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="D98" s="33">
         <v>3</v>
@@ -3782,13 +3815,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>152</v>
-      </c>
-      <c r="C99" s="51" t="s">
-        <v>156</v>
+        <v>151</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>155</v>
       </c>
       <c r="D99" s="33">
         <v>4</v>
@@ -3796,13 +3829,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C100" s="51" t="s">
-        <v>160</v>
+        <v>156</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>159</v>
       </c>
       <c r="D100" s="33">
         <v>4</v>
@@ -3810,13 +3843,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>144</v>
-      </c>
-      <c r="C101" s="51" t="s">
         <v>143</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="D101" s="33">
         <v>7</v>
@@ -3824,13 +3857,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="44" t="s">
+        <v>156</v>
+      </c>
+      <c r="C102" s="48" t="s">
         <v>157</v>
-      </c>
-      <c r="C102" s="51" t="s">
-        <v>158</v>
       </c>
       <c r="D102" s="33">
         <v>7</v>
@@ -3838,35 +3871,35 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C103" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C103" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D103" s="33">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C104" s="51" t="s">
-        <v>22</v>
+        <v>122</v>
+      </c>
+      <c r="C104" s="48" t="s">
+        <v>240</v>
       </c>
       <c r="D104" s="33">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="51" t="s">
-        <v>226</v>
+        <v>179</v>
+      </c>
+      <c r="C105" s="48" t="s">
+        <v>224</v>
       </c>
       <c r="D105" s="33">
         <v>1</v>
@@ -3874,29 +3907,124 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C106" s="51" t="s">
-        <v>227</v>
+        <v>122</v>
+      </c>
+      <c r="C106" s="48" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C107" s="51" t="s">
+      <c r="C107" s="48" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C108" s="48" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="44" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="48" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B108" s="44" t="s">
-        <v>180</v>
-      </c>
-      <c r="C108" s="51" t="s">
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B110" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C110" s="47" t="s">
         <v>229</v>
+      </c>
+      <c r="D110" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A111" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A112" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="48" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C113" s="48" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C116" s="48" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C118" s="48" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3945,26 +4073,26 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>76</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3972,17 +4100,17 @@
         <v>71</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="32" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>64</v>
@@ -3990,7 +4118,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>61</v>
@@ -3998,28 +4126,28 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C9" s="32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4043,114 +4171,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>104</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>117</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4173,22 +4301,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -4198,7 +4326,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EA3A7CBE-42BA-42F0-AE20-0C24FCCF1A11}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5BE7C28B-2350-4C5D-9A2F-35F5C5311194}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="245">
   <si>
     <t>№</t>
   </si>
@@ -752,6 +752,18 @@
   </si>
   <si>
     <t xml:space="preserve">Advice generator </t>
+  </si>
+  <si>
+    <t>Add possibility to update current</t>
+  </si>
+  <si>
+    <t>Currency exchange rate</t>
+  </si>
+  <si>
+    <t>Record detals</t>
+  </si>
+  <si>
+    <t>When select debt currency is not recognized</t>
   </si>
 </sst>
 </file>
@@ -2497,11 +2509,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3914,11 +3926,15 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="C107" s="48" t="s">
+      <c r="B107" s="43"/>
+      <c r="C107" s="47" t="s">
         <v>226</v>
+      </c>
+      <c r="D107" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -4025,6 +4041,28 @@
       </c>
       <c r="C118" s="48" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>242</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5BE7C28B-2350-4C5D-9A2F-35F5C5311194}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDECF3EA-E4C9-4511-B831-120307DEF956}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
   <si>
     <t>№</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Storage page -&gt; summary for every group</t>
   </si>
   <si>
-    <t>Storage group -&gt; серый цвет</t>
-  </si>
-  <si>
     <t>Header окна + название выбранной страницы</t>
   </si>
   <si>
@@ -730,12 +727,6 @@
     <t>Insert calculator everywhere for enter amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Remove ServiceManager. Use </t>
-  </si>
-  <si>
-    <t>Main calendar. Use ListView instead of Grid</t>
-  </si>
-  <si>
     <t>Action type is not refreshed after change</t>
   </si>
   <si>
@@ -754,9 +745,6 @@
     <t xml:space="preserve">Advice generator </t>
   </si>
   <si>
-    <t>Add possibility to update current</t>
-  </si>
-  <si>
     <t>Currency exchange rate</t>
   </si>
   <si>
@@ -764,6 +752,12 @@
   </si>
   <si>
     <t>When select debt currency is not recognized</t>
+  </si>
+  <si>
+    <t>Add possibility to update current in record details</t>
+  </si>
+  <si>
+    <t>Remove ServiceManager. Use Autofac</t>
   </si>
 </sst>
 </file>
@@ -2509,11 +2503,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M120"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A93" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2535,10 +2529,10 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>2</v>
@@ -2559,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2569,33 +2563,33 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43220</v>
+        <v>43221</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D168)</f>
-        <v>92</v>
+        <f>SUM(D3:D167)</f>
+        <v>107</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-30</v>
+        <v>-46</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D3" s="36">
         <v>0</v>
@@ -2608,13 +2602,13 @@
     </row>
     <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="36">
         <v>0</v>
@@ -2622,13 +2616,13 @@
     </row>
     <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D5" s="36">
         <v>0</v>
@@ -2636,13 +2630,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
@@ -2650,13 +2644,13 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -2664,13 +2658,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>196</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>197</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
@@ -2678,7 +2672,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="43"/>
       <c r="C9" s="47" t="s">
@@ -2690,11 +2684,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="43"/>
       <c r="C10" s="47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
@@ -2702,11 +2696,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B11" s="43"/>
       <c r="C11" s="47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
@@ -2714,13 +2708,13 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B12" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="36">
         <v>0</v>
@@ -2728,13 +2722,13 @@
     </row>
     <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>179</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>180</v>
       </c>
       <c r="D13" s="36">
         <v>0</v>
@@ -2742,13 +2736,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B14" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -2756,13 +2750,13 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B15" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D15" s="36">
         <v>0</v>
@@ -2770,13 +2764,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C16" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="36">
         <v>0</v>
@@ -2784,13 +2778,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="47" t="s">
         <v>127</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>128</v>
       </c>
       <c r="D17" s="36">
         <v>0</v>
@@ -2798,13 +2792,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D18" s="36">
         <v>0</v>
@@ -2816,7 +2810,7 @@
       </c>
       <c r="B19" s="43"/>
       <c r="C19" s="47" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" s="36">
         <v>0</v>
@@ -2828,7 +2822,7 @@
       </c>
       <c r="B20" s="43"/>
       <c r="C20" s="47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -2840,7 +2834,7 @@
       </c>
       <c r="B21" s="43"/>
       <c r="C21" s="47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -2852,7 +2846,7 @@
       </c>
       <c r="B22" s="43"/>
       <c r="C22" s="47" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
@@ -2864,7 +2858,7 @@
       </c>
       <c r="B23" s="43"/>
       <c r="C23" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" s="36">
         <v>0</v>
@@ -2876,7 +2870,7 @@
       </c>
       <c r="B24" s="43"/>
       <c r="C24" s="47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="36">
         <v>0</v>
@@ -2888,7 +2882,7 @@
       </c>
       <c r="B25" s="43"/>
       <c r="C25" s="47" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="36">
         <v>0</v>
@@ -2900,7 +2894,7 @@
       </c>
       <c r="B26" s="43"/>
       <c r="C26" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
@@ -2912,7 +2906,7 @@
       </c>
       <c r="B27" s="43"/>
       <c r="C27" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D27" s="36">
         <v>0</v>
@@ -2924,7 +2918,7 @@
       </c>
       <c r="B28" s="43"/>
       <c r="C28" s="47" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D28" s="36">
         <v>0</v>
@@ -2933,10 +2927,10 @@
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -2945,10 +2939,10 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="36">
         <v>0</v>
@@ -2957,10 +2951,10 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>151</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>152</v>
       </c>
       <c r="D31" s="36">
         <v>0</v>
@@ -2969,10 +2963,10 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D32" s="36">
         <v>0</v>
@@ -2981,10 +2975,10 @@
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D33" s="36">
         <v>0</v>
@@ -2993,10 +2987,10 @@
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" s="36">
         <v>0</v>
@@ -3005,10 +2999,10 @@
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="43" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3017,10 +3011,10 @@
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="43" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -3029,10 +3023,10 @@
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C37" s="47" t="s">
         <v>214</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>215</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3041,10 +3035,10 @@
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="47" t="s">
         <v>181</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>182</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -3053,10 +3047,10 @@
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3065,10 +3059,10 @@
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="47" t="s">
         <v>177</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>178</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
@@ -3077,10 +3071,10 @@
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3089,10 +3083,10 @@
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="43" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3101,10 +3095,10 @@
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3113,10 +3107,10 @@
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="47" t="s">
         <v>130</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>131</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3125,10 +3119,10 @@
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
@@ -3137,10 +3131,10 @@
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3149,10 +3143,10 @@
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3161,10 +3155,10 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
@@ -3173,10 +3167,10 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -3185,10 +3179,10 @@
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -3197,10 +3191,10 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
@@ -3210,7 +3204,7 @@
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
@@ -3218,13 +3212,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B53" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -3232,13 +3226,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B54" s="43" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
@@ -3246,13 +3240,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="43" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
@@ -3260,7 +3254,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B56" s="43"/>
       <c r="C56" s="47" t="s">
@@ -3272,13 +3266,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B57" s="43" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -3286,13 +3280,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B58" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>
@@ -3300,13 +3294,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B59" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -3314,13 +3308,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C60" s="47" t="s">
         <v>216</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>217</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
@@ -3328,13 +3322,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B61" s="43" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C61" s="47" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
@@ -3342,13 +3336,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B62" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D62" s="33">
         <v>1</v>
@@ -3356,13 +3350,13 @@
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B63" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D63" s="33">
         <v>1</v>
@@ -3370,13 +3364,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D64" s="33">
         <v>1</v>
@@ -3384,13 +3378,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B65" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C65" s="48" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D65" s="33">
         <v>1</v>
@@ -3398,13 +3392,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B66" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D66" s="33">
         <v>1</v>
@@ -3412,13 +3406,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B67" s="43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C67" s="47" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D67" s="36">
         <v>0</v>
@@ -3426,13 +3420,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D68" s="33">
         <v>1</v>
@@ -3440,13 +3434,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C69" s="48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D69" s="33">
         <v>1</v>
@@ -3454,13 +3448,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D70" s="33">
         <v>1</v>
@@ -3468,13 +3462,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C71" s="48" t="s">
         <v>173</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>174</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
@@ -3482,13 +3476,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
@@ -3496,38 +3490,38 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>210</v>
-      </c>
-      <c r="D74" s="33">
-        <v>1</v>
+      <c r="A74" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D74" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C75" s="48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
@@ -3535,10 +3529,10 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C76" s="48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D76" s="33">
         <v>1</v>
@@ -3546,10 +3540,10 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
@@ -3557,10 +3551,10 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="33">
         <v>1</v>
@@ -3568,13 +3562,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="43" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B79" s="43" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D79" s="36">
         <v>0</v>
@@ -3585,10 +3579,10 @@
         <v>70</v>
       </c>
       <c r="B80" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="48" t="s">
         <v>205</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>206</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
@@ -3599,10 +3593,10 @@
         <v>70</v>
       </c>
       <c r="B81" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="48" t="s">
         <v>198</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>199</v>
       </c>
       <c r="D81" s="33">
         <v>1</v>
@@ -3613,10 +3607,10 @@
         <v>70</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C82" s="48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -3638,7 +3632,7 @@
         <v>70</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" s="33">
         <v>1</v>
@@ -3649,7 +3643,7 @@
         <v>70</v>
       </c>
       <c r="C85" s="48" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" s="33">
         <v>1</v>
@@ -3660,7 +3654,7 @@
         <v>70</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
@@ -3671,7 +3665,7 @@
         <v>70</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D87" s="33">
         <v>1</v>
@@ -3679,10 +3673,10 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D88" s="33">
         <v>2</v>
@@ -3690,13 +3684,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D89" s="33">
         <v>2</v>
@@ -3704,13 +3698,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D90" s="33">
         <v>2</v>
@@ -3718,13 +3712,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B91" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D91" s="33">
         <v>2</v>
@@ -3732,13 +3726,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D92" s="33">
         <v>2</v>
@@ -3746,13 +3740,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B93" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="48" t="s">
         <v>170</v>
-      </c>
-      <c r="C93" s="48" t="s">
-        <v>171</v>
       </c>
       <c r="D93" s="33">
         <v>2</v>
@@ -3760,13 +3754,13 @@
     </row>
     <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B94" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D94" s="33">
         <v>2</v>
@@ -3777,7 +3771,7 @@
         <v>70</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D95" s="33">
         <v>2</v>
@@ -3785,13 +3779,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="48" t="s">
         <v>161</v>
-      </c>
-      <c r="C96" s="48" t="s">
-        <v>162</v>
       </c>
       <c r="D96" s="33">
         <v>3</v>
@@ -3799,13 +3793,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D97" s="33">
         <v>3</v>
@@ -3813,13 +3807,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D98" s="33">
         <v>3</v>
@@ -3827,13 +3821,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D99" s="33">
         <v>4</v>
@@ -3841,13 +3835,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="33">
         <v>4</v>
@@ -3855,13 +3849,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D101" s="33">
         <v>7</v>
@@ -3869,13 +3863,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B102" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" s="48" t="s">
         <v>156</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>157</v>
       </c>
       <c r="D102" s="33">
         <v>7</v>
@@ -3883,7 +3877,7 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C103" s="48" t="s">
         <v>15</v>
@@ -3894,10 +3888,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D104" s="33">
         <v>10</v>
@@ -3905,13 +3899,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D105" s="33">
         <v>1</v>
@@ -3919,10 +3913,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>225</v>
+        <v>224</v>
+      </c>
+      <c r="D106" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -3931,7 +3928,7 @@
       </c>
       <c r="B107" s="43"/>
       <c r="C107" s="47" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D107" s="36">
         <v>0</v>
@@ -3939,29 +3936,35 @@
     </row>
     <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="D108" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="D109" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A110" s="43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B110" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C110" s="47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D110" s="36">
         <v>0</v>
@@ -3969,100 +3972,116 @@
     </row>
     <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A111" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="D111" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C112" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="D112" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C113" s="48" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="C113" s="48" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D113" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="44" t="s">
         <v>70</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>242</v>
+      </c>
+      <c r="D114" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="44" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+      <c r="D115" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C116" s="48" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D116" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117" s="44" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C117" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="D117" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="44" t="s">
-        <v>142</v>
-      </c>
       <c r="C118" s="48" t="s">
+        <v>241</v>
+      </c>
+      <c r="D118" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="43" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="C120" s="48" t="s">
-        <v>244</v>
+      <c r="C119" s="47" t="s">
+        <v>240</v>
+      </c>
+      <c r="D119" s="36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4099,7 +4118,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4125,7 +4144,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -4143,12 +4162,12 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" s="32" t="s">
         <v>64</v>
@@ -4156,7 +4175,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="32" t="s">
         <v>61</v>
@@ -4164,28 +4183,20 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="32" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4209,114 +4220,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>100</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>103</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>110</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>116</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4339,22 +4350,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
@@ -4364,7 +4375,7 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{CDECF3EA-E4C9-4511-B831-120307DEF956}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91C3F66D-FDD4-4529-8504-AD8884880F4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2506,8 +2506,8 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C118" sqref="C118"/>
+      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{91C3F66D-FDD4-4529-8504-AD8884880F4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED6B2EDA-240B-4D0D-AB0D-BAEE50822742}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$89</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$88</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plans!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
   <si>
     <t>№</t>
   </si>
@@ -692,9 +692,6 @@
   </si>
   <si>
     <t>Refactor filters</t>
-  </si>
-  <si>
-    <t>Code cleanup</t>
   </si>
   <si>
     <t>DublicateCommand</t>
@@ -2506,8 +2503,8 @@
   <dimension ref="A1:M119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A102" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C117" sqref="C117"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2563,22 +2560,22 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43221</v>
+        <v>43226</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D167)</f>
-        <v>107</v>
+        <f>SUM(D3:D165)</f>
+        <v>99</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-46</v>
+        <v>-43</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3272,7 +3269,7 @@
         <v>137</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -3610,7 +3607,7 @@
         <v>197</v>
       </c>
       <c r="C82" s="48" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -3662,21 +3659,24 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D87" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="C88" s="48" t="s">
-        <v>234</v>
+        <v>149</v>
       </c>
       <c r="D88" s="33">
         <v>2</v>
@@ -3690,7 +3690,7 @@
         <v>160</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D89" s="33">
         <v>2</v>
@@ -3701,10 +3701,10 @@
         <v>121</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="D90" s="33">
         <v>2</v>
@@ -3718,49 +3718,46 @@
         <v>155</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D91" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C92" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D92" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B92" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C92" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D92" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="44" t="s">
         <v>121</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D93" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B94" s="44" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="D94" s="33">
         <v>2</v>
@@ -3768,13 +3765,16 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="D95" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3785,24 +3785,24 @@
         <v>160</v>
       </c>
       <c r="C96" s="48" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D96" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="33">
-        <v>3</v>
+      <c r="A97" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C97" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D97" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3810,13 +3810,13 @@
         <v>121</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="D98" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3824,10 +3824,10 @@
         <v>121</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D99" s="33">
         <v>4</v>
@@ -3838,13 +3838,13 @@
         <v>121</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D100" s="33">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -3852,10 +3852,10 @@
         <v>121</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D101" s="33">
         <v>7</v>
@@ -3865,14 +3865,11 @@
       <c r="A102" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B102" s="44" t="s">
-        <v>155</v>
-      </c>
       <c r="C102" s="48" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="D102" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -3880,7 +3877,7 @@
         <v>121</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c r="D103" s="33">
         <v>10</v>
@@ -3890,20 +3887,20 @@
       <c r="A104" s="44" t="s">
         <v>121</v>
       </c>
+      <c r="B104" s="44" t="s">
+        <v>178</v>
+      </c>
       <c r="C104" s="48" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D104" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B105" s="44" t="s">
-        <v>178</v>
-      </c>
       <c r="C105" s="48" t="s">
         <v>223</v>
       </c>
@@ -3912,62 +3909,62 @@
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C106" s="48" t="s">
+      <c r="A106" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B106" s="43"/>
+      <c r="C106" s="47" t="s">
         <v>224</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D106" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D107" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B107" s="43"/>
-      <c r="C107" s="47" t="s">
-        <v>225</v>
-      </c>
-      <c r="D107" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C108" s="48" t="s">
         <v>226</v>
       </c>
       <c r="D108" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D109" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C110" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D110" s="33">
         <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A109" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C109" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B110" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C110" s="47" t="s">
-        <v>228</v>
-      </c>
-      <c r="D110" s="36">
-        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
@@ -3981,37 +3978,43 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="44" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="D112" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
+      </c>
+      <c r="B113" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="C113" s="48" t="s">
         <v>231</v>
       </c>
       <c r="D113" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>126</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D114" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -4019,10 +4022,10 @@
         <v>120</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D115" s="33">
         <v>1</v>
@@ -4033,62 +4036,56 @@
         <v>121</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D116" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="44" t="s">
+      <c r="A117" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B117" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C117" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="D117" s="33">
-        <v>1</v>
+      <c r="B117" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C117" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D117" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="44" t="s">
-        <v>238</v>
-      </c>
       <c r="C118" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D118" s="33">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>155</v>
+      </c>
+      <c r="C119" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D119" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D119" s="36">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A4:D104">
-    <sortCondition ref="D3:D104"/>
-    <sortCondition ref="A3:A104"/>
-    <sortCondition ref="B3:B104"/>
+  <sortState ref="A4:D103">
+    <sortCondition ref="D3:D103"/>
+    <sortCondition ref="A3:A103"/>
+    <sortCondition ref="B3:B103"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED6B2EDA-240B-4D0D-AB0D-BAEE50822742}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="247">
   <si>
     <t>№</t>
   </si>
@@ -715,9 +714,6 @@
     <t>Calendar alerts -&gt; "Money transfer required" when one account have negative value and other has big value</t>
   </si>
   <si>
-    <t>Planning page. When there are a lot of simple events repay debts are hidden</t>
-  </si>
-  <si>
     <t>Transactions service. Weekly schedule. Take into account periodicity</t>
   </si>
   <si>
@@ -755,12 +751,30 @@
   </si>
   <si>
     <t>Remove ServiceManager. Use Autofac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings  </t>
+  </si>
+  <si>
+    <t>Do not fill default settings. Create id in the service by gettings</t>
+  </si>
+  <si>
+    <t>If theme is not defined populate default</t>
+  </si>
+  <si>
+    <t>Planning page. When there are a lot of simple events repay debts are hidden. Add scroll</t>
+  </si>
+  <si>
+    <t>Planning Page</t>
+  </si>
+  <si>
+    <t>Update event state logic: Planned, Active, Suspended, Finished (finished automatically), Closed (closed by user)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1180,7 +1194,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,7 +1477,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
@@ -1472,23 +1486,23 @@
       <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5546875" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="3.6640625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" style="29" customWidth="1"/>
     <col min="8" max="8" width="6" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="0.33203125" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="8"/>
+    <col min="9" max="9" width="3.7109375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="0.28515625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1511,7 +1525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1556,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1577,7 +1591,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1620,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1628,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="11">
         <f t="shared" si="1"/>
@@ -1676,7 +1690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="11">
         <f t="shared" si="1"/>
@@ -1700,7 +1714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1724,7 +1738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1749,7 +1763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1774,7 +1788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="11">
         <f t="shared" si="1"/>
@@ -1820,7 +1834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="11">
         <f t="shared" si="1"/>
@@ -1844,7 +1858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="11">
         <f t="shared" si="1"/>
@@ -1862,7 +1876,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="11">
         <f t="shared" si="1"/>
@@ -1880,7 +1894,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1908,7 +1922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1930,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1952,7 +1966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="11">
         <f t="shared" si="1"/>
@@ -1970,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -1992,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -2014,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="15"/>
       <c r="B23" s="11">
         <f t="shared" si="1"/>
@@ -2038,7 +2052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="11">
         <f t="shared" si="1"/>
@@ -2054,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="15"/>
       <c r="B25" s="11">
         <f t="shared" si="1"/>
@@ -2070,7 +2084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="15"/>
       <c r="B26" s="11">
         <f t="shared" si="1"/>
@@ -2092,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="15"/>
       <c r="B27" s="11">
         <f t="shared" si="1"/>
@@ -2114,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="15"/>
       <c r="B28" s="11">
         <f t="shared" si="1"/>
@@ -2136,7 +2150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="15"/>
       <c r="B29" s="11">
         <f t="shared" si="1"/>
@@ -2155,7 +2169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="15"/>
       <c r="B30" s="11">
         <f t="shared" si="1"/>
@@ -2174,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="15"/>
       <c r="B31" s="11">
         <f t="shared" si="1"/>
@@ -2194,7 +2208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="15"/>
       <c r="B32" s="11">
         <f t="shared" si="1"/>
@@ -2211,7 +2225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="15"/>
       <c r="B33" s="11">
         <f t="shared" si="1"/>
@@ -2225,7 +2239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="15"/>
       <c r="B34" s="11">
         <f t="shared" si="1"/>
@@ -2239,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="15"/>
       <c r="B35" s="11">
         <f t="shared" si="1"/>
@@ -2253,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="15"/>
       <c r="B36" s="11">
         <f t="shared" si="1"/>
@@ -2267,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="15"/>
       <c r="B37" s="11">
         <f t="shared" si="1"/>
@@ -2283,7 +2297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="15"/>
       <c r="B38" s="11">
         <f t="shared" si="1"/>
@@ -2297,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="11">
         <f t="shared" si="1"/>
@@ -2311,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="15"/>
       <c r="B40" s="11">
         <f t="shared" si="1"/>
@@ -2325,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="15"/>
       <c r="B41" s="11">
         <f t="shared" si="1"/>
@@ -2339,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="15"/>
       <c r="B42" s="11">
         <f t="shared" si="1"/>
@@ -2352,7 +2366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="15"/>
       <c r="B43" s="11">
         <f t="shared" si="1"/>
@@ -2366,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
       <c r="B44" s="11">
         <f t="shared" si="1"/>
@@ -2380,7 +2394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="15"/>
       <c r="B45" s="11">
         <f t="shared" si="1"/>
@@ -2394,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="11">
         <f t="shared" si="1"/>
@@ -2408,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="B47" s="11">
         <f t="shared" si="1"/>
@@ -2422,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
       <c r="B48" s="11">
         <f t="shared" si="1"/>
@@ -2436,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="15"/>
       <c r="B49" s="11">
         <f t="shared" si="1"/>
@@ -2450,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="15"/>
       <c r="B50" s="11">
         <f t="shared" si="1"/>
@@ -2464,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="B51" s="11">
         <f t="shared" si="1"/>
@@ -2478,7 +2492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="11">
         <f t="shared" si="1"/>
@@ -2499,32 +2513,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C98" sqref="C98"/>
+      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="44" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="48.6640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="10" style="33" customWidth="1"/>
-    <col min="5" max="5" width="2.21875" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="1.44140625" customWidth="1"/>
-    <col min="10" max="10" width="24.109375" style="34" customWidth="1"/>
-    <col min="11" max="11" width="13.109375" style="34" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" style="34" customWidth="1"/>
-    <col min="13" max="13" width="26.5546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" style="44" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="48.7109375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" style="33" customWidth="1"/>
+    <col min="5" max="5" width="2.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="34" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="34" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" style="34" customWidth="1"/>
+    <col min="13" max="13" width="26.5703125" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
         <v>119</v>
       </c>
@@ -2553,32 +2567,32 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="51"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43226</v>
+        <v>43227</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D165)</f>
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>-47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
         <v>120</v>
       </c>
@@ -2597,7 +2611,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>120</v>
       </c>
@@ -2611,536 +2625,566 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D5" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>130</v>
+        <v>178</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="43" t="s">
         <v>120</v>
       </c>
       <c r="B8" s="43" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="43" t="s">
+        <v>130</v>
+      </c>
       <c r="C9" s="47" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="43" t="s">
+        <v>130</v>
+      </c>
       <c r="C10" s="47" t="s">
-        <v>95</v>
+        <v>191</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="43" t="s">
+        <v>237</v>
+      </c>
       <c r="C11" s="47" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="D12" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="D11" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B12" s="43" t="s">
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>227</v>
+      </c>
+      <c r="D20" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C21" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D12" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" s="43" t="s">
+      <c r="D21" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="47" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="C13" s="47" t="s">
+      <c r="C24" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="43" t="s">
+      <c r="D24" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C25" s="47" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="43" t="s">
+      <c r="D25" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="47" t="s">
+      <c r="C26" s="47" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="D26" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B27" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C27" s="47" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B17" s="43" t="s">
+      <c r="D27" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C29" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="43" t="s">
+      <c r="D29" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D30" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="C18" s="47" t="s">
+      <c r="C32" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="D18" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="43" t="s">
+      <c r="D32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>203</v>
+      </c>
+      <c r="D34" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="47" t="s">
+      <c r="B35" s="43"/>
+      <c r="C35" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="D19" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="43" t="s">
+      <c r="D35" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="47" t="s">
+      <c r="B36" s="43"/>
+      <c r="C36" s="47" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="D36" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="47" t="s">
+      <c r="B37" s="43"/>
+      <c r="C37" s="47" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="43" t="s">
+      <c r="D37" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="47" t="s">
+      <c r="B38" s="43"/>
+      <c r="C38" s="47" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="43" t="s">
+      <c r="D38" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="47" t="s">
+      <c r="B39" s="43"/>
+      <c r="C39" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D23" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="D39" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="47" t="s">
+      <c r="B40" s="43"/>
+      <c r="C40" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="43" t="s">
+      <c r="D40" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="47" t="s">
+      <c r="B41" s="43"/>
+      <c r="C41" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="D25" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="43" t="s">
+      <c r="D41" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="47" t="s">
+      <c r="B42" s="43"/>
+      <c r="C42" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D26" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="43" t="s">
+      <c r="D42" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="47" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="43" t="s">
+      <c r="D43" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="47" t="s">
+      <c r="B44" s="43"/>
+      <c r="C44" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D28" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>149</v>
-      </c>
-      <c r="D29" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D30" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>192</v>
-      </c>
-      <c r="D34" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="43"/>
-      <c r="B35" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="C35" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="43"/>
-      <c r="B36" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" s="47" t="s">
-        <v>184</v>
-      </c>
-      <c r="D36" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C37" s="47" t="s">
-        <v>214</v>
-      </c>
-      <c r="D37" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="43"/>
-      <c r="B38" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="C38" s="47" t="s">
-        <v>181</v>
-      </c>
-      <c r="D38" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C39" s="47" t="s">
-        <v>175</v>
-      </c>
-      <c r="D39" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="43"/>
-      <c r="B40" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="43"/>
-      <c r="B41" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="47" t="s">
-        <v>182</v>
-      </c>
-      <c r="D41" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="43"/>
-      <c r="B42" s="43" t="s">
-        <v>172</v>
-      </c>
-      <c r="C42" s="47" t="s">
-        <v>171</v>
-      </c>
-      <c r="D42" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="43"/>
-      <c r="B43" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C43" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="43"/>
-      <c r="B44" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>130</v>
-      </c>
       <c r="D44" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43" t="s">
-        <v>129</v>
-      </c>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="43"/>
       <c r="C45" s="47" t="s">
-        <v>131</v>
+        <v>224</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="43" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="43" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C47" s="47" t="s">
         <v>133</v>
@@ -3149,943 +3193,955 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="43" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="43" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="43" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="43"/>
+      <c r="B52" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="D52" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="D53" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43" t="s">
+        <v>213</v>
+      </c>
+      <c r="C54" s="47" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="47" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="43"/>
+      <c r="B56" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="43"/>
+      <c r="B57" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="47" t="s">
+        <v>177</v>
+      </c>
+      <c r="D57" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C58" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="D58" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="43"/>
+      <c r="B59" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="C59" s="47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="43"/>
+      <c r="B60" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C60" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="D60" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="43"/>
+      <c r="B61" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>130</v>
+      </c>
+      <c r="D61" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="43"/>
+      <c r="B62" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="43"/>
+      <c r="B64" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="43"/>
+      <c r="B65" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C65" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="D51" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="47" t="s">
+      <c r="D68" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="43"/>
+      <c r="B69" s="43"/>
+      <c r="C69" s="47" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="43" t="s">
+      <c r="D69" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="B53" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="47" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="43" t="s">
-        <v>178</v>
-      </c>
-      <c r="C54" s="47" t="s">
-        <v>208</v>
-      </c>
-      <c r="D54" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="C55" s="47" t="s">
-        <v>186</v>
-      </c>
-      <c r="D55" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B56" s="43"/>
-      <c r="C56" s="47" t="s">
-        <v>72</v>
-      </c>
-      <c r="D56" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B57" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>221</v>
-      </c>
-      <c r="D57" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="47" t="s">
-        <v>190</v>
-      </c>
-      <c r="D58" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B59" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C59" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="D59" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" s="43" t="s">
-        <v>215</v>
-      </c>
-      <c r="C60" s="47" t="s">
-        <v>216</v>
-      </c>
-      <c r="D60" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="C61" s="47" t="s">
-        <v>210</v>
-      </c>
-      <c r="D61" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C62" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D62" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C63" s="48" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C64" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="D64" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C65" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="D65" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>108</v>
-      </c>
-      <c r="C66" s="48" t="s">
-        <v>218</v>
-      </c>
-      <c r="D66" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="C67" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="D68" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C69" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="D69" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="44" t="s">
-        <v>121</v>
-      </c>
       <c r="B70" s="44" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="C70" s="48" t="s">
-        <v>168</v>
+        <v>234</v>
       </c>
       <c r="D70" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="C71" s="48" t="s">
-        <v>173</v>
+        <v>230</v>
       </c>
       <c r="D71" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B72" s="44" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C72" s="48" t="s">
-        <v>174</v>
+        <v>243</v>
       </c>
       <c r="D72" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>172</v>
+        <v>120</v>
       </c>
       <c r="C73" s="48" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="D73" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B74" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C74" s="47" t="s">
-        <v>209</v>
-      </c>
-      <c r="D74" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C74" s="48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D74" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="44" t="s">
         <v>121</v>
       </c>
+      <c r="B75" s="44" t="s">
+        <v>236</v>
+      </c>
       <c r="C75" s="48" t="s">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="D75" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>121</v>
       </c>
+      <c r="B76" s="44" t="s">
+        <v>160</v>
+      </c>
       <c r="C76" s="48" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D76" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
         <v>121</v>
       </c>
+      <c r="B77" s="44" t="s">
+        <v>160</v>
+      </c>
       <c r="C77" s="48" t="s">
-        <v>118</v>
+        <v>164</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>121</v>
       </c>
+      <c r="B78" s="44" t="s">
+        <v>160</v>
+      </c>
       <c r="C78" s="48" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="D78" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="B79" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>203</v>
-      </c>
-      <c r="D79" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="D79" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="D81" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>197</v>
+        <v>126</v>
       </c>
       <c r="C82" s="48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="D83" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="D84" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>155</v>
       </c>
       <c r="C85" s="48" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="D85" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>70</v>
+        <v>121</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>169</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>220</v>
+        <v>168</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C90" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C91" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="D91" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="D92" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D94" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D95" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>204</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D96" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>231</v>
+      </c>
+      <c r="D98" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B99" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="C99" s="48" t="s">
+        <v>242</v>
+      </c>
+      <c r="D99" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C100" s="48" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C101" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="D102" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C103" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D103" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="44" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D87" s="33">
+      <c r="C104" s="48" t="s">
+        <v>232</v>
+      </c>
+      <c r="D104" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" s="44" t="s">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C105" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D88" s="33">
+      <c r="D105" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A89" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B89" s="44" t="s">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C106" s="48" t="s">
         <v>163</v>
       </c>
-      <c r="D89" s="33">
+      <c r="D106" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="44" t="s">
+    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B107" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="48" t="s">
+      <c r="C107" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="D90" s="33">
+      <c r="D107" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B91" s="44" t="s">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B108" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C91" s="48" t="s">
+      <c r="C108" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="D91" s="33">
+      <c r="D108" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="43" t="s">
-        <v>169</v>
-      </c>
-      <c r="C92" s="47" t="s">
-        <v>170</v>
-      </c>
-      <c r="D92" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B93" s="44" t="s">
+    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B109" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="48" t="s">
+      <c r="C109" s="48" t="s">
         <v>193</v>
       </c>
-      <c r="D93" s="33">
+      <c r="D109" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="44" t="s">
+    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="C94" s="48" t="s">
+      <c r="C110" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="D94" s="33">
+      <c r="D110" s="33">
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B95" s="44" t="s">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="48" t="s">
+        <v>240</v>
+      </c>
+      <c r="D111" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B112" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C95" s="48" t="s">
+      <c r="C112" s="48" t="s">
         <v>161</v>
       </c>
-      <c r="D95" s="33">
+      <c r="D112" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B96" s="44" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C113" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="D96" s="33">
+      <c r="D113" s="33">
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B97" s="43" t="s">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>226</v>
+      </c>
+      <c r="D114" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A115" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="C115" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B116" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C97" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D97" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B98" s="44" t="s">
-        <v>150</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="D98" s="33">
+      <c r="C116" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="D116" s="33">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B99" s="44" t="s">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B118" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="D99" s="33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B100" s="44" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="D100" s="33">
+      <c r="C118" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" s="33">
         <v>7</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A101" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B101" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C101" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="D101" s="33">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C102" s="48" t="s">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C119" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D102" s="33">
+      <c r="D119" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A103" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C103" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="D103" s="33">
+    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A120" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="33">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A104" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B104" s="44" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="48" t="s">
-        <v>222</v>
-      </c>
-      <c r="D104" s="33">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C121" s="48" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A122" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C122" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="D122" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A105" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C105" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D105" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A106" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B106" s="43"/>
-      <c r="C106" s="47" t="s">
-        <v>224</v>
-      </c>
-      <c r="D106" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C107" s="48" t="s">
-        <v>225</v>
-      </c>
-      <c r="D107" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A108" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="C108" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D108" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="B109" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>227</v>
-      </c>
-      <c r="D109" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="D110" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A111" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D111" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C112" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D112" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B113" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C113" s="48" t="s">
-        <v>231</v>
-      </c>
-      <c r="D113" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A114" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B114" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C114" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D114" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B115" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C115" s="48" t="s">
-        <v>235</v>
-      </c>
-      <c r="D115" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A116" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B116" s="44" t="s">
-        <v>237</v>
-      </c>
-      <c r="C116" s="48" t="s">
-        <v>240</v>
-      </c>
-      <c r="D116" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C117" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="D117" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" s="48" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B119" s="44" t="s">
-        <v>155</v>
-      </c>
-      <c r="C119" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="D119" s="33">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState ref="A4:D103">
-    <sortCondition ref="D3:D103"/>
-    <sortCondition ref="A3:A103"/>
-    <sortCondition ref="B3:B103"/>
+  <sortState ref="A4:D121">
+    <sortCondition ref="D3:D121"/>
+    <sortCondition ref="A3:A121"/>
+    <sortCondition ref="B3:B121"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
@@ -4098,7 +4154,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{50D461F2-F0C9-4897-9832-6E2CC6031E82}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -4111,21 +4167,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.5546875" style="32" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" style="32" customWidth="1"/>
-    <col min="3" max="4" width="63.109375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" style="32" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="32" customWidth="1"/>
+    <col min="3" max="4" width="63.140625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>73</v>
       </c>
@@ -4139,17 +4195,17 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="32" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="32" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="32" t="s">
         <v>71</v>
       </c>
@@ -4157,12 +4213,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="32" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>83</v>
       </c>
@@ -4170,7 +4226,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>85</v>
       </c>
@@ -4178,7 +4234,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>86</v>
       </c>
@@ -4186,12 +4242,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>89</v>
       </c>
@@ -4202,20 +4258,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.109375" style="32" customWidth="1"/>
-    <col min="2" max="2" width="78.6640625" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" style="32" customWidth="1"/>
+    <col min="2" max="2" width="78.7109375" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>97</v>
       </c>
@@ -4223,7 +4279,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>99</v>
       </c>
@@ -4231,7 +4287,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>99</v>
       </c>
@@ -4239,7 +4295,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>102</v>
       </c>
@@ -4247,7 +4303,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>102</v>
       </c>
@@ -4255,7 +4311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>105</v>
       </c>
@@ -4263,7 +4319,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>105</v>
       </c>
@@ -4271,7 +4327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>108</v>
       </c>
@@ -4279,7 +4335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>109</v>
       </c>
@@ -4287,7 +4343,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>100</v>
       </c>
@@ -4295,7 +4351,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>100</v>
       </c>
@@ -4303,7 +4359,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>109</v>
       </c>
@@ -4311,7 +4367,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>100</v>
       </c>
@@ -4319,7 +4375,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
         <v>115</v>
       </c>
@@ -4333,44 +4389,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E4AE6-A920-4399-9106-F6BA9167C0EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>115</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Help" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Estimate!$A$1:$A$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plans!$A$1:$E$52</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="252">
   <si>
     <t>№</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Синхронизация с карточкой</t>
   </si>
   <si>
-    <t>Force execute event</t>
-  </si>
-  <si>
     <t>Clear history</t>
   </si>
   <si>
@@ -384,9 +381,6 @@
     <t>Replace OrderBy into the service in the entity selections</t>
   </si>
   <si>
-    <t>Update limits on record/money transfer is added</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -501,9 +495,6 @@
     <t>Pie chart</t>
   </si>
   <si>
-    <t>Table</t>
-  </si>
-  <si>
     <t>Bar chart</t>
   </si>
   <si>
@@ -609,9 +600,6 @@
     <t>Apply filter</t>
   </si>
   <si>
-    <t>Separate transaction list by day (add line between different day transactions)</t>
-  </si>
-  <si>
     <t>Event execution</t>
   </si>
   <si>
@@ -621,9 +609,6 @@
     <t>Take existing currency exchange rate</t>
   </si>
   <si>
-    <t>Services</t>
-  </si>
-  <si>
     <t>Cleanup</t>
   </si>
   <si>
@@ -690,9 +675,6 @@
     <t>Cell height in settings / max transactions count</t>
   </si>
   <si>
-    <t>Refactor filters</t>
-  </si>
-  <si>
     <t>DublicateCommand</t>
   </si>
   <si>
@@ -714,9 +696,6 @@
     <t>Calendar alerts -&gt; "Money transfer required" when one account have negative value and other has big value</t>
   </si>
   <si>
-    <t>Transactions service. Weekly schedule. Take into account periodicity</t>
-  </si>
-  <si>
     <t>Insert calculator everywhere for enter amount</t>
   </si>
   <si>
@@ -732,9 +711,6 @@
     <t>Limits  Context menu: remove closed</t>
   </si>
   <si>
-    <t>Limits. Update state on app is opened / limit is changed</t>
-  </si>
-  <si>
     <t xml:space="preserve">Advice generator </t>
   </si>
   <si>
@@ -753,22 +729,61 @@
     <t>Remove ServiceManager. Use Autofac</t>
   </si>
   <si>
-    <t xml:space="preserve">Settings  </t>
-  </si>
-  <si>
     <t>Do not fill default settings. Create id in the service by gettings</t>
   </si>
   <si>
     <t>If theme is not defined populate default</t>
   </si>
   <si>
-    <t>Planning page. When there are a lot of simple events repay debts are hidden. Add scroll</t>
-  </si>
-  <si>
     <t>Planning Page</t>
   </si>
   <si>
     <t>Update event state logic: Planned, Active, Suspended, Finished (finished automatically), Closed (closed by user)</t>
+  </si>
+  <si>
+    <t>When there are a lot of simple events repay debts are hidden. Add scroll</t>
+  </si>
+  <si>
+    <t>Weekly schedule. Take into account periodicity</t>
+  </si>
+  <si>
+    <t>Refactoring. Services</t>
+  </si>
+  <si>
+    <t>Refactoring. Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings behaviour (apply partially, e.g. when sorting was changed do not rebuild full report data) </t>
+  </si>
+  <si>
+    <t>Settings behaviour (disabling)</t>
+  </si>
+  <si>
+    <t>Build report with details (for depth)</t>
+  </si>
+  <si>
+    <t>Build report with partitioning data by period</t>
+  </si>
+  <si>
+    <t>Build report for comparing incomes and expences</t>
+  </si>
+  <si>
+    <t>Show events planned for today</t>
+  </si>
+  <si>
+    <t>Limits page</t>
+  </si>
+  <si>
+    <t>Calculate limit state on fetching from database</t>
+  </si>
+  <si>
+    <t>Show limits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactoring. Settings  </t>
+  </si>
+  <si>
+    <t>Translate all colors into russian</t>
   </si>
 </sst>
 </file>
@@ -1481,9 +1496,9 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1574,10 +1589,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="8">
         <f>IF(A3="+",0,D3)</f>
@@ -1674,7 +1689,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" s="13">
         <v>4</v>
@@ -1704,10 +1719,10 @@
       </c>
       <c r="E8" s="14"/>
       <c r="G8" s="30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J8" s="8">
         <f t="shared" si="0"/>
@@ -1747,7 +1762,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="13">
         <v>4</v>
@@ -1848,10 +1863,10 @@
       </c>
       <c r="E14" s="14"/>
       <c r="G14" s="30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J14" s="8">
         <f t="shared" si="0"/>
@@ -1903,7 +1918,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D17" s="13">
         <v>5</v>
@@ -1915,7 +1930,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J17" s="8">
         <f t="shared" si="0"/>
@@ -1931,7 +1946,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="13">
         <v>6</v>
@@ -1953,7 +1968,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="13">
         <v>5</v>
@@ -1973,7 +1988,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="13">
         <v>1</v>
@@ -1993,7 +2008,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="13">
         <v>2</v>
@@ -2015,7 +2030,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="13">
         <v>3</v>
@@ -2035,18 +2050,12 @@
         <v>22</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D23" s="13">
         <v>2</v>
       </c>
       <c r="E23" s="14"/>
-      <c r="G23" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="J23" s="8">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -2059,7 +2068,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="14"/>
@@ -2075,7 +2084,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="14"/>
@@ -2091,15 +2100,15 @@
         <v>25</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="14"/>
       <c r="G26" s="29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J26" s="8">
         <f t="shared" si="0"/>
@@ -2113,15 +2122,15 @@
         <v>26</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="14"/>
       <c r="G27" s="29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J27" s="8">
         <f t="shared" si="0"/>
@@ -2135,15 +2144,15 @@
         <v>27</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="14"/>
       <c r="G28" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J28" s="8">
         <f t="shared" si="0"/>
@@ -2157,12 +2166,12 @@
         <v>28</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="14"/>
       <c r="G29" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J29" s="8">
         <f t="shared" si="0"/>
@@ -2176,12 +2185,12 @@
         <v>29</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="14"/>
       <c r="G30" s="29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J30" s="8">
         <f t="shared" si="0"/>
@@ -2198,10 +2207,10 @@
       <c r="D31" s="13"/>
       <c r="E31" s="14"/>
       <c r="G31" s="30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J31" s="8">
         <f t="shared" si="0"/>
@@ -2218,7 +2227,7 @@
       <c r="D32" s="13"/>
       <c r="E32" s="14"/>
       <c r="G32" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J32" s="8">
         <f t="shared" si="0"/>
@@ -2288,7 +2297,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="14"/>
@@ -2514,11 +2523,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C125" sqref="C125"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,31 +2549,31 @@
   <sheetData>
     <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="51" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B1" s="49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="26" t="s">
         <v>56</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>57</v>
       </c>
       <c r="J1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="35" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2574,33 +2583,33 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43227</v>
+        <v>43234</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D165)</f>
-        <v>102</v>
+        <f>SUM(D3:D160)</f>
+        <v>88</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-47</v>
+        <v>-40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D3" s="36">
         <v>0</v>
@@ -2613,13 +2622,13 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D4" s="36">
         <v>0</v>
@@ -2627,13 +2636,13 @@
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C5" s="47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="36">
         <v>0</v>
@@ -2641,13 +2650,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>178</v>
+        <v>148</v>
       </c>
       <c r="C6" s="47" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D6" s="36">
         <v>0</v>
@@ -2655,107 +2664,97 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="A8" s="43"/>
       <c r="B8" s="43" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="D8" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="A9" s="43"/>
       <c r="B9" s="43" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="D9" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="A10" s="43"/>
       <c r="B10" s="43" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="D10" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="A11" s="43"/>
       <c r="B11" s="43" t="s">
-        <v>237</v>
+        <v>148</v>
       </c>
       <c r="C11" s="47" t="s">
-        <v>238</v>
+        <v>150</v>
       </c>
       <c r="D11" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="43" t="s">
-        <v>120</v>
-      </c>
+      <c r="A12" s="43"/>
       <c r="B12" s="43" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="D12" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="43"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43" t="s">
+        <v>148</v>
+      </c>
       <c r="C13" s="47" t="s">
-        <v>67</v>
+        <v>189</v>
       </c>
       <c r="D13" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="43"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43" t="s">
+        <v>140</v>
+      </c>
       <c r="C14" s="47" t="s">
-        <v>95</v>
+        <v>138</v>
       </c>
       <c r="D14" s="36">
         <v>0</v>
@@ -2763,23 +2762,25 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>182</v>
+      </c>
       <c r="C15" s="47" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D15" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="43"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>182</v>
+      </c>
       <c r="C16" s="47" t="s">
-        <v>72</v>
+        <v>181</v>
       </c>
       <c r="D16" s="36">
         <v>0</v>
@@ -2787,13 +2788,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B17" s="43" t="s">
-        <v>137</v>
+        <v>210</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="D17" s="36">
         <v>0</v>
@@ -2801,27 +2802,25 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="D18" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="A19" s="43"/>
       <c r="B19" s="43" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D19" s="36">
         <v>0</v>
@@ -2829,13 +2828,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="D20" s="36">
         <v>0</v>
@@ -2843,13 +2842,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B21" s="43" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C21" s="47" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="D21" s="36">
         <v>0</v>
@@ -2857,13 +2856,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D22" s="36">
         <v>0</v>
@@ -2871,41 +2870,39 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>207</v>
+        <v>175</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="D23" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="A24" s="43"/>
       <c r="B24" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" s="47" t="s">
         <v>178</v>
       </c>
-      <c r="C24" s="47" t="s">
-        <v>179</v>
-      </c>
       <c r="D24" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C25" s="47" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="D25" s="36">
         <v>0</v>
@@ -2913,13 +2910,13 @@
     </row>
     <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C26" s="47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D26" s="36">
         <v>0</v>
@@ -2927,13 +2924,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C27" s="47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D27" s="36">
         <v>0</v>
@@ -2941,13 +2938,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="C28" s="47" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="D28" s="36">
         <v>0</v>
@@ -2955,55 +2952,49 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D31" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="43" t="s">
-        <v>121</v>
-      </c>
+      <c r="A32" s="43"/>
       <c r="B32" s="43" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C32" s="47" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="D32" s="36">
         <v>0</v>
@@ -3011,13 +3002,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C33" s="47" t="s">
-        <v>209</v>
+        <v>125</v>
       </c>
       <c r="D33" s="36">
         <v>0</v>
@@ -3025,13 +3016,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C34" s="47" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D34" s="36">
         <v>0</v>
@@ -3039,11 +3030,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>128</v>
+      </c>
       <c r="C35" s="47" t="s">
-        <v>123</v>
+        <v>185</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3051,11 +3044,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>128</v>
+      </c>
       <c r="C36" s="47" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
@@ -3063,11 +3058,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>229</v>
+      </c>
       <c r="C37" s="47" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3075,11 +3072,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C38" s="47" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -3087,11 +3086,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B39" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C39" s="47" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3099,11 +3100,13 @@
     </row>
     <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C40" s="47" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
@@ -3111,11 +3114,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C41" s="47" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3123,11 +3128,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B42" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C42" s="47" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3135,11 +3142,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C43" s="47" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3147,11 +3156,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>153</v>
+      </c>
       <c r="C44" s="47" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3159,35 +3170,41 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B45" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>166</v>
+      </c>
       <c r="C45" s="47" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
+      <c r="A46" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B46" s="43" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="43"/>
+      <c r="A47" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B47" s="43" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>133</v>
+        <v>195</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
@@ -3196,34 +3213,38 @@
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="43" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
+      <c r="A49" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B49" s="43" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>152</v>
+        <v>204</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
+      <c r="A50" s="43" t="s">
+        <v>114</v>
+      </c>
       <c r="B50" s="43" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>153</v>
+        <v>198</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
@@ -3232,10 +3253,10 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="43" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>192</v>
+        <v>126</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
@@ -3244,10 +3265,10 @@
     <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="43" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
@@ -3256,10 +3277,10 @@
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="43" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>184</v>
+        <v>129</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
@@ -3268,10 +3289,10 @@
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="43" t="s">
-        <v>213</v>
+        <v>127</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>214</v>
+        <v>130</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
@@ -3280,10 +3301,10 @@
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="43" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
@@ -3292,10 +3313,10 @@
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="43" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="D56" s="36">
         <v>0</v>
@@ -3304,10 +3325,10 @@
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="43" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -3316,10 +3337,10 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="43" t="s">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>
@@ -3328,234 +3349,228 @@
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
+      <c r="A60" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="B60" s="43" t="s">
-        <v>129</v>
+        <v>191</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>128</v>
+        <v>192</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="43"/>
-      <c r="B61" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A61" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="43"/>
       <c r="C61" s="47" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="43"/>
-      <c r="B62" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A62" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="43"/>
       <c r="C62" s="47" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="D62" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="43"/>
-      <c r="B63" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A63" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="43"/>
       <c r="C63" s="47" t="s">
-        <v>132</v>
+        <v>194</v>
       </c>
       <c r="D63" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="43"/>
-      <c r="B64" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A64" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" s="43"/>
       <c r="C64" s="47" t="s">
-        <v>133</v>
+        <v>71</v>
       </c>
       <c r="D64" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A65" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="43"/>
       <c r="C65" s="47" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D65" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="43"/>
-      <c r="B66" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A66" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="43"/>
       <c r="C66" s="47" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D66" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="43"/>
-      <c r="B67" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A67" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="43"/>
       <c r="C67" s="47" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D67" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="43"/>
-      <c r="B68" s="43" t="s">
-        <v>129</v>
-      </c>
+      <c r="A68" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="43"/>
       <c r="C68" s="47" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D68" s="36">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="43"/>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="43" t="s">
+        <v>69</v>
+      </c>
       <c r="B69" s="43"/>
       <c r="C69" s="47" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="D69" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" s="48" t="s">
-        <v>234</v>
-      </c>
-      <c r="D70" s="33">
-        <v>1</v>
+      <c r="A70" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" s="48" t="s">
-        <v>230</v>
-      </c>
-      <c r="D71" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="C72" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D72" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C73" s="48" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" s="33">
-        <v>1</v>
+      <c r="A71" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="43"/>
+      <c r="C71" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D71" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B72" s="43"/>
+      <c r="C72" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="D72" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B73" s="43"/>
+      <c r="C73" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C74" s="48" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="33">
-        <v>1</v>
+      <c r="A74" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B74" s="43"/>
+      <c r="C74" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="D74" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="44" t="s">
-        <v>236</v>
-      </c>
-      <c r="C75" s="48" t="s">
-        <v>239</v>
-      </c>
-      <c r="D75" s="33">
-        <v>1</v>
+      <c r="A75" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B75" s="43"/>
+      <c r="C75" s="47" t="s">
+        <v>218</v>
+      </c>
+      <c r="D75" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D76" s="33">
-        <v>1</v>
+      <c r="A76" s="43"/>
+      <c r="B76" s="43"/>
+      <c r="C76" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D76" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>164</v>
+        <v>249</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
@@ -3563,13 +3578,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="C78" s="48" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="D78" s="33">
         <v>1</v>
@@ -3577,13 +3592,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>166</v>
+        <v>231</v>
       </c>
       <c r="D79" s="33">
         <v>1</v>
@@ -3591,13 +3606,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="C80" s="48" t="s">
-        <v>222</v>
+        <v>159</v>
       </c>
       <c r="D80" s="33">
         <v>1</v>
@@ -3605,13 +3620,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>108</v>
+        <v>157</v>
       </c>
       <c r="C81" s="48" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="D81" s="33">
         <v>1</v>
@@ -3619,13 +3634,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="C82" s="48" t="s">
-        <v>233</v>
+        <v>162</v>
       </c>
       <c r="D82" s="33">
         <v>1</v>
@@ -3633,13 +3648,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D83" s="33">
         <v>1</v>
@@ -3647,13 +3662,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="C84" s="48" t="s">
-        <v>133</v>
+        <v>216</v>
       </c>
       <c r="D84" s="33">
         <v>1</v>
@@ -3661,13 +3676,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="C85" s="48" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="D85" s="33">
         <v>1</v>
@@ -3675,13 +3690,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>169</v>
+        <v>247</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
@@ -3689,13 +3704,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>172</v>
+        <v>235</v>
       </c>
       <c r="C87" s="48" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="D87" s="33">
         <v>1</v>
@@ -3703,13 +3718,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C88" s="48" t="s">
-        <v>174</v>
+        <v>223</v>
       </c>
       <c r="D88" s="33">
         <v>1</v>
@@ -3717,13 +3732,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C89" s="48" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="D89" s="33">
         <v>1</v>
@@ -3731,10 +3746,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>124</v>
       </c>
       <c r="C90" s="48" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
       <c r="D90" s="33">
         <v>1</v>
@@ -3742,10 +3760,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="C91" s="48" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D91" s="33">
         <v>1</v>
@@ -3753,21 +3774,27 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>69</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="D92" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>240</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="D93" s="33">
         <v>1</v>
@@ -3775,10 +3802,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>240</v>
       </c>
       <c r="C94" s="48" t="s">
-        <v>223</v>
+        <v>73</v>
       </c>
       <c r="D94" s="33">
         <v>1</v>
@@ -3786,24 +3816,27 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="C95" s="48" t="s">
-        <v>225</v>
+        <v>151</v>
       </c>
       <c r="D95" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B96" s="44" t="s">
-        <v>204</v>
+        <v>153</v>
       </c>
       <c r="C96" s="48" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="D96" s="33">
         <v>1</v>
@@ -3811,13 +3844,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B97" s="44" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="C97" s="48" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="D97" s="33">
         <v>1</v>
@@ -3825,13 +3858,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="44" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B98" s="44" t="s">
-        <v>197</v>
+        <v>153</v>
       </c>
       <c r="C98" s="48" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="D98" s="33">
         <v>1</v>
@@ -3839,13 +3872,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="44" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D99" s="33">
         <v>1</v>
@@ -3853,10 +3886,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="44" t="s">
-        <v>70</v>
+        <v>119</v>
+      </c>
+      <c r="B100" s="44" t="s">
+        <v>153</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>74</v>
+        <v>245</v>
       </c>
       <c r="D100" s="33">
         <v>1</v>
@@ -3864,10 +3900,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B101" s="44" t="s">
+        <v>239</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>82</v>
+        <v>193</v>
       </c>
       <c r="D101" s="33">
         <v>1</v>
@@ -3875,21 +3914,27 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>239</v>
       </c>
       <c r="C102" s="48" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="D102" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="44" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>250</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="D103" s="33">
         <v>1</v>
@@ -3897,251 +3942,321 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D104" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D105" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D106" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="D107" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="D108" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B109" s="44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C109" s="48" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="D109" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="44" t="s">
-        <v>70</v>
+        <v>118</v>
+      </c>
+      <c r="B110" s="44" t="s">
+        <v>191</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>145</v>
+        <v>238</v>
       </c>
       <c r="D110" s="33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="44" t="s">
-        <v>70</v>
+        <v>119</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="D111" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B112" s="44" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="D112" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B113" s="44" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>167</v>
+        <v>217</v>
       </c>
       <c r="D113" s="33">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="44" t="s">
-        <v>115</v>
+        <v>119</v>
+      </c>
+      <c r="B114" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>226</v>
+        <v>147</v>
       </c>
       <c r="D114" s="33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D115" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="44" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>158</v>
+        <v>225</v>
       </c>
       <c r="D116" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B117" s="44" t="s">
-        <v>142</v>
+        <v>240</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D117" s="33">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="44" t="s">
-        <v>121</v>
+        <v>69</v>
       </c>
       <c r="B118" s="44" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>156</v>
+        <v>232</v>
       </c>
       <c r="D118" s="33">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D119" s="33">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
+      </c>
+      <c r="B120" s="44" t="s">
+        <v>157</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>235</v>
+        <v>164</v>
       </c>
       <c r="D120" s="33">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="44" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+      <c r="D121" s="33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B122" s="44" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="C122" s="48" t="s">
-        <v>246</v>
+        <v>152</v>
       </c>
       <c r="D122" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C123" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D123" s="33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C125" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D125" s="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B127" s="44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>251</v>
+      </c>
+      <c r="D127" s="33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D121">
-    <sortCondition ref="D3:D121"/>
-    <sortCondition ref="A3:A121"/>
-    <sortCondition ref="B3:B121"/>
+  <sortState ref="A4:D126">
+    <sortCondition ref="D3:D126"/>
+    <sortCondition ref="B3:B126"/>
+    <sortCondition ref="A3:A126"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>
@@ -4183,73 +4298,73 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="26" t="s">
         <v>75</v>
-      </c>
-      <c r="D1" s="26" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D2" s="32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D3" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D5" s="32" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4273,114 +4388,114 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="37" t="s">
         <v>97</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="38" t="s">
         <v>99</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="38" t="s">
         <v>109</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4403,32 +4518,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D7EA4B9-67E0-44DE-96B8-3927C8BEF144}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -789,7 +790,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1209,7 +1210,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1492,32 +1493,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="23" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="36.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" style="22" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="23" customWidth="1"/>
+    <col min="6" max="6" width="3.6640625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="36.44140625" style="29" customWidth="1"/>
     <col min="8" max="8" width="6" style="8" customWidth="1"/>
-    <col min="9" max="9" width="3.7109375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="0.28515625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="8" customWidth="1"/>
-    <col min="12" max="16384" width="8.85546875" style="8"/>
+    <col min="9" max="9" width="3.6640625" style="8" customWidth="1"/>
+    <col min="10" max="10" width="0.33203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="17.44140625" style="8" customWidth="1"/>
+    <col min="12" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>108.4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
@@ -1606,7 +1607,7 @@
         <v>70.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1636,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>21</v>
       </c>
@@ -1657,7 +1658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="11">
         <f t="shared" si="1"/>
@@ -1705,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="15"/>
       <c r="B8" s="11">
         <f t="shared" si="1"/>
@@ -1729,7 +1730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>21</v>
       </c>
@@ -1753,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -1778,7 +1779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="15"/>
       <c r="B13" s="11">
         <f t="shared" si="1"/>
@@ -1849,7 +1850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="15"/>
       <c r="B14" s="11">
         <f t="shared" si="1"/>
@@ -1873,7 +1874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="15"/>
       <c r="B15" s="11">
         <f t="shared" si="1"/>
@@ -1891,7 +1892,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="15"/>
       <c r="B16" s="11">
         <f t="shared" si="1"/>
@@ -1909,7 +1910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1937,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>21</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="11">
         <f t="shared" si="1"/>
@@ -1999,7 +2000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>21</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>21</v>
       </c>
@@ -2043,7 +2044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="15"/>
       <c r="B23" s="11">
         <f t="shared" si="1"/>
@@ -2061,7 +2062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="11">
         <f t="shared" si="1"/>
@@ -2077,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="15"/>
       <c r="B25" s="11">
         <f t="shared" si="1"/>
@@ -2093,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="15"/>
       <c r="B26" s="11">
         <f t="shared" si="1"/>
@@ -2115,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="15"/>
       <c r="B27" s="11">
         <f t="shared" si="1"/>
@@ -2137,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="15"/>
       <c r="B28" s="11">
         <f t="shared" si="1"/>
@@ -2159,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="15"/>
       <c r="B29" s="11">
         <f t="shared" si="1"/>
@@ -2178,7 +2179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="15"/>
       <c r="B30" s="11">
         <f t="shared" si="1"/>
@@ -2197,7 +2198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="15"/>
       <c r="B31" s="11">
         <f t="shared" si="1"/>
@@ -2217,7 +2218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A32" s="15"/>
       <c r="B32" s="11">
         <f t="shared" si="1"/>
@@ -2234,7 +2235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="15"/>
       <c r="B33" s="11">
         <f t="shared" si="1"/>
@@ -2248,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="15"/>
       <c r="B34" s="11">
         <f t="shared" si="1"/>
@@ -2262,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="15"/>
       <c r="B35" s="11">
         <f t="shared" si="1"/>
@@ -2276,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="15"/>
       <c r="B36" s="11">
         <f t="shared" si="1"/>
@@ -2290,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="15"/>
       <c r="B37" s="11">
         <f t="shared" si="1"/>
@@ -2306,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="15"/>
       <c r="B38" s="11">
         <f t="shared" si="1"/>
@@ -2320,7 +2321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="15"/>
       <c r="B39" s="11">
         <f t="shared" si="1"/>
@@ -2334,7 +2335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="15"/>
       <c r="B40" s="11">
         <f t="shared" si="1"/>
@@ -2348,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="15"/>
       <c r="B41" s="11">
         <f t="shared" si="1"/>
@@ -2362,7 +2363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="15"/>
       <c r="B42" s="11">
         <f t="shared" si="1"/>
@@ -2375,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="15"/>
       <c r="B43" s="11">
         <f t="shared" si="1"/>
@@ -2389,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="15"/>
       <c r="B44" s="11">
         <f t="shared" si="1"/>
@@ -2403,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="15"/>
       <c r="B45" s="11">
         <f t="shared" si="1"/>
@@ -2417,7 +2418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="15"/>
       <c r="B46" s="11">
         <f t="shared" si="1"/>
@@ -2431,7 +2432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="15"/>
       <c r="B47" s="11">
         <f t="shared" si="1"/>
@@ -2445,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="15"/>
       <c r="B48" s="11">
         <f t="shared" si="1"/>
@@ -2459,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="15"/>
       <c r="B49" s="11">
         <f t="shared" si="1"/>
@@ -2473,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="15"/>
       <c r="B50" s="11">
         <f t="shared" si="1"/>
@@ -2487,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="15"/>
       <c r="B51" s="11">
         <f t="shared" si="1"/>
@@ -2501,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="11">
         <f t="shared" si="1"/>
@@ -2522,32 +2523,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M127"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="44" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="44" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="2.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" style="44" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" style="33" customWidth="1"/>
+    <col min="5" max="5" width="2.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="1.42578125" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" style="34" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="34" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="34" customWidth="1"/>
-    <col min="13" max="13" width="26.5703125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="1.44140625" customWidth="1"/>
+    <col min="10" max="10" width="24.109375" style="34" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" style="34" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="34" customWidth="1"/>
+    <col min="13" max="13" width="26.5546875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="51" t="s">
         <v>117</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="51"/>
       <c r="B2" s="50"/>
       <c r="C2" s="50"/>
@@ -2601,7 +2602,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>118</v>
       </c>
@@ -2620,7 +2621,7 @@
       <c r="J3" s="39"/>
       <c r="K3" s="39"/>
     </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>119</v>
       </c>
@@ -2634,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
         <v>119</v>
       </c>
@@ -2648,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
         <v>119</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
         <v>119</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="43"/>
       <c r="B8" s="43" t="s">
         <v>148</v>
@@ -2688,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="43"/>
       <c r="B9" s="43" t="s">
         <v>148</v>
@@ -2700,7 +2701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="43" t="s">
         <v>148</v>
@@ -2712,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="43" t="s">
         <v>148</v>
@@ -2724,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="43" t="s">
         <v>148</v>
@@ -2736,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="43"/>
       <c r="B13" s="43" t="s">
         <v>148</v>
@@ -2748,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="43"/>
       <c r="B14" s="43" t="s">
         <v>140</v>
@@ -2760,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="43" t="s">
         <v>119</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="43" t="s">
         <v>182</v>
@@ -2786,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="43" t="s">
         <v>119</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>119</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="43" t="s">
         <v>208</v>
@@ -2826,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
         <v>118</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="43" t="s">
         <v>118</v>
       </c>
@@ -2854,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="43" t="s">
         <v>118</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="43" t="s">
         <v>119</v>
       </c>
@@ -2882,7 +2883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="43" t="s">
         <v>177</v>
@@ -2894,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="43" t="s">
         <v>118</v>
       </c>
@@ -2908,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="43" t="s">
         <v>119</v>
       </c>
@@ -2922,7 +2923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
         <v>119</v>
       </c>
@@ -2936,7 +2937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="43" t="s">
         <v>119</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="43" t="s">
         <v>119</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
         <v>173</v>
@@ -2976,7 +2977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="43" t="s">
         <v>173</v>
@@ -2988,7 +2989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="43" t="s">
         <v>180</v>
@@ -3000,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="43" t="s">
         <v>119</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="43" t="s">
         <v>118</v>
       </c>
@@ -3028,7 +3029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="43" t="s">
         <v>118</v>
       </c>
@@ -3042,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>118</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="43" t="s">
         <v>118</v>
       </c>
@@ -3070,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
         <v>119</v>
       </c>
@@ -3084,7 +3085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>119</v>
       </c>
@@ -3098,7 +3099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="43" t="s">
         <v>119</v>
       </c>
@@ -3112,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="43" t="s">
         <v>119</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>119</v>
       </c>
@@ -3140,7 +3141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
         <v>119</v>
       </c>
@@ -3154,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
         <v>119</v>
       </c>
@@ -3168,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
         <v>119</v>
       </c>
@@ -3182,7 +3183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="43" t="s">
         <v>119</v>
       </c>
@@ -3196,7 +3197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="43" t="s">
         <v>119</v>
       </c>
@@ -3210,7 +3211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="43" t="s">
         <v>169</v>
@@ -3222,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="43" t="s">
         <v>119</v>
       </c>
@@ -3236,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
         <v>114</v>
       </c>
@@ -3250,7 +3251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="43" t="s">
         <v>127</v>
@@ -3262,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="43" t="s">
         <v>127</v>
@@ -3274,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="43" t="s">
         <v>127</v>
@@ -3286,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="43" t="s">
         <v>127</v>
@@ -3298,7 +3299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="43" t="s">
         <v>127</v>
@@ -3310,7 +3311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="43" t="s">
         <v>127</v>
@@ -3322,7 +3323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="43" t="s">
         <v>127</v>
@@ -3334,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="43" t="s">
         <v>127</v>
@@ -3346,7 +3347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="43" t="s">
         <v>127</v>
@@ -3358,7 +3359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
         <v>118</v>
       </c>
@@ -3372,7 +3373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
         <v>118</v>
       </c>
@@ -3384,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
         <v>118</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43" t="s">
         <v>118</v>
       </c>
@@ -3408,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
         <v>118</v>
       </c>
@@ -3420,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
         <v>69</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="43" t="s">
         <v>69</v>
       </c>
@@ -3444,7 +3445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="43" t="s">
         <v>69</v>
       </c>
@@ -3456,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="43" t="s">
         <v>69</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="43" t="s">
         <v>69</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="43" t="s">
         <v>69</v>
       </c>
@@ -3492,7 +3493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="43" t="s">
         <v>69</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="43" t="s">
         <v>69</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="43" t="s">
         <v>69</v>
       </c>
@@ -3528,7 +3529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="43" t="s">
         <v>69</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
         <v>69</v>
       </c>
@@ -3552,7 +3553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="47" t="s">
@@ -3562,7 +3563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="44" t="s">
         <v>119</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="44" t="s">
         <v>69</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="44" t="s">
         <v>119</v>
       </c>
@@ -3604,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="44" t="s">
         <v>119</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="44" t="s">
         <v>119</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="44" t="s">
         <v>119</v>
       </c>
@@ -3646,7 +3647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="44" t="s">
         <v>119</v>
       </c>
@@ -3660,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="44" t="s">
         <v>119</v>
       </c>
@@ -3674,7 +3675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="44" t="s">
         <v>119</v>
       </c>
@@ -3688,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="44" t="s">
         <v>118</v>
       </c>
@@ -3702,7 +3703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="44" t="s">
         <v>119</v>
       </c>
@@ -3716,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="44" t="s">
         <v>118</v>
       </c>
@@ -3730,7 +3731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="44" t="s">
         <v>118</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="44" t="s">
         <v>119</v>
       </c>
@@ -3758,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="44" t="s">
         <v>69</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="44" t="s">
         <v>69</v>
       </c>
@@ -3786,7 +3787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A93" s="44" t="s">
         <v>69</v>
       </c>
@@ -3800,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="44" t="s">
         <v>69</v>
       </c>
@@ -3814,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="44" t="s">
         <v>119</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A96" s="44" t="s">
         <v>119</v>
       </c>
@@ -3842,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="44" t="s">
         <v>119</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="44" t="s">
         <v>119</v>
       </c>
@@ -3870,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
         <v>119</v>
       </c>
@@ -3884,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
         <v>119</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
         <v>69</v>
       </c>
@@ -3912,7 +3913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="44" t="s">
         <v>69</v>
       </c>
@@ -3926,7 +3927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
         <v>69</v>
       </c>
@@ -3940,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
         <v>118</v>
       </c>
@@ -3954,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
         <v>119</v>
       </c>
@@ -3968,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
         <v>119</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
         <v>119</v>
       </c>
@@ -3996,7 +3997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
         <v>119</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="44" t="s">
         <v>119</v>
       </c>
@@ -4024,7 +4025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="44" t="s">
         <v>118</v>
       </c>
@@ -4038,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="44" t="s">
         <v>119</v>
       </c>
@@ -4049,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="44" t="s">
         <v>119</v>
       </c>
@@ -4060,7 +4061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="44" t="s">
         <v>119</v>
       </c>
@@ -4071,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="44" t="s">
         <v>119</v>
       </c>
@@ -4085,7 +4086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="44" t="s">
         <v>119</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
         <v>118</v>
       </c>
@@ -4113,7 +4114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="44" t="s">
         <v>69</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="44" t="s">
         <v>69</v>
       </c>
@@ -4141,7 +4142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="44" t="s">
         <v>119</v>
       </c>
@@ -4155,7 +4156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="44" t="s">
         <v>119</v>
       </c>
@@ -4169,7 +4170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="44" t="s">
         <v>114</v>
       </c>
@@ -4180,7 +4181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="44" t="s">
         <v>119</v>
       </c>
@@ -4194,7 +4195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
         <v>119</v>
       </c>
@@ -4208,7 +4209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="44" t="s">
         <v>119</v>
       </c>
@@ -4219,7 +4220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="44" t="s">
         <v>119</v>
       </c>
@@ -4230,7 +4231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" s="44" t="s">
         <v>119</v>
       </c>
@@ -4238,7 +4239,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="44" t="s">
         <v>118</v>
       </c>
@@ -4269,7 +4270,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Help!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -4282,21 +4283,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="32" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="32" customWidth="1"/>
-    <col min="3" max="4" width="63.140625" style="32" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" style="32" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="32" customWidth="1"/>
+    <col min="3" max="4" width="63.109375" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>72</v>
       </c>
@@ -4310,17 +4311,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D2" s="32" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D3" s="32" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" s="32" t="s">
         <v>70</v>
       </c>
@@ -4328,12 +4329,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
         <v>82</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>84</v>
       </c>
@@ -4349,7 +4350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="32" t="s">
         <v>85</v>
       </c>
@@ -4357,12 +4358,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>88</v>
       </c>
@@ -4373,20 +4374,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="32" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" style="38" customWidth="1"/>
+    <col min="1" max="1" width="24.109375" style="32" customWidth="1"/>
+    <col min="2" max="2" width="78.6640625" style="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>96</v>
       </c>
@@ -4394,7 +4395,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>98</v>
       </c>
@@ -4402,7 +4403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>98</v>
       </c>
@@ -4410,7 +4411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>101</v>
       </c>
@@ -4418,7 +4419,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>101</v>
       </c>
@@ -4426,7 +4427,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>104</v>
       </c>
@@ -4434,7 +4435,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>104</v>
       </c>
@@ -4442,7 +4443,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>107</v>
       </c>
@@ -4450,7 +4451,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>108</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>99</v>
       </c>
@@ -4466,7 +4467,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>99</v>
       </c>
@@ -4474,7 +4475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>108</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>99</v>
       </c>
@@ -4490,7 +4491,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="41" t="s">
         <v>114</v>
       </c>
@@ -4504,44 +4505,44 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="42" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>114</v>
       </c>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8D7EA4B9-67E0-44DE-96B8-3927C8BEF144}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62706DC1-578B-473B-8371-D64023D6E6C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="258">
   <si>
     <t>№</t>
   </si>
@@ -688,9 +688,6 @@
     <t>Style refactoring</t>
   </si>
   <si>
-    <t>Make base class for track changes (like in DataFilter, PeriodFilter)</t>
-  </si>
-  <si>
     <t>Add tasks</t>
   </si>
   <si>
@@ -700,9 +697,6 @@
     <t>Insert calculator everywhere for enter amount</t>
   </si>
   <si>
-    <t>Action type is not refreshed after change</t>
-  </si>
-  <si>
     <t>Add defaults provider for new entities</t>
   </si>
   <si>
@@ -766,9 +760,6 @@
     <t>Build report with partitioning data by period</t>
   </si>
   <si>
-    <t>Build report for comparing incomes and expences</t>
-  </si>
-  <si>
     <t>Show events planned for today</t>
   </si>
   <si>
@@ -785,6 +776,33 @@
   </si>
   <si>
     <t>Translate all colors into russian</t>
+  </si>
+  <si>
+    <t>Show filter should not rebuild report</t>
+  </si>
+  <si>
+    <t>If "take current currency exchange rate" current exchange rate should be shown in details</t>
+  </si>
+  <si>
+    <t>Event details (record)</t>
+  </si>
+  <si>
+    <t>Event details (money transfer)</t>
+  </si>
+  <si>
+    <t>Category is not saved</t>
+  </si>
+  <si>
+    <t>Period selector</t>
+  </si>
+  <si>
+    <t>Custom period -&gt; cannot select more then one month</t>
+  </si>
+  <si>
+    <t>Create transaction from planned money transfer -&gt; if storage is hidden there is not selected storage in combobox</t>
+  </si>
+  <si>
+    <t>Event state is not refreshed after change</t>
   </si>
 </sst>
 </file>
@@ -2524,17 +2542,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M127"/>
+  <dimension ref="A1:M130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B123" sqref="B123"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.5546875" style="44" customWidth="1"/>
-    <col min="2" max="2" width="23.88671875" style="44" customWidth="1"/>
+    <col min="2" max="2" width="26.21875" style="44" customWidth="1"/>
     <col min="3" max="3" width="48.6640625" style="48" customWidth="1"/>
     <col min="4" max="4" width="10.5546875" style="33" customWidth="1"/>
     <col min="5" max="5" width="2.33203125" customWidth="1"/>
@@ -2584,22 +2602,22 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43234</v>
+        <v>43254</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="J2" s="25">
-        <f>SUM(D3:D160)</f>
-        <v>88</v>
+        <f>SUM(D3:D157)</f>
+        <v>78</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-40</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2671,7 +2689,7 @@
         <v>148</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" s="36">
         <v>0</v>
@@ -3062,10 +3080,10 @@
         <v>118</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3571,7 +3589,7 @@
         <v>148</v>
       </c>
       <c r="C77" s="48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D77" s="33">
         <v>1</v>
@@ -3596,10 +3614,10 @@
         <v>119</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C79" s="48" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D79" s="33">
         <v>1</v>
@@ -3686,7 +3704,7 @@
         <v>213</v>
       </c>
       <c r="D85" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3694,69 +3712,69 @@
         <v>118</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C86" s="48" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D86" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="44" t="s">
+      <c r="A87" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B88" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C88" s="47" t="s">
+        <v>257</v>
+      </c>
+      <c r="D88" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B89" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C89" s="47" t="s">
         <v>235</v>
       </c>
-      <c r="C87" s="48" t="s">
-        <v>236</v>
-      </c>
-      <c r="D87" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A88" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="44" t="s">
+      <c r="D89" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B90" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="C88" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="D88" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A89" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C89" s="48" t="s">
-        <v>237</v>
-      </c>
-      <c r="D89" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A90" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="C90" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="D90" s="33">
-        <v>1</v>
+      <c r="C90" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="D90" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3787,99 +3805,99 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="44" t="s">
         <v>69</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>219</v>
+        <v>73</v>
       </c>
       <c r="D93" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B94" s="44" t="s">
+      <c r="A94" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C94" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="D94" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="47" t="s">
+        <v>239</v>
+      </c>
+      <c r="D95" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C96" s="47" t="s">
         <v>240</v>
       </c>
-      <c r="C94" s="48" t="s">
-        <v>73</v>
-      </c>
-      <c r="D94" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A95" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="44" t="s">
+      <c r="D96" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C95" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A96" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="44" t="s">
+      <c r="C97" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="D97" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C96" s="48" t="s">
-        <v>241</v>
-      </c>
-      <c r="D96" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="48" t="s">
+      <c r="C98" s="47" t="s">
         <v>242</v>
       </c>
-      <c r="D97" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>243</v>
-      </c>
-      <c r="D98" s="33">
-        <v>1</v>
+      <c r="D98" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>244</v>
+        <v>193</v>
       </c>
       <c r="D99" s="33">
         <v>1</v>
@@ -3887,55 +3905,55 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>153</v>
+        <v>237</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="D100" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
         <v>69</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="D101" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="C102" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="D102" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C102" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="D102" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>233</v>
+        <v>170</v>
       </c>
       <c r="D103" s="33">
         <v>1</v>
@@ -3943,13 +3961,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>234</v>
+        <v>171</v>
       </c>
       <c r="D104" s="33">
         <v>1</v>
@@ -3963,7 +3981,7 @@
         <v>169</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="D105" s="33">
         <v>1</v>
@@ -3974,10 +3992,10 @@
         <v>119</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="D106" s="33">
         <v>1</v>
@@ -3988,10 +4006,10 @@
         <v>119</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>196</v>
+        <v>243</v>
       </c>
       <c r="D107" s="33">
         <v>1</v>
@@ -3999,13 +4017,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="D108" s="33">
         <v>1</v>
@@ -4015,11 +4033,8 @@
       <c r="A109" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B109" s="44" t="s">
-        <v>127</v>
-      </c>
       <c r="C109" s="48" t="s">
-        <v>246</v>
+        <v>79</v>
       </c>
       <c r="D109" s="33">
         <v>1</v>
@@ -4027,13 +4042,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B110" s="44" t="s">
-        <v>191</v>
+        <v>119</v>
       </c>
       <c r="C110" s="48" t="s">
-        <v>238</v>
+        <v>190</v>
       </c>
       <c r="D110" s="33">
         <v>1</v>
@@ -4044,7 +4056,7 @@
         <v>119</v>
       </c>
       <c r="C111" s="48" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="D111" s="33">
         <v>1</v>
@@ -4054,33 +4066,39 @@
       <c r="A112" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B112" s="44" t="s">
+        <v>157</v>
+      </c>
       <c r="C112" s="48" t="s">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="D112" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B113" s="44" t="s">
+        <v>157</v>
+      </c>
       <c r="C113" s="48" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="D113" s="33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B114" s="44" t="s">
-        <v>157</v>
+        <v>123</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="D114" s="33">
         <v>2</v>
@@ -4088,13 +4106,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B115" s="44" t="s">
-        <v>157</v>
+        <v>238</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="D115" s="33">
         <v>2</v>
@@ -4102,13 +4120,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="B116" s="44" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D116" s="33">
         <v>2</v>
@@ -4116,41 +4134,38 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" s="44" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B117" s="44" t="s">
-        <v>240</v>
+        <v>157</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="D117" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" s="44" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B118" s="44" t="s">
-        <v>239</v>
+        <v>157</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>232</v>
+        <v>164</v>
       </c>
       <c r="D118" s="33">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B119" s="44" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>158</v>
+        <v>219</v>
       </c>
       <c r="D119" s="33">
         <v>3</v>
@@ -4161,52 +4176,49 @@
         <v>119</v>
       </c>
       <c r="B120" s="44" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D120" s="33">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="44" t="s">
-        <v>114</v>
+        <v>119</v>
+      </c>
+      <c r="B121" s="44" t="s">
+        <v>140</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>220</v>
+        <v>139</v>
       </c>
       <c r="D121" s="33">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B122" s="44" t="s">
-        <v>148</v>
-      </c>
       <c r="C122" s="48" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="D122" s="33">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="B123" s="44" t="s">
-        <v>140</v>
-      </c>
       <c r="C123" s="48" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="D123" s="33">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4214,50 +4226,88 @@
         <v>119</v>
       </c>
       <c r="C124" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="33">
-        <v>10</v>
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
+      </c>
+      <c r="B125" s="44" t="s">
+        <v>166</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="D125" s="33">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C126" s="48" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B127" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C127" s="48" t="s">
+      <c r="A126" s="43"/>
+      <c r="B126" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="C126" s="47" t="s">
+        <v>249</v>
+      </c>
+      <c r="D126" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A127" s="43"/>
+      <c r="B127" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D127" s="33">
-        <v>1</v>
+      <c r="C127" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="D127" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="43"/>
+      <c r="B128" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="C128" s="47" t="s">
+        <v>253</v>
+      </c>
+      <c r="D128" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="43"/>
+      <c r="B129" s="43" t="s">
+        <v>254</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>255</v>
+      </c>
+      <c r="D129" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A130" s="43"/>
+      <c r="B130" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C130" s="47" t="s">
+        <v>256</v>
+      </c>
+      <c r="D130" s="36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D126">
-    <sortCondition ref="D3:D126"/>
-    <sortCondition ref="B3:B126"/>
-    <sortCondition ref="A3:A126"/>
+  <sortState ref="A4:D124">
+    <sortCondition ref="D3:D124"/>
+    <sortCondition ref="B3:B124"/>
+    <sortCondition ref="A3:A124"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{62706DC1-578B-473B-8371-D64023D6E6C1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF2BB26E-6B12-48D7-8470-F5A476D2E8B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2546,7 +2546,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2613,11 +2613,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-50</v>
+        <v>-51</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2970,14 +2970,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="43" t="s">
-        <v>119</v>
-      </c>
+      <c r="A29" s="43"/>
       <c r="B29" s="43" t="s">
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="C29" s="47" t="s">
-        <v>206</v>
+        <v>253</v>
       </c>
       <c r="D29" s="36">
         <v>0</v>
@@ -2986,22 +2984,24 @@
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
-        <v>173</v>
+        <v>251</v>
       </c>
       <c r="C30" s="47" t="s">
-        <v>172</v>
+        <v>250</v>
       </c>
       <c r="D30" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
+      <c r="A31" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B31" s="43" t="s">
         <v>173</v>
       </c>
       <c r="C31" s="47" t="s">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="D31" s="36">
         <v>0</v>
@@ -3010,52 +3010,46 @@
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>172</v>
+      </c>
+      <c r="D32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="47" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C34" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D32" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="D33" s="36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C34" s="47" t="s">
-        <v>184</v>
-      </c>
       <c r="D34" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
-        <v>118</v>
-      </c>
+      <c r="A35" s="43"/>
       <c r="B35" s="43" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="C35" s="47" t="s">
-        <v>185</v>
+        <v>255</v>
       </c>
       <c r="D35" s="36">
         <v>0</v>
@@ -3063,27 +3057,25 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>128</v>
+        <v>233</v>
       </c>
       <c r="C36" s="47" t="s">
-        <v>188</v>
+        <v>234</v>
       </c>
       <c r="D36" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="43" t="s">
-        <v>118</v>
-      </c>
+      <c r="A37" s="43"/>
       <c r="B37" s="43" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="C37" s="47" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="D37" s="36">
         <v>0</v>
@@ -3091,13 +3083,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C38" s="47" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="D38" s="36">
         <v>0</v>
@@ -3105,13 +3097,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C39" s="47" t="s">
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="D39" s="36">
         <v>0</v>
@@ -3122,10 +3114,10 @@
         <v>119</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C40" s="47" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="D40" s="36">
         <v>0</v>
@@ -3136,10 +3128,10 @@
         <v>119</v>
       </c>
       <c r="B41" s="43" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="C41" s="47" t="s">
-        <v>147</v>
+        <v>224</v>
       </c>
       <c r="D41" s="36">
         <v>0</v>
@@ -3147,13 +3139,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B42" s="43" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C42" s="47" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="D42" s="36">
         <v>0</v>
@@ -3161,13 +3153,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C43" s="47" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D43" s="36">
         <v>0</v>
@@ -3175,13 +3167,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" s="43" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="C44" s="47" t="s">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="D44" s="36">
         <v>0</v>
@@ -3189,13 +3181,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="43" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" s="43" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="C45" s="47" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="D45" s="36">
         <v>0</v>
@@ -3206,10 +3198,10 @@
         <v>119</v>
       </c>
       <c r="B46" s="43" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C46" s="47" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="D46" s="36">
         <v>0</v>
@@ -3220,22 +3212,24 @@
         <v>119</v>
       </c>
       <c r="B47" s="43" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C47" s="47" t="s">
-        <v>195</v>
+        <v>131</v>
       </c>
       <c r="D47" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48" s="43"/>
+      <c r="A48" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B48" s="43" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C48" s="47" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="D48" s="36">
         <v>0</v>
@@ -3246,10 +3240,10 @@
         <v>119</v>
       </c>
       <c r="B49" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C49" s="47" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="D49" s="36">
         <v>0</v>
@@ -3257,97 +3251,111 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B50" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C50" s="47" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="D50" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" s="43"/>
+      <c r="A51" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B51" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C51" s="47" t="s">
-        <v>126</v>
+        <v>155</v>
       </c>
       <c r="D51" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" s="43"/>
+      <c r="A52" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B52" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C52" s="47" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D52" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" s="43"/>
+      <c r="A53" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B53" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C53" s="47" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D53" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" s="43"/>
+      <c r="A54" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B54" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C54" s="47" t="s">
-        <v>130</v>
+        <v>239</v>
       </c>
       <c r="D54" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" s="43"/>
+      <c r="A55" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B55" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C55" s="47" t="s">
-        <v>131</v>
+        <v>240</v>
       </c>
       <c r="D55" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" s="43"/>
+      <c r="A56" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B56" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C56" s="47" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="D56" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" s="43"/>
+      <c r="A57" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B57" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C57" s="47" t="s">
-        <v>133</v>
+        <v>242</v>
       </c>
       <c r="D57" s="36">
         <v>0</v>
@@ -3356,22 +3364,24 @@
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="43" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="C58" s="47" t="s">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="D58" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" s="43"/>
+      <c r="A59" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="B59" s="43" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C59" s="47" t="s">
-        <v>135</v>
+        <v>232</v>
       </c>
       <c r="D59" s="36">
         <v>0</v>
@@ -3379,13 +3389,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B60" s="43" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="C60" s="47" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D60" s="36">
         <v>0</v>
@@ -3393,11 +3403,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B61" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B61" s="43" t="s">
+        <v>166</v>
+      </c>
       <c r="C61" s="47" t="s">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D61" s="36">
         <v>0</v>
@@ -3405,23 +3417,25 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>169</v>
+      </c>
       <c r="C62" s="47" t="s">
-        <v>94</v>
+        <v>195</v>
       </c>
       <c r="D62" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="43"/>
+      <c r="A63" s="43"/>
+      <c r="B63" s="43" t="s">
+        <v>169</v>
+      </c>
       <c r="C63" s="47" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="D63" s="36">
         <v>0</v>
@@ -3429,11 +3443,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B64" s="43"/>
+        <v>119</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C64" s="47" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="D64" s="36">
         <v>0</v>
@@ -3441,119 +3457,121 @@
     </row>
     <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="43"/>
+        <v>114</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C65" s="47" t="s">
-        <v>121</v>
+        <v>198</v>
       </c>
       <c r="D65" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="43"/>
+      <c r="A66" s="43"/>
+      <c r="B66" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C66" s="47" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D66" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="43"/>
+      <c r="A67" s="43"/>
+      <c r="B67" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C67" s="47" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="D67" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="43"/>
+      <c r="A68" s="43"/>
+      <c r="B68" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C68" s="47" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="D68" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B69" s="43"/>
+      <c r="A69" s="43"/>
+      <c r="B69" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C69" s="47" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D69" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70" s="43"/>
+      <c r="A70" s="43"/>
+      <c r="B70" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C70" s="47" t="s">
-        <v>86</v>
+        <v>131</v>
       </c>
       <c r="D70" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B71" s="43"/>
+      <c r="A71" s="43"/>
+      <c r="B71" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C71" s="47" t="s">
-        <v>87</v>
+        <v>132</v>
       </c>
       <c r="D71" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A72" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" s="43"/>
+      <c r="A72" s="43"/>
+      <c r="B72" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C72" s="47" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D72" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="43"/>
+      <c r="A73" s="43"/>
+      <c r="B73" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C73" s="47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D73" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B74" s="43"/>
+      <c r="A74" s="43"/>
+      <c r="B74" s="43" t="s">
+        <v>127</v>
+      </c>
       <c r="C74" s="47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D74" s="36">
         <v>0</v>
@@ -3561,175 +3579,157 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B75" s="43"/>
+        <v>118</v>
+      </c>
+      <c r="B75" s="43" t="s">
+        <v>191</v>
+      </c>
       <c r="C75" s="47" t="s">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="D75" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A76" s="43"/>
+      <c r="A76" s="43" t="s">
+        <v>118</v>
+      </c>
       <c r="B76" s="43"/>
       <c r="C76" s="47" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="D76" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>148</v>
-      </c>
-      <c r="C77" s="48" t="s">
-        <v>246</v>
-      </c>
-      <c r="D77" s="33">
-        <v>1</v>
+      <c r="A77" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77" s="43"/>
+      <c r="C77" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D77" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" s="44" t="s">
+      <c r="A78" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="43"/>
+      <c r="C78" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="D79" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="44" t="s">
-        <v>199</v>
-      </c>
-      <c r="C78" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="D78" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>226</v>
-      </c>
-      <c r="C79" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C80" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="D80" s="33">
-        <v>1</v>
+      <c r="B80" s="43"/>
+      <c r="C80" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B81" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C81" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="33">
-        <v>1</v>
+      <c r="A81" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="43"/>
+      <c r="C81" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D81" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A82" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C82" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="D82" s="33">
-        <v>1</v>
+      <c r="A82" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" s="43"/>
+      <c r="C82" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="D82" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A83" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="C83" s="48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="33">
-        <v>1</v>
+      <c r="A83" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B83" s="43"/>
+      <c r="C83" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D83" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A84" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="C84" s="48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D84" s="33">
-        <v>1</v>
+      <c r="A84" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="43"/>
+      <c r="C84" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D84" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A85" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>107</v>
-      </c>
-      <c r="C85" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D85" s="33">
-        <v>3</v>
+      <c r="A85" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B85" s="43"/>
+      <c r="C85" s="47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A86" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B86" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="C86" s="48" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" s="33">
-        <v>1</v>
+      <c r="A86" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B86" s="43"/>
+      <c r="C86" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D86" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" s="43" t="s">
-        <v>233</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B87" s="43"/>
       <c r="C87" s="47" t="s">
-        <v>234</v>
+        <v>146</v>
       </c>
       <c r="D87" s="36">
         <v>0</v>
@@ -3737,13 +3737,11 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="43" t="s">
-        <v>124</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B88" s="43"/>
       <c r="C88" s="47" t="s">
-        <v>257</v>
+        <v>136</v>
       </c>
       <c r="D88" s="36">
         <v>0</v>
@@ -3751,13 +3749,11 @@
     </row>
     <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="43" t="s">
-        <v>124</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B89" s="43"/>
       <c r="C89" s="47" t="s">
-        <v>235</v>
+        <v>137</v>
       </c>
       <c r="D89" s="36">
         <v>0</v>
@@ -3765,41 +3761,35 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="43" t="s">
-        <v>124</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B90" s="43"/>
       <c r="C90" s="47" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D90" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A91" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B91" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="C91" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="D91" s="33">
-        <v>1</v>
+      <c r="A91" s="43"/>
+      <c r="B91" s="43"/>
+      <c r="C91" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D91" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="44" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="C92" s="48" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="D92" s="33">
         <v>1</v>
@@ -3810,94 +3800,94 @@
         <v>69</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>73</v>
+        <v>200</v>
       </c>
       <c r="D93" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A94" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B94" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C94" s="47" t="s">
-        <v>151</v>
-      </c>
-      <c r="D94" s="36">
-        <v>0</v>
+      <c r="A94" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="D94" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B95" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C95" s="47" t="s">
-        <v>239</v>
-      </c>
-      <c r="D95" s="36">
-        <v>0</v>
+      <c r="A95" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B95" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C96" s="47" t="s">
-        <v>240</v>
-      </c>
-      <c r="D96" s="36">
-        <v>0</v>
+      <c r="A96" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C97" s="47" t="s">
-        <v>241</v>
-      </c>
-      <c r="D97" s="36">
-        <v>0</v>
+      <c r="A97" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C97" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C98" s="47" t="s">
-        <v>242</v>
-      </c>
-      <c r="D98" s="36">
-        <v>0</v>
+      <c r="A98" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="D98" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="44" t="s">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="B99" s="44" t="s">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="C99" s="48" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="D99" s="33">
         <v>1</v>
@@ -3905,13 +3895,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="44" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="B100" s="44" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C100" s="48" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="D100" s="33">
         <v>1</v>
@@ -3922,38 +3912,38 @@
         <v>69</v>
       </c>
       <c r="B101" s="44" t="s">
-        <v>247</v>
+        <v>69</v>
       </c>
       <c r="C101" s="48" t="s">
-        <v>231</v>
+        <v>81</v>
       </c>
       <c r="D101" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A102" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="B102" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="C102" s="47" t="s">
-        <v>232</v>
-      </c>
-      <c r="D102" s="36">
-        <v>0</v>
+      <c r="A102" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="D102" s="33">
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B103" s="44" t="s">
-        <v>169</v>
+        <v>238</v>
       </c>
       <c r="C103" s="48" t="s">
-        <v>170</v>
+        <v>73</v>
       </c>
       <c r="D103" s="33">
         <v>1</v>
@@ -3961,13 +3951,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B104" s="44" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="C104" s="48" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D104" s="33">
         <v>1</v>
@@ -3975,13 +3965,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B105" s="44" t="s">
-        <v>169</v>
+        <v>237</v>
       </c>
       <c r="C105" s="48" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="D105" s="33">
         <v>1</v>
@@ -3989,13 +3979,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B106" s="44" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="C106" s="48" t="s">
-        <v>80</v>
+        <v>231</v>
       </c>
       <c r="D106" s="33">
         <v>1</v>
@@ -4003,13 +3993,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B107" s="44" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
       <c r="C107" s="48" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D107" s="33">
         <v>1</v>
@@ -4017,13 +4007,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="44" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B108" s="44" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C108" s="48" t="s">
-        <v>236</v>
+        <v>170</v>
       </c>
       <c r="D108" s="33">
         <v>1</v>
@@ -4033,8 +4023,11 @@
       <c r="A109" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B109" s="44" t="s">
+        <v>169</v>
+      </c>
       <c r="C109" s="48" t="s">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="D109" s="33">
         <v>1</v>
@@ -4044,8 +4037,11 @@
       <c r="A110" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B110" s="44" t="s">
+        <v>169</v>
+      </c>
       <c r="C110" s="48" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D110" s="33">
         <v>1</v>
@@ -4055,8 +4051,11 @@
       <c r="A111" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B111" s="44" t="s">
+        <v>127</v>
+      </c>
       <c r="C111" s="48" t="s">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="D111" s="33">
         <v>1</v>
@@ -4067,52 +4066,46 @@
         <v>119</v>
       </c>
       <c r="B112" s="44" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C112" s="48" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="D112" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B113" s="44" t="s">
-        <v>157</v>
+        <v>191</v>
       </c>
       <c r="C113" s="48" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="D113" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" s="44" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C114" s="48" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="D114" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B115" s="44" t="s">
-        <v>238</v>
+        <v>119</v>
       </c>
       <c r="C115" s="48" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D115" s="33">
         <v>2</v>
@@ -4120,16 +4113,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B116" s="44" t="s">
-        <v>237</v>
+        <v>119</v>
       </c>
       <c r="C116" s="48" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="D116" s="33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4140,10 +4130,10 @@
         <v>157</v>
       </c>
       <c r="C117" s="48" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="D117" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4154,160 +4144,170 @@
         <v>157</v>
       </c>
       <c r="C118" s="48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D118" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" s="44" t="s">
-        <v>114</v>
+        <v>118</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="C119" s="48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D119" s="33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B120" s="44" t="s">
-        <v>148</v>
+        <v>238</v>
       </c>
       <c r="C120" s="48" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D120" s="33">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" s="44" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="B121" s="44" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="C121" s="48" t="s">
-        <v>139</v>
+        <v>230</v>
       </c>
       <c r="D121" s="33">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B122" s="44" t="s">
+        <v>157</v>
+      </c>
       <c r="C122" s="48" t="s">
-        <v>15</v>
+        <v>158</v>
       </c>
       <c r="D122" s="33">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B123" s="44" t="s">
+        <v>157</v>
+      </c>
       <c r="C123" s="48" t="s">
-        <v>225</v>
+        <v>164</v>
       </c>
       <c r="D123" s="33">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" s="44" t="s">
         <v>119</v>
       </c>
+      <c r="B124" s="44" t="s">
+        <v>107</v>
+      </c>
       <c r="C124" s="48" t="s">
-        <v>221</v>
+        <v>213</v>
+      </c>
+      <c r="D124" s="33">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="B125" s="44" t="s">
-        <v>166</v>
+        <v>114</v>
       </c>
       <c r="C125" s="48" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="D125" s="33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A126" s="43"/>
-      <c r="B126" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="C126" s="47" t="s">
-        <v>249</v>
-      </c>
-      <c r="D126" s="36">
-        <v>0</v>
+      <c r="A126" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B126" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="D126" s="33">
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A127" s="43"/>
-      <c r="B127" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="D127" s="36">
-        <v>0</v>
+      <c r="A127" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C127" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="D127" s="33">
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A128" s="43"/>
-      <c r="B128" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="C128" s="47" t="s">
-        <v>253</v>
-      </c>
-      <c r="D128" s="36">
-        <v>0</v>
+      <c r="A128" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C128" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="33">
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A129" s="43"/>
-      <c r="B129" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="C129" s="47" t="s">
-        <v>255</v>
-      </c>
-      <c r="D129" s="36">
-        <v>0</v>
+      <c r="A129" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C129" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="D129" s="33">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A130" s="43"/>
-      <c r="B130" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C130" s="47" t="s">
-        <v>256</v>
-      </c>
-      <c r="D130" s="36">
-        <v>0</v>
+      <c r="A130" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="C130" s="48" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A4:D124">
-    <sortCondition ref="D3:D124"/>
-    <sortCondition ref="B3:B124"/>
-    <sortCondition ref="A3:A124"/>
+  <sortState ref="A4:D130">
+    <sortCondition ref="D3:D130"/>
+    <sortCondition ref="B3:B130"/>
+    <sortCondition ref="A3:A130"/>
   </sortState>
   <mergeCells count="4">
     <mergeCell ref="C1:C2"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AF2BB26E-6B12-48D7-8470-F5A476D2E8B8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plans" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="266">
   <si>
     <t>№</t>
   </si>
@@ -803,12 +802,36 @@
   </si>
   <si>
     <t>Event state is not refreshed after change</t>
+  </si>
+  <si>
+    <t>Cannot select empty category in category details</t>
+  </si>
+  <si>
+    <t>Category details</t>
+  </si>
+  <si>
+    <t>Show planned transactions</t>
+  </si>
+  <si>
+    <t>Dublicate -&gt; resultat amount without currency</t>
+  </si>
+  <si>
+    <t>Select new category</t>
+  </si>
+  <si>
+    <t>Filter templates (for reports)</t>
+  </si>
+  <si>
+    <t>Transactions list</t>
+  </si>
+  <si>
+    <t>Update date record to last month -&gt; exception</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1511,7 +1534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:L52"/>
   <sheetViews>
@@ -2541,12 +2564,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M130"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2602,22 +2625,22 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43254</v>
+        <v>43283</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>28</v>
+        <v>-1</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-51</v>
+        <v>-85</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -2981,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="43" t="s">
         <v>251</v>
@@ -3031,7 +3054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="43" t="s">
         <v>180</v>
@@ -3055,7 +3078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="43" t="s">
         <v>119</v>
       </c>
@@ -3069,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="43" t="s">
         <v>233</v>
@@ -3095,7 +3118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="43" t="s">
         <v>118</v>
       </c>
@@ -3137,7 +3160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="43" t="s">
         <v>118</v>
       </c>
@@ -3305,7 +3328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="43" t="s">
         <v>119</v>
       </c>
@@ -3455,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="43" t="s">
         <v>114</v>
       </c>
@@ -3541,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="43" t="s">
         <v>127</v>
@@ -3591,7 +3614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="43" t="s">
         <v>118</v>
       </c>
@@ -3639,7 +3662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="43" t="s">
         <v>69</v>
       </c>
@@ -3747,7 +3770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="43" t="s">
         <v>69</v>
       </c>
@@ -3771,7 +3794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="47" t="s">
@@ -3823,7 +3846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="44" t="s">
         <v>119</v>
       </c>
@@ -3852,17 +3875,17 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A97" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B97" s="44" t="s">
+      <c r="A97" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C97" s="48" t="s">
+      <c r="C97" s="47" t="s">
         <v>162</v>
       </c>
-      <c r="D97" s="33">
-        <v>1</v>
+      <c r="D97" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3907,7 +3930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="44" t="s">
         <v>69</v>
       </c>
@@ -3977,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="44" t="s">
         <v>69</v>
       </c>
@@ -4123,17 +4146,17 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A117" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B117" s="44" t="s">
+      <c r="A117" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C117" s="48" t="s">
+      <c r="C117" s="47" t="s">
         <v>147</v>
       </c>
-      <c r="D117" s="33">
-        <v>2</v>
+      <c r="D117" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4242,7 +4265,7 @@
         <v>219</v>
       </c>
       <c r="D125" s="33">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4259,7 +4282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" s="44" t="s">
         <v>119</v>
       </c>
@@ -4295,12 +4318,82 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" s="44" t="s">
         <v>119</v>
       </c>
       <c r="C130" s="48" t="s">
         <v>221</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B131" s="44" t="s">
+        <v>259</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>258</v>
+      </c>
+      <c r="D131" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="C132" s="48" t="s">
+        <v>260</v>
+      </c>
+      <c r="D132" s="33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B133" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="D133" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="48" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="48" t="s">
+        <v>265</v>
+      </c>
+      <c r="D135" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4320,7 +4413,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Help!$A$2:$A$6</xm:f>
           </x14:formula1>
@@ -4333,11 +4426,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4408,6 +4501,11 @@
         <v>95</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="32" t="s">
+        <v>263</v>
+      </c>
+    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="32" t="s">
         <v>87</v>
@@ -4424,7 +4522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4555,7 +4653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1539,7 +1539,7 @@
   <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2568,8 +2568,8 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2625,22 +2625,22 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43283</v>
+        <v>43645</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-1</v>
+        <v>-363</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-85</v>
+        <v>-445</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4160,17 +4160,17 @@
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A118" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="44" t="s">
+      <c r="A118" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C118" s="48" t="s">
+      <c r="C118" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="D118" s="33">
-        <v>2</v>
+      <c r="D118" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -2568,8 +2568,8 @@
   <dimension ref="A1:M135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D119"/>
+      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2625,22 +2625,22 @@
       <c r="D2" s="50"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43645</v>
+        <v>43646</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-363</v>
+        <v>-364</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-445</v>
+        <v>-443</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3861,17 +3861,17 @@
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A96" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B96" s="44" t="s">
+      <c r="A96" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="43" t="s">
         <v>157</v>
       </c>
-      <c r="C96" s="48" t="s">
+      <c r="C96" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="D96" s="33">
-        <v>1</v>
+      <c r="D96" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -4124,14 +4124,15 @@
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A115" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="C115" s="48" t="s">
+      <c r="A115" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="43"/>
+      <c r="C115" s="47" t="s">
         <v>190</v>
       </c>
-      <c r="D115" s="33">
-        <v>2</v>
+      <c r="D115" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="270">
   <si>
     <t>№</t>
   </si>
@@ -826,6 +826,18 @@
   </si>
   <si>
     <t>Update date record to last month -&gt; exception</t>
+  </si>
+  <si>
+    <t>Tests</t>
+  </si>
+  <si>
+    <t>Create tests for all</t>
+  </si>
+  <si>
+    <t>Events list</t>
+  </si>
+  <si>
+    <t>When event was paused and now is active, cannot pause it again</t>
   </si>
 </sst>
 </file>
@@ -856,7 +868,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -932,6 +944,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8B8B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1124,7 +1142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1240,6 +1258,15 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1257,6 +1284,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF8B8B"/>
+      <color rgb="FFFF4747"/>
       <color rgb="FF00FF00"/>
       <color rgb="FF33CCFF"/>
     </mruColors>
@@ -2565,11 +2594,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M135"/>
+  <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C99" sqref="C99"/>
+      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2590,16 +2619,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="52" t="s">
         <v>55</v>
       </c>
       <c r="F1" s="26" t="s">
@@ -2619,28 +2648,28 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="51"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43646</v>
+        <v>43647</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-364</v>
+        <v>-365</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-443</v>
+        <v>-446</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3805,16 +3834,16 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="44" t="s">
+      <c r="A92" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="48" t="s">
+      <c r="C92" s="50" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="33">
+      <c r="D92" s="51">
         <v>1</v>
       </c>
     </row>
@@ -3889,44 +3918,44 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A98" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B98" s="44" t="s">
+      <c r="A98" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C98" s="48" t="s">
+      <c r="C98" s="50" t="s">
         <v>163</v>
       </c>
-      <c r="D98" s="33">
+      <c r="D98" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A99" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B99" s="44" t="s">
+      <c r="A99" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B99" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="C99" s="48" t="s">
+      <c r="C99" s="50" t="s">
         <v>216</v>
       </c>
-      <c r="D99" s="33">
+      <c r="D99" s="51">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="44" t="s">
+      <c r="A100" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="44" t="s">
+      <c r="B100" s="49" t="s">
         <v>244</v>
       </c>
-      <c r="C100" s="48" t="s">
+      <c r="C100" s="50" t="s">
         <v>245</v>
       </c>
-      <c r="D100" s="33">
+      <c r="D100" s="51">
         <v>1</v>
       </c>
     </row>
@@ -4015,16 +4044,16 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A107" s="44" t="s">
+      <c r="A107" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B107" s="44" t="s">
+      <c r="B107" s="49" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="48" t="s">
+      <c r="C107" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="D107" s="33">
+      <c r="D107" s="51">
         <v>1</v>
       </c>
     </row>
@@ -4085,30 +4114,30 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A112" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B112" s="44" t="s">
+      <c r="A112" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B112" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="48" t="s">
+      <c r="C112" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="D112" s="33">
-        <v>1</v>
+      <c r="D112" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A113" s="44" t="s">
+      <c r="A113" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B113" s="44" t="s">
+      <c r="B113" s="49" t="s">
         <v>191</v>
       </c>
-      <c r="C113" s="48" t="s">
+      <c r="C113" s="50" t="s">
         <v>236</v>
       </c>
-      <c r="D113" s="33">
+      <c r="D113" s="51">
         <v>1</v>
       </c>
     </row>
@@ -4175,17 +4204,17 @@
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A119" s="44" t="s">
+      <c r="A119" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B119" s="44" t="s">
+      <c r="B119" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D119" s="33">
-        <v>2</v>
+      <c r="D119" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -4203,16 +4232,16 @@
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A121" s="44" t="s">
+      <c r="A121" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="B121" s="44" t="s">
+      <c r="B121" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="C121" s="48" t="s">
+      <c r="C121" s="50" t="s">
         <v>230</v>
       </c>
-      <c r="D121" s="33">
+      <c r="D121" s="51">
         <v>2</v>
       </c>
     </row>
@@ -4231,16 +4260,16 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A123" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B123" s="44" t="s">
+      <c r="A123" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="C123" s="48" t="s">
+      <c r="C123" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="D123" s="33">
+      <c r="D123" s="51">
         <v>3</v>
       </c>
     </row>
@@ -4284,16 +4313,16 @@
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A127" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B127" s="44" t="s">
+      <c r="A127" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B127" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C127" s="48" t="s">
+      <c r="C127" s="50" t="s">
         <v>139</v>
       </c>
-      <c r="D127" s="33">
+      <c r="D127" s="51">
         <v>7</v>
       </c>
     </row>
@@ -4356,44 +4385,72 @@
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A133" s="44" t="s">
+      <c r="A133" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B133" s="44" t="s">
+      <c r="B133" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="C133" s="48" t="s">
+      <c r="C133" s="47" t="s">
         <v>261</v>
       </c>
-      <c r="D133" s="33">
+      <c r="D133" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="B134" s="49" t="s">
+        <v>210</v>
+      </c>
+      <c r="C134" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D134" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="44" t="s">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="C134" s="48" t="s">
-        <v>262</v>
-      </c>
-      <c r="D134" s="33">
+      <c r="B135" s="49" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D135" s="51">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="44" t="s">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="B136" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="D136" s="51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A137" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="B135" s="44" t="s">
-        <v>264</v>
-      </c>
-      <c r="C135" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="D135" s="33">
+      <c r="B137" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" s="50" t="s">
+        <v>269</v>
+      </c>
+      <c r="D137" s="51">
         <v>1</v>
       </c>
     </row>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -2597,8 +2597,8 @@
   <dimension ref="A1:M137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A114" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C128" sqref="C128"/>
+      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2665,11 +2665,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-446</v>
+        <v>-444</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4399,31 +4399,31 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A134" s="49" t="s">
+      <c r="A134" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B134" s="49" t="s">
+      <c r="B134" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="C134" s="50" t="s">
+      <c r="C134" s="47" t="s">
         <v>262</v>
       </c>
-      <c r="D134" s="51">
-        <v>1</v>
+      <c r="D134" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A135" s="49" t="s">
+      <c r="A135" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B135" s="49" t="s">
+      <c r="B135" s="43" t="s">
         <v>264</v>
       </c>
-      <c r="C135" s="50" t="s">
+      <c r="C135" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="D135" s="51">
-        <v>1</v>
+      <c r="D135" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="272">
   <si>
     <t>№</t>
   </si>
@@ -838,6 +838,12 @@
   </si>
   <si>
     <t>When event was paused and now is active, cannot pause it again</t>
+  </si>
+  <si>
+    <t>Templates</t>
+  </si>
+  <si>
+    <t>Transactions</t>
   </si>
 </sst>
 </file>
@@ -2594,11 +2600,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M137"/>
+  <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2654,22 +2660,22 @@
       <c r="D2" s="53"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43647</v>
+        <v>43651</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-365</v>
+        <v>-369</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-444</v>
+        <v>-451</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4452,6 +4458,20 @@
       </c>
       <c r="D137" s="51">
         <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="C138" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="D138" s="51">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="272">
   <si>
     <t>№</t>
   </si>
@@ -2603,8 +2603,8 @@
   <dimension ref="A1:M138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C137" sqref="C137"/>
+      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,22 +2660,22 @@
       <c r="D2" s="53"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43651</v>
+        <v>43736</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-369</v>
+        <v>-454</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-451</v>
+        <v>-531</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3830,7 +3830,9 @@
       </c>
     </row>
     <row r="91" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A91" s="43"/>
+      <c r="A91" s="43" t="s">
+        <v>119</v>
+      </c>
       <c r="B91" s="43"/>
       <c r="C91" s="47" t="s">
         <v>113</v>
@@ -4377,17 +4379,17 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A132" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="B132" s="44" t="s">
+      <c r="A132" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B132" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="C132" s="48" t="s">
+      <c r="C132" s="47" t="s">
         <v>260</v>
       </c>
-      <c r="D132" s="33">
-        <v>2</v>
+      <c r="D132" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4461,17 +4463,17 @@
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A138" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B138" s="49" t="s">
+      <c r="A138" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138" s="43" t="s">
         <v>271</v>
       </c>
-      <c r="C138" s="50" t="s">
+      <c r="C138" s="47" t="s">
         <v>270</v>
       </c>
-      <c r="D138" s="51">
-        <v>3</v>
+      <c r="D138" s="36">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4508,7 +4510,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4604,7 +4606,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="274">
   <si>
     <t>№</t>
   </si>
@@ -844,6 +844,12 @@
   </si>
   <si>
     <t>Transactions</t>
+  </si>
+  <si>
+    <t>Debt details</t>
+  </si>
+  <si>
+    <t>PaymentType changing don't work correct if saved is DifferentialPayment</t>
   </si>
 </sst>
 </file>
@@ -2600,11 +2606,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M138"/>
+  <dimension ref="A1:M139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G125" sqref="G125"/>
+      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,22 +2666,22 @@
       <c r="D2" s="53"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43736</v>
+        <v>43737</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-454</v>
+        <v>-455</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-531</v>
+        <v>-533</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4474,6 +4480,20 @@
       </c>
       <c r="D138" s="36">
         <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A139" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B139" s="44" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="D139" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="275">
   <si>
     <t>№</t>
   </si>
@@ -850,6 +850,9 @@
   </si>
   <si>
     <t>PaymentType changing don't work correct if saved is DifferentialPayment</t>
+  </si>
+  <si>
+    <t>Opposite rate</t>
   </si>
 </sst>
 </file>
@@ -2606,11 +2609,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M139"/>
+  <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C149" sqref="C149"/>
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2677,11 +2680,11 @@
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-533</v>
+        <v>-535</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -4494,6 +4497,20 @@
       </c>
       <c r="D139" s="33">
         <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B140" s="44" t="s">
+        <v>226</v>
+      </c>
+      <c r="C140" s="48" t="s">
+        <v>274</v>
+      </c>
+      <c r="D140" s="33">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -2612,8 +2612,8 @@
   <dimension ref="A1:M140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C140" sqref="C140"/>
+      <pane ySplit="2" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C126" sqref="C126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2669,22 +2669,22 @@
       <c r="D2" s="53"/>
       <c r="F2" s="27">
         <f ca="1">TODAY()</f>
-        <v>43737</v>
+        <v>43752</v>
       </c>
       <c r="G2" s="27">
         <v>43282</v>
       </c>
       <c r="H2" s="25">
         <f ca="1">G2-F2</f>
-        <v>-455</v>
+        <v>-470</v>
       </c>
       <c r="J2" s="25">
         <f>SUM(D3:D157)</f>
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K2" s="25">
         <f ca="1">H2-J2</f>
-        <v>-535</v>
+        <v>-548</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -3851,17 +3851,17 @@
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A92" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="B92" s="49" t="s">
+      <c r="A92" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="50" t="s">
+      <c r="C92" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="D92" s="51">
-        <v>1</v>
+      <c r="D92" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3963,17 +3963,17 @@
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A100" s="49" t="s">
+      <c r="A100" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="C100" s="50" t="s">
+      <c r="C100" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="D100" s="51">
-        <v>1</v>
+      <c r="D100" s="36">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
